--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>50</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>5309</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>50</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-25</v>
+      </c>
       <c r="L13" t="n">
         <v>5307.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>50</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>5306.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>55</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>5305.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>55</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>5305.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>55</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50</v>
+      </c>
       <c r="L17" t="n">
         <v>5305.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>55</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>5304.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>55</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>5303.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>55</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>5303.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>55</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>5303.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>60</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>5304.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>5305.5</v>
@@ -1466,7 +1488,7 @@
         <v>70</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>5307.5</v>
@@ -1515,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>5310</v>
@@ -1564,7 +1586,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>5312</v>
@@ -1613,7 +1635,7 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>46.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L27" t="n">
         <v>5315.5</v>
@@ -1662,7 +1684,7 @@
         <v>115</v>
       </c>
       <c r="K28" t="n">
-        <v>50</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L28" t="n">
         <v>5320.5</v>
@@ -1711,7 +1733,7 @@
         <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>52.94117647058824</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L29" t="n">
         <v>5326</v>
@@ -1760,7 +1782,7 @@
         <v>125</v>
       </c>
       <c r="K30" t="n">
-        <v>62.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L30" t="n">
         <v>5331</v>
@@ -1809,7 +1831,7 @@
         <v>125</v>
       </c>
       <c r="K31" t="n">
-        <v>62.5</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L31" t="n">
         <v>5336</v>
@@ -1860,7 +1882,7 @@
         <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>44.44444444444444</v>
+        <v>37.5</v>
       </c>
       <c r="L32" t="n">
         <v>5339</v>
@@ -1911,7 +1933,7 @@
         <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>44.44444444444444</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>5342</v>
@@ -1962,7 +1984,7 @@
         <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>44.44444444444444</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>5344</v>
@@ -2013,7 +2035,7 @@
         <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>41.17647058823529</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L35" t="n">
         <v>5345</v>
@@ -2064,7 +2086,7 @@
         <v>165</v>
       </c>
       <c r="K36" t="n">
-        <v>9.090909090909092</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L36" t="n">
         <v>5344</v>
@@ -2115,7 +2137,7 @@
         <v>175</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L37" t="n">
         <v>5340.5</v>
@@ -2166,7 +2188,7 @@
         <v>180</v>
       </c>
       <c r="K38" t="n">
-        <v>-4</v>
+        <v>-100</v>
       </c>
       <c r="L38" t="n">
         <v>5335</v>
@@ -2217,7 +2239,7 @@
         <v>195</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L39" t="n">
         <v>5327.5</v>
@@ -2268,7 +2290,7 @@
         <v>205</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.666666666666667</v>
+        <v>-75</v>
       </c>
       <c r="L40" t="n">
         <v>5321.5</v>
@@ -2319,7 +2341,7 @@
         <v>215</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.5</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>5314.5</v>
@@ -2370,7 +2392,7 @@
         <v>220</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.5</v>
+        <v>-62.5</v>
       </c>
       <c r="L42" t="n">
         <v>5309.5</v>
@@ -2421,7 +2443,7 @@
         <v>225</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.15151515151515</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L43" t="n">
         <v>5304</v>
@@ -2472,7 +2494,7 @@
         <v>225</v>
       </c>
       <c r="K44" t="n">
-        <v>-22.58064516129032</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L44" t="n">
         <v>5298.5</v>
@@ -2523,7 +2545,7 @@
         <v>230</v>
       </c>
       <c r="K45" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L45" t="n">
         <v>5292.5</v>
@@ -2574,7 +2596,7 @@
         <v>230</v>
       </c>
       <c r="K46" t="n">
-        <v>-31.03448275862069</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L46" t="n">
         <v>5289</v>
@@ -2625,7 +2647,7 @@
         <v>230</v>
       </c>
       <c r="K47" t="n">
-        <v>-46.15384615384615</v>
+        <v>-40</v>
       </c>
       <c r="L47" t="n">
         <v>5286.5</v>
@@ -2676,7 +2698,7 @@
         <v>230</v>
       </c>
       <c r="K48" t="n">
-        <v>-65.21739130434783</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>5284.5</v>
@@ -2727,7 +2749,7 @@
         <v>235</v>
       </c>
       <c r="K49" t="n">
-        <v>-73.91304347826086</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>5283.5</v>
@@ -2778,7 +2800,7 @@
         <v>235</v>
       </c>
       <c r="K50" t="n">
-        <v>-72.72727272727273</v>
+        <v>-50</v>
       </c>
       <c r="L50" t="n">
         <v>5281.5</v>
@@ -2829,7 +2851,7 @@
         <v>235</v>
       </c>
       <c r="K51" t="n">
-        <v>-72.72727272727273</v>
+        <v>-100</v>
       </c>
       <c r="L51" t="n">
         <v>5280.5</v>
@@ -2880,7 +2902,7 @@
         <v>235</v>
       </c>
       <c r="K52" t="n">
-        <v>-68.42105263157895</v>
+        <v>-100</v>
       </c>
       <c r="L52" t="n">
         <v>5279</v>
@@ -2931,7 +2953,7 @@
         <v>240</v>
       </c>
       <c r="K53" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>5278.5</v>
@@ -2982,7 +3004,7 @@
         <v>240</v>
       </c>
       <c r="K54" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>5278</v>
@@ -3033,7 +3055,7 @@
         <v>275</v>
       </c>
       <c r="K55" t="n">
-        <v>-18.51851851851852</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L55" t="n">
         <v>5281.5</v>
@@ -3084,7 +3106,7 @@
         <v>290</v>
       </c>
       <c r="K56" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>5283.5</v>
@@ -3135,7 +3157,7 @@
         <v>290</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>5285.5</v>
@@ -3186,7 +3208,7 @@
         <v>290</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L58" t="n">
         <v>5287.5</v>
@@ -3237,7 +3259,7 @@
         <v>290</v>
       </c>
       <c r="K59" t="n">
-        <v>15.78947368421053</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L59" t="n">
         <v>5290</v>
@@ -3288,7 +3310,7 @@
         <v>290</v>
       </c>
       <c r="K60" t="n">
-        <v>5.88235294117647</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L60" t="n">
         <v>5292.5</v>
@@ -3339,7 +3361,7 @@
         <v>290</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L61" t="n">
         <v>5295</v>
@@ -3390,7 +3412,7 @@
         <v>290</v>
       </c>
       <c r="K62" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L62" t="n">
         <v>5297.5</v>
@@ -3441,7 +3463,7 @@
         <v>290</v>
       </c>
       <c r="K63" t="n">
-        <v>23.07692307692308</v>
+        <v>40</v>
       </c>
       <c r="L63" t="n">
         <v>5299.5</v>
@@ -3492,7 +3514,7 @@
         <v>290</v>
       </c>
       <c r="K64" t="n">
-        <v>23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>5301.5</v>
@@ -3542,9 +3564,7 @@
       <c r="J65" t="n">
         <v>290</v>
       </c>
-      <c r="K65" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>5300</v>
       </c>
@@ -3593,9 +3613,7 @@
       <c r="J66" t="n">
         <v>290</v>
       </c>
-      <c r="K66" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>5300</v>
       </c>
@@ -3644,9 +3662,7 @@
       <c r="J67" t="n">
         <v>290</v>
       </c>
-      <c r="K67" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>5300</v>
       </c>
@@ -3695,9 +3711,7 @@
       <c r="J68" t="n">
         <v>290</v>
       </c>
-      <c r="K68" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>5300</v>
       </c>
@@ -3746,9 +3760,7 @@
       <c r="J69" t="n">
         <v>290</v>
       </c>
-      <c r="K69" t="n">
-        <v>45.45454545454545</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>5300</v>
       </c>
@@ -3797,9 +3809,7 @@
       <c r="J70" t="n">
         <v>290</v>
       </c>
-      <c r="K70" t="n">
-        <v>45.45454545454545</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>5300</v>
       </c>
@@ -3849,7 +3859,7 @@
         <v>295</v>
       </c>
       <c r="K71" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>5300.5</v>
@@ -3900,7 +3910,7 @@
         <v>310</v>
       </c>
       <c r="K72" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>5299.5</v>
@@ -3951,7 +3961,7 @@
         <v>315</v>
       </c>
       <c r="K73" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L73" t="n">
         <v>5298</v>
@@ -4002,7 +4012,7 @@
         <v>315</v>
       </c>
       <c r="K74" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L74" t="n">
         <v>5296.5</v>
@@ -4053,7 +4063,7 @@
         <v>320</v>
       </c>
       <c r="K75" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>5295.5</v>
@@ -4308,7 +4318,7 @@
         <v>345</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>5294.5</v>
@@ -4359,7 +4369,7 @@
         <v>345</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L81" t="n">
         <v>5293.5</v>
@@ -4410,7 +4420,7 @@
         <v>350</v>
       </c>
       <c r="K82" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>5293.5</v>
@@ -4461,7 +4471,7 @@
         <v>350</v>
       </c>
       <c r="K83" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>5294</v>
@@ -4512,7 +4522,7 @@
         <v>350</v>
       </c>
       <c r="K84" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>5294.5</v>
@@ -4563,7 +4573,7 @@
         <v>355</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L85" t="n">
         <v>5295</v>
@@ -4665,7 +4675,7 @@
         <v>360</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>5294.5</v>
@@ -4716,7 +4726,7 @@
         <v>360</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>5295</v>
@@ -4767,7 +4777,7 @@
         <v>360</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>5295.5</v>
@@ -4818,7 +4828,7 @@
         <v>360</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>5296</v>
@@ -4869,7 +4879,7 @@
         <v>360</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
         <v>5296.5</v>
@@ -4920,7 +4930,7 @@
         <v>360</v>
       </c>
       <c r="K92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>5297.5</v>
@@ -4971,7 +4981,7 @@
         <v>375</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L93" t="n">
         <v>5297</v>
@@ -5022,7 +5032,7 @@
         <v>380</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L94" t="n">
         <v>5296</v>
@@ -5073,7 +5083,7 @@
         <v>390</v>
       </c>
       <c r="K95" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>5293.5</v>
@@ -5124,7 +5134,7 @@
         <v>395</v>
       </c>
       <c r="K96" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>5290</v>
@@ -5175,7 +5185,7 @@
         <v>395</v>
       </c>
       <c r="K97" t="n">
-        <v>-63.63636363636363</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>5286.5</v>
@@ -5226,7 +5236,7 @@
         <v>400</v>
       </c>
       <c r="K98" t="n">
-        <v>-63.63636363636363</v>
+        <v>-100</v>
       </c>
       <c r="L98" t="n">
         <v>5282.5</v>
@@ -5277,7 +5287,7 @@
         <v>415</v>
       </c>
       <c r="K99" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>5277</v>
@@ -5328,7 +5338,7 @@
         <v>415</v>
       </c>
       <c r="K100" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>5271.5</v>
@@ -5379,7 +5389,7 @@
         <v>425</v>
       </c>
       <c r="K101" t="n">
-        <v>-50</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L101" t="n">
         <v>5267</v>
@@ -5430,7 +5440,7 @@
         <v>430</v>
       </c>
       <c r="K102" t="n">
-        <v>-37.5</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L102" t="n">
         <v>5263</v>
@@ -5481,7 +5491,7 @@
         <v>445</v>
       </c>
       <c r="K103" t="n">
-        <v>-47.36842105263158</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L103" t="n">
         <v>5259</v>
@@ -5532,7 +5542,7 @@
         <v>450</v>
       </c>
       <c r="K104" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>5256</v>
@@ -5583,7 +5593,7 @@
         <v>450</v>
       </c>
       <c r="K105" t="n">
-        <v>-47.36842105263158</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L105" t="n">
         <v>5254</v>
@@ -5634,7 +5644,7 @@
         <v>450</v>
       </c>
       <c r="K106" t="n">
-        <v>-55.55555555555556</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L106" t="n">
         <v>5252.5</v>
@@ -5685,7 +5695,7 @@
         <v>455</v>
       </c>
       <c r="K107" t="n">
-        <v>-47.36842105263158</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L107" t="n">
         <v>5251.5</v>
@@ -5736,7 +5746,7 @@
         <v>455</v>
       </c>
       <c r="K108" t="n">
-        <v>-47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L108" t="n">
         <v>5251</v>
@@ -5787,7 +5797,7 @@
         <v>455</v>
       </c>
       <c r="K109" t="n">
-        <v>-47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
         <v>5252</v>
@@ -5838,7 +5848,7 @@
         <v>465</v>
       </c>
       <c r="K110" t="n">
-        <v>-52.38095238095239</v>
+        <v>-25</v>
       </c>
       <c r="L110" t="n">
         <v>5252</v>
@@ -5889,7 +5899,7 @@
         <v>470</v>
       </c>
       <c r="K111" t="n">
-        <v>-54.54545454545454</v>
+        <v>-50</v>
       </c>
       <c r="L111" t="n">
         <v>5250.5</v>
@@ -5940,7 +5950,7 @@
         <v>485</v>
       </c>
       <c r="K112" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="L112" t="n">
         <v>5247</v>
@@ -5991,7 +6001,7 @@
         <v>505</v>
       </c>
       <c r="K113" t="n">
-        <v>-30.76923076923077</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L113" t="n">
         <v>5247</v>
@@ -6042,7 +6052,7 @@
         <v>520</v>
       </c>
       <c r="K114" t="n">
-        <v>-35.71428571428572</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>5245</v>
@@ -6093,7 +6103,7 @@
         <v>530</v>
       </c>
       <c r="K115" t="n">
-        <v>-21.42857142857143</v>
+        <v>-12.5</v>
       </c>
       <c r="L115" t="n">
         <v>5244</v>
@@ -6144,7 +6154,7 @@
         <v>530</v>
       </c>
       <c r="K116" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>5243</v>
@@ -6195,7 +6205,7 @@
         <v>530</v>
       </c>
       <c r="K117" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>5241.5</v>
@@ -6246,7 +6256,7 @@
         <v>535</v>
       </c>
       <c r="K118" t="n">
-        <v>-18.51851851851852</v>
+        <v>-25</v>
       </c>
       <c r="L118" t="n">
         <v>5239.5</v>
@@ -6297,7 +6307,7 @@
         <v>555</v>
       </c>
       <c r="K119" t="n">
-        <v>7.142857142857142</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L119" t="n">
         <v>5239.5</v>
@@ -6348,7 +6358,7 @@
         <v>560</v>
       </c>
       <c r="K120" t="n">
-        <v>3.448275862068965</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L120" t="n">
         <v>5240</v>
@@ -6399,7 +6409,7 @@
         <v>570</v>
       </c>
       <c r="K121" t="n">
-        <v>3.448275862068965</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L121" t="n">
         <v>5242</v>
@@ -6450,7 +6460,7 @@
         <v>580</v>
       </c>
       <c r="K122" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>5246.5</v>
@@ -6501,7 +6511,7 @@
         <v>605</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L123" t="n">
         <v>5246.5</v>
@@ -6552,7 +6562,7 @@
         <v>620</v>
       </c>
       <c r="K124" t="n">
-        <v>5.88235294117647</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L124" t="n">
         <v>5249.5</v>
@@ -6603,7 +6613,7 @@
         <v>625</v>
       </c>
       <c r="K125" t="n">
-        <v>2.857142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L125" t="n">
         <v>5251</v>
@@ -6654,7 +6664,7 @@
         <v>635</v>
       </c>
       <c r="K126" t="n">
-        <v>-2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L126" t="n">
         <v>5251.5</v>
@@ -6705,7 +6715,7 @@
         <v>645</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L127" t="n">
         <v>5253</v>
@@ -6807,7 +6817,7 @@
         <v>650</v>
       </c>
       <c r="K129" t="n">
-        <v>2.564102564102564</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L129" t="n">
         <v>5255.5</v>
@@ -6858,7 +6868,7 @@
         <v>670</v>
       </c>
       <c r="K130" t="n">
-        <v>17.07317073170732</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>5258.5</v>
@@ -6909,7 +6919,7 @@
         <v>680</v>
       </c>
       <c r="K131" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>5259.5</v>
@@ -6960,7 +6970,7 @@
         <v>680</v>
       </c>
       <c r="K132" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>5259.5</v>
@@ -7011,7 +7021,7 @@
         <v>690</v>
       </c>
       <c r="K133" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>5261</v>
@@ -7062,7 +7072,7 @@
         <v>690</v>
       </c>
       <c r="K134" t="n">
-        <v>17.64705882352941</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L134" t="n">
         <v>5261</v>
@@ -7113,7 +7123,7 @@
         <v>690</v>
       </c>
       <c r="K135" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L135" t="n">
         <v>5261.5</v>
@@ -7164,7 +7174,7 @@
         <v>690</v>
       </c>
       <c r="K136" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>5263</v>
@@ -7215,7 +7225,7 @@
         <v>690</v>
       </c>
       <c r="K137" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>5263.5</v>
@@ -7266,7 +7276,7 @@
         <v>695</v>
       </c>
       <c r="K138" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L138" t="n">
         <v>5263.5</v>
@@ -7317,7 +7327,7 @@
         <v>700</v>
       </c>
       <c r="K139" t="n">
-        <v>-3.448275862068965</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>5262.5</v>
@@ -7368,7 +7378,7 @@
         <v>700</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>5259.5</v>
@@ -7419,7 +7429,7 @@
         <v>700</v>
       </c>
       <c r="K141" t="n">
-        <v>-7.692307692307693</v>
+        <v>-100</v>
       </c>
       <c r="L141" t="n">
         <v>5257.5</v>
@@ -7470,7 +7480,7 @@
         <v>700</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L142" t="n">
         <v>5255.5</v>
@@ -7521,7 +7531,7 @@
         <v>700</v>
       </c>
       <c r="K143" t="n">
-        <v>5.263157894736842</v>
+        <v>-100</v>
       </c>
       <c r="L143" t="n">
         <v>5254.5</v>
@@ -7572,7 +7582,7 @@
         <v>700</v>
       </c>
       <c r="K144" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L144" t="n">
         <v>5253.5</v>
@@ -7623,7 +7633,7 @@
         <v>700</v>
       </c>
       <c r="K145" t="n">
-        <v>-6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L145" t="n">
         <v>5252.5</v>
@@ -7674,7 +7684,7 @@
         <v>700</v>
       </c>
       <c r="K146" t="n">
-        <v>7.692307692307693</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>5251.5</v>
@@ -7725,7 +7735,7 @@
         <v>700</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>5250.5</v>
@@ -7775,9 +7785,7 @@
       <c r="J148" t="n">
         <v>700</v>
       </c>
-      <c r="K148" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>5250</v>
       </c>
@@ -7826,9 +7834,7 @@
       <c r="J149" t="n">
         <v>700</v>
       </c>
-      <c r="K149" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>5250</v>
       </c>
@@ -7877,9 +7883,7 @@
       <c r="J150" t="n">
         <v>700</v>
       </c>
-      <c r="K150" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>5250</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>710</v>
       </c>
       <c r="K151" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>5251</v>
@@ -7980,7 +7984,7 @@
         <v>725</v>
       </c>
       <c r="K152" t="n">
-        <v>-55.55555555555556</v>
+        <v>-20</v>
       </c>
       <c r="L152" t="n">
         <v>5250.5</v>
@@ -8031,7 +8035,7 @@
         <v>740</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L153" t="n">
         <v>5251.5</v>
@@ -8082,7 +8086,7 @@
         <v>745</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>5253</v>
@@ -8133,7 +8137,7 @@
         <v>745</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>5254.5</v>
@@ -8184,7 +8188,7 @@
         <v>750</v>
       </c>
       <c r="K156" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L156" t="n">
         <v>5256.5</v>
@@ -8235,7 +8239,7 @@
         <v>780</v>
       </c>
       <c r="K157" t="n">
-        <v>44.44444444444444</v>
+        <v>62.5</v>
       </c>
       <c r="L157" t="n">
         <v>5261.5</v>
@@ -8286,7 +8290,7 @@
         <v>795</v>
       </c>
       <c r="K158" t="n">
-        <v>30</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L158" t="n">
         <v>5265</v>
@@ -8388,7 +8392,7 @@
         <v>845</v>
       </c>
       <c r="K160" t="n">
-        <v>37.93103448275862</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>5277.5</v>
@@ -8439,7 +8443,7 @@
         <v>865</v>
       </c>
       <c r="K161" t="n">
-        <v>21.21212121212121</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L161" t="n">
         <v>5280</v>
@@ -8490,7 +8494,7 @@
         <v>865</v>
       </c>
       <c r="K162" t="n">
-        <v>21.21212121212121</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
         <v>5284</v>
@@ -8541,7 +8545,7 @@
         <v>885</v>
       </c>
       <c r="K163" t="n">
-        <v>29.72972972972973</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L163" t="n">
         <v>5288.5</v>
@@ -8592,7 +8596,7 @@
         <v>890</v>
       </c>
       <c r="K164" t="n">
-        <v>31.57894736842105</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L164" t="n">
         <v>5293</v>
@@ -8643,7 +8647,7 @@
         <v>925</v>
       </c>
       <c r="K165" t="n">
-        <v>42.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>5301</v>
@@ -8694,7 +8698,7 @@
         <v>930</v>
       </c>
       <c r="K166" t="n">
-        <v>43.47826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>5309</v>
@@ -8745,7 +8749,7 @@
         <v>940</v>
       </c>
       <c r="K167" t="n">
-        <v>37.5</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L167" t="n">
         <v>5313</v>
@@ -8796,7 +8800,7 @@
         <v>940</v>
       </c>
       <c r="K168" t="n">
-        <v>37.5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L168" t="n">
         <v>5318.5</v>
@@ -8847,7 +8851,7 @@
         <v>945</v>
       </c>
       <c r="K169" t="n">
-        <v>38.77551020408163</v>
+        <v>40</v>
       </c>
       <c r="L169" t="n">
         <v>5321</v>
@@ -8898,7 +8902,7 @@
         <v>960</v>
       </c>
       <c r="K170" t="n">
-        <v>42.30769230769231</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L170" t="n">
         <v>5326.5</v>
@@ -8949,7 +8953,7 @@
         <v>970</v>
       </c>
       <c r="K171" t="n">
-        <v>42.30769230769231</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L171" t="n">
         <v>5335</v>
@@ -9004,7 +9008,7 @@
         <v>970</v>
       </c>
       <c r="K172" t="n">
-        <v>51.02040816326531</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L172" t="n">
         <v>5343.5</v>
@@ -9063,7 +9067,7 @@
         <v>1020</v>
       </c>
       <c r="K173" t="n">
-        <v>57.14285714285714</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L173" t="n">
         <v>5355</v>
@@ -9122,7 +9126,7 @@
         <v>1090</v>
       </c>
       <c r="K174" t="n">
-        <v>65.21739130434783</v>
+        <v>87.87878787878788</v>
       </c>
       <c r="L174" t="n">
         <v>5373</v>
@@ -9181,7 +9185,7 @@
         <v>1105</v>
       </c>
       <c r="K175" t="n">
-        <v>66.66666666666666</v>
+        <v>88.57142857142857</v>
       </c>
       <c r="L175" t="n">
         <v>5389</v>
@@ -9240,7 +9244,7 @@
         <v>1110</v>
       </c>
       <c r="K176" t="n">
-        <v>63.88888888888889</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L176" t="n">
         <v>5404</v>
@@ -9299,7 +9303,7 @@
         <v>1155</v>
       </c>
       <c r="K177" t="n">
-        <v>41.33333333333334</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L177" t="n">
         <v>5415.5</v>
@@ -9358,7 +9362,7 @@
         <v>1210</v>
       </c>
       <c r="K178" t="n">
-        <v>54.21686746987952</v>
+        <v>62.26415094339622</v>
       </c>
       <c r="L178" t="n">
         <v>5432.5</v>
@@ -9417,7 +9421,7 @@
         <v>1215</v>
       </c>
       <c r="K179" t="n">
-        <v>50.64935064935064</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="L179" t="n">
         <v>5449.5</v>
@@ -9476,7 +9480,7 @@
         <v>1255</v>
       </c>
       <c r="K180" t="n">
-        <v>41.46341463414634</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L180" t="n">
         <v>5461</v>
@@ -9535,7 +9539,7 @@
         <v>1260</v>
       </c>
       <c r="K181" t="n">
-        <v>46.83544303797468</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="L181" t="n">
         <v>5471</v>
@@ -9592,7 +9596,7 @@
         <v>1280</v>
       </c>
       <c r="K182" t="n">
-        <v>39.75903614457831</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L182" t="n">
         <v>5479</v>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S182"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5311</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5309</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>50</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5307.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5306.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>55</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>55</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5304.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J19" t="n">
-        <v>55</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5303.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>55</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5303.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5303.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>5307.25</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>60</v>
-      </c>
-      <c r="K22" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5304.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>5306.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>60</v>
-      </c>
-      <c r="K23" t="n">
-        <v>100</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5305.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>5306.5</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,24 +1226,10 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>70</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5307.5</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>5307</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>80</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>5307.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>85</v>
-      </c>
-      <c r="K26" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>5308.75</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-      <c r="K27" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5315.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>5310.5</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>115</v>
-      </c>
-      <c r="K28" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5320.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>5312.5</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
-      </c>
-      <c r="J29" t="n">
-        <v>120</v>
-      </c>
-      <c r="K29" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>5314.75</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
-      </c>
-      <c r="J30" t="n">
-        <v>125</v>
-      </c>
-      <c r="K30" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>5317.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
-      </c>
-      <c r="J31" t="n">
-        <v>125</v>
-      </c>
-      <c r="K31" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>5319.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5316.833333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>140</v>
-      </c>
-      <c r="K32" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>5321.75</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5317.5</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>140</v>
-      </c>
-      <c r="K33" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>5323.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5318.333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>20</v>
-      </c>
-      <c r="J34" t="n">
-        <v>140</v>
-      </c>
-      <c r="K34" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>5325.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5319.333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
-      </c>
-      <c r="J35" t="n">
-        <v>140</v>
-      </c>
-      <c r="K35" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>5327.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5320.166666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>165</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>5328</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5320.5</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>175</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5340.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>5328</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5320.5</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J38" t="n">
-        <v>180</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>5327.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5320</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J39" t="n">
-        <v>195</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5327.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>5326.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5319</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J40" t="n">
-        <v>205</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5321.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>5326.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5318.666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>215</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-73.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5314.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>5325.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5318</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J42" t="n">
-        <v>220</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5309.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>5324.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5317.666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J43" t="n">
-        <v>225</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>5323</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5317.166666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J44" t="n">
-        <v>225</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5298.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>5321.25</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5316.666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J45" t="n">
-        <v>230</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5292.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>5318.75</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5315.833333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J46" t="n">
-        <v>230</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>5316.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5315</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>230</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5286.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>5313.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5314.166666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J48" t="n">
-        <v>230</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5284.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>5309.75</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5313.333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J49" t="n">
-        <v>235</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5283.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5312.333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J50" t="n">
-        <v>235</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5281.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>5301.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5311.333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J51" t="n">
-        <v>235</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5280.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>5297.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5310.333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J52" t="n">
-        <v>235</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>5294.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5309.166666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>240</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5278.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>5291.25</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5308.166666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J54" t="n">
-        <v>240</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>5288.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5306.833333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>275</v>
-      </c>
-      <c r="K55" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5281.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>5287</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5306.333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J56" t="n">
-        <v>290</v>
-      </c>
-      <c r="K56" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5283.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>5286.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J57" t="n">
-        <v>290</v>
-      </c>
-      <c r="K57" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5285.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>5286</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5304.166666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J58" t="n">
-        <v>290</v>
-      </c>
-      <c r="K58" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5287.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>5286</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5302.333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>290</v>
-      </c>
-      <c r="K59" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>5286.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5300.333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>290</v>
-      </c>
-      <c r="K60" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5292.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>5287</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5298.5</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>290</v>
-      </c>
-      <c r="K61" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>5287.75</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5296.666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J62" t="n">
-        <v>290</v>
-      </c>
-      <c r="K62" t="n">
-        <v>40</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5297.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>5288.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5295.333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>290</v>
-      </c>
-      <c r="K63" t="n">
-        <v>40</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5299.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>5289</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5294</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J64" t="n">
-        <v>290</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5301.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>5289.75</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5292.666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,26 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>5290.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5291.333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,26 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>5291.75</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5290.833333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3657,26 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J67" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>5292.75</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5290.666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,26 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>5293.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5290.666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,26 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J69" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>5295</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5291.166666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,26 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J70" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>5300</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>5296.25</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5291.333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>295</v>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5300.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>5297.75</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5292</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J72" t="n">
-        <v>310</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5299.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>5298.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5292</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J73" t="n">
-        <v>315</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>5298.75</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5292</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J74" t="n">
-        <v>315</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5296.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>5299</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5292</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J75" t="n">
-        <v>320</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5295.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>5297.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5292.333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>335</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>5298</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5293.166666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J77" t="n">
-        <v>340</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>5298</v>
-      </c>
-      <c r="N77" t="n">
-        <v>5293.833333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J78" t="n">
-        <v>345</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5295.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>5297.75</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5294.333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J79" t="n">
-        <v>345</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>5297.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>345</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5294.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>5297.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5295.666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4363,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J81" t="n">
-        <v>345</v>
-      </c>
-      <c r="K81" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5293.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>5297</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5296.333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J82" t="n">
-        <v>350</v>
-      </c>
-      <c r="K82" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5293.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>5296.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J83" t="n">
-        <v>350</v>
-      </c>
-      <c r="K83" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>5296</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5297.166666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J84" t="n">
-        <v>350</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5294.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>5295.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5297.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>355</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>360</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5294.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J87" t="n">
-        <v>360</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5294.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J88" t="n">
-        <v>360</v>
-      </c>
-      <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>360</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5295.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J90" t="n">
-        <v>360</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4873,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J91" t="n">
-        <v>360</v>
-      </c>
-      <c r="K91" t="n">
-        <v>100</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5296.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>5295</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J92" t="n">
-        <v>360</v>
-      </c>
-      <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5297.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>5295.5</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5296.833333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4975,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J93" t="n">
-        <v>375</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>5295.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5296.333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J94" t="n">
-        <v>380</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>5295.25</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5295.666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5077,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>390</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5293.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>5294.25</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5294.666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J96" t="n">
-        <v>395</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>5292.25</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5293.5</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5179,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J97" t="n">
-        <v>395</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5286.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>5290.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5292.333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J98" t="n">
-        <v>400</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5282.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>5288.75</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5291</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J99" t="n">
-        <v>415</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>5286.25</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5289.166666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J100" t="n">
-        <v>415</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5271.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>5283.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5287.333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>425</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-69.23076923076923</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>5281.75</v>
-      </c>
-      <c r="N101" t="n">
-        <v>5285.666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J102" t="n">
-        <v>430</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>5280.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5284.666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J103" t="n">
-        <v>445</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>5278</v>
-      </c>
-      <c r="N103" t="n">
-        <v>5283.333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J104" t="n">
-        <v>450</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>5276</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5282.166666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J105" t="n">
-        <v>450</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>5273.75</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5280.833333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J106" t="n">
-        <v>450</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5252.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>5271.25</v>
-      </c>
-      <c r="N106" t="n">
-        <v>5279</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5689,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J107" t="n">
-        <v>455</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5251.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>5269</v>
-      </c>
-      <c r="N107" t="n">
-        <v>5277.5</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J108" t="n">
-        <v>455</v>
-      </c>
-      <c r="K108" t="n">
-        <v>25</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>5266.75</v>
-      </c>
-      <c r="N108" t="n">
-        <v>5276.166666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J109" t="n">
-        <v>455</v>
-      </c>
-      <c r="K109" t="n">
-        <v>25</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>5264.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5274.833333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J110" t="n">
-        <v>465</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L110" t="n">
-        <v>5252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>5261.75</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5273.166666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J111" t="n">
-        <v>470</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5250.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>5258.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>5271.333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J112" t="n">
-        <v>485</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>5255</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5269.166666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J113" t="n">
-        <v>505</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>5253</v>
-      </c>
-      <c r="N113" t="n">
-        <v>5267.666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6043,31 +4371,19 @@
         <v>5281.583333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>520</v>
+        <v>5230</v>
       </c>
       <c r="K114" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5245</v>
-      </c>
+        <v>5230</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>5250.5</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5265.666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,31 +4410,23 @@
         <v>5280.333333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>530</v>
+        <v>5240</v>
       </c>
       <c r="K115" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5244</v>
+        <v>5230</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>5249</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5263.833333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6145,31 +4453,23 @@
         <v>5279.333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>530</v>
+        <v>5245</v>
       </c>
       <c r="K116" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5243</v>
+        <v>5230</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>5247.75</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5261.833333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6196,31 +4496,19 @@
         <v>5278.333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>530</v>
+        <v>5240</v>
       </c>
       <c r="K117" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5241.5</v>
-      </c>
+        <v>5240</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>5246.5</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5259.833333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6247,31 +4535,23 @@
         <v>5277.25</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>535</v>
+        <v>5240</v>
       </c>
       <c r="K118" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5239.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>5245.25</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5257.666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,31 +4578,23 @@
         <v>5276.5</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>555</v>
+        <v>5255</v>
       </c>
       <c r="K119" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5239.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>5245.75</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5256.166666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6349,31 +4621,23 @@
         <v>5275.666666666667</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>560</v>
+        <v>5250</v>
       </c>
       <c r="K120" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L120" t="n">
         <v>5240</v>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
-        <v>5246</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5254.5</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6400,31 +4664,23 @@
         <v>5275</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>570</v>
+        <v>5255</v>
       </c>
       <c r="K121" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5242</v>
+        <v>5240</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>5246.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5253.166666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,31 +4707,23 @@
         <v>5274.5</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>580</v>
+        <v>5270</v>
       </c>
       <c r="K122" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5246.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>5246.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5252.166666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,31 +4750,23 @@
         <v>5273.583333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>605</v>
+        <v>5265</v>
       </c>
       <c r="K123" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5246.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>5246.75</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5250.833333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6553,31 +4793,23 @@
         <v>5272.916666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>620</v>
+        <v>5255</v>
       </c>
       <c r="K124" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5249.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>5247.25</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5250.166666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,31 +4836,23 @@
         <v>5272.166666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>625</v>
+        <v>5255</v>
       </c>
       <c r="K125" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5251</v>
+        <v>5240</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>5247.5</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5249.666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6655,31 +4879,23 @@
         <v>5271.25</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>635</v>
+        <v>5245</v>
       </c>
       <c r="K126" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5251.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>5247.25</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5249</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,31 +4922,23 @@
         <v>5270.5</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>645</v>
+        <v>5255</v>
       </c>
       <c r="K127" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5253</v>
+        <v>5240</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>5247.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5248.666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6757,31 +4965,23 @@
         <v>5269.75</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>645</v>
+        <v>5255</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5255</v>
+        <v>5240</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>5247.25</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5248.5</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6808,31 +5008,23 @@
         <v>5269.083333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>650</v>
+        <v>5275</v>
       </c>
       <c r="K129" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5255.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>5247.5</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5249</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6859,31 +5051,23 @@
         <v>5268.75</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>670</v>
+        <v>5275</v>
       </c>
       <c r="K130" t="n">
-        <v>20</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5258.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>5249.25</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5250.166666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6910,31 +5094,23 @@
         <v>5268.166666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>680</v>
+        <v>5270</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5259.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>5250.75</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5250.666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6964,28 +5140,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J132" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5259.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>5253</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5251</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,28 +5181,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J133" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5261</v>
+        <v>5240</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>5253.75</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5251.5</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7066,28 +5222,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J134" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L134" t="n">
-        <v>5261</v>
+        <v>5240</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>5255.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>5251.833333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,28 +5263,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J135" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L135" t="n">
-        <v>5261.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>5256.25</v>
-      </c>
-      <c r="N135" t="n">
-        <v>5252.166666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,28 +5304,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J136" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5263</v>
+        <v>5240</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>5257.25</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5252.5</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7216,31 +5342,23 @@
         <v>5265.083333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>690</v>
+        <v>5260</v>
       </c>
       <c r="K137" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L137" t="n">
-        <v>5263.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>5258.25</v>
-      </c>
-      <c r="N137" t="n">
-        <v>5252.666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7267,31 +5385,23 @@
         <v>5264.416666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>695</v>
+        <v>5260</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L138" t="n">
-        <v>5263.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>5259.25</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5252.666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7318,31 +5428,23 @@
         <v>5263.666666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K139" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L139" t="n">
-        <v>5262.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>5259</v>
-      </c>
-      <c r="N139" t="n">
-        <v>5252.5</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7369,31 +5471,23 @@
         <v>5262.916666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K140" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5259.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>5259</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5252.666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7420,31 +5514,23 @@
         <v>5262.166666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K141" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5257.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>5258.5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>5253</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7471,31 +5557,23 @@
         <v>5261.5</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K142" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5255.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>5257.5</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5253.833333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7522,31 +5600,23 @@
         <v>5260.833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K143" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L143" t="n">
-        <v>5254.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>5257.75</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5254</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,31 +5643,23 @@
         <v>5260.166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K144" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>5253.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>5257.25</v>
-      </c>
-      <c r="N144" t="n">
-        <v>5254.666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,31 +5686,23 @@
         <v>5259.416666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K145" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5252.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>5257</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5255</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7675,31 +5729,23 @@
         <v>5258.583333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K146" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5251.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>5257.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>5255.333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7726,31 +5772,23 @@
         <v>5257.75</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>700</v>
+        <v>5250</v>
       </c>
       <c r="K147" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5250.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>5257</v>
-      </c>
-      <c r="N147" t="n">
-        <v>5255.666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7777,29 +5815,23 @@
         <v>5256.916666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>700</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>5250</v>
+        <v>5250</v>
+      </c>
+      <c r="K148" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>5256.75</v>
-      </c>
-      <c r="N148" t="n">
-        <v>5256.166666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7826,29 +5858,23 @@
         <v>5256.083333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>700</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>5250</v>
+        <v>5250</v>
+      </c>
+      <c r="K149" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>5256.25</v>
-      </c>
-      <c r="N149" t="n">
-        <v>5256</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,29 +5901,23 @@
         <v>5255.25</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>700</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>5250</v>
+        <v>5250</v>
+      </c>
+      <c r="K150" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>5254.75</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5256</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7924,31 +5944,23 @@
         <v>5254.583333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>710</v>
+        <v>5260</v>
       </c>
       <c r="K151" t="n">
-        <v>100</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5251</v>
+        <v>5240</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>5254.25</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5256</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7975,31 +5987,23 @@
         <v>5253.666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>725</v>
+        <v>5245</v>
       </c>
       <c r="K152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5250.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>5253</v>
-      </c>
-      <c r="N152" t="n">
-        <v>5255.166666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,31 +6030,23 @@
         <v>5253.25</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>740</v>
+        <v>5260</v>
       </c>
       <c r="K153" t="n">
-        <v>25</v>
-      </c>
-      <c r="L153" t="n">
-        <v>5251.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>5253</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5255.666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,31 +6073,23 @@
         <v>5253</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>745</v>
+        <v>5265</v>
       </c>
       <c r="K154" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5253</v>
+        <v>5240</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>5253.25</v>
-      </c>
-      <c r="N154" t="n">
-        <v>5255.833333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8128,31 +6116,23 @@
         <v>5252.916666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>745</v>
+        <v>5260</v>
       </c>
       <c r="K155" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5254.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>5253.5</v>
-      </c>
-      <c r="N155" t="n">
-        <v>5256.166666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8179,31 +6159,23 @@
         <v>5253</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>750</v>
+        <v>5265</v>
       </c>
       <c r="K156" t="n">
-        <v>40</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5256.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>5254</v>
-      </c>
-      <c r="N156" t="n">
-        <v>5257</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8230,31 +6202,23 @@
         <v>5253.583333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>780</v>
+        <v>5275</v>
       </c>
       <c r="K157" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5261.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>5256</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5258.5</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8281,31 +6245,23 @@
         <v>5254</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>795</v>
+        <v>5285</v>
       </c>
       <c r="K158" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L158" t="n">
-        <v>5265</v>
+        <v>5240</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>5257.5</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5259.5</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8337,26 +6293,16 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>830</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L159" t="n">
-        <v>5272</v>
+        <v>5240</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>5261</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5261.5</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8386,29 +6332,19 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J160" t="n">
-        <v>845</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>5277.5</v>
+        <v>5240</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>5263.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>5262.333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
+        <v>1.007404580152672</v>
       </c>
     </row>
     <row r="161">
@@ -8437,1191 +6373,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J161" t="n">
-        <v>865</v>
-      </c>
-      <c r="K161" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L161" t="n">
-        <v>5280</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>5265.5</v>
-      </c>
-      <c r="N161" t="n">
-        <v>5262.833333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F162" t="n">
-        <v>159.7739</v>
-      </c>
-      <c r="G162" t="n">
-        <v>5257.166666666667</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J162" t="n">
-        <v>865</v>
-      </c>
-      <c r="K162" t="n">
-        <v>20</v>
-      </c>
-      <c r="L162" t="n">
-        <v>5284</v>
-      </c>
-      <c r="M162" t="n">
-        <v>5267.25</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5263.333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="F163" t="n">
-        <v>100.637</v>
-      </c>
-      <c r="G163" t="n">
-        <v>5258.166666666667</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J163" t="n">
-        <v>885</v>
-      </c>
-      <c r="K163" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5288.5</v>
-      </c>
-      <c r="M163" t="n">
-        <v>5270</v>
-      </c>
-      <c r="N163" t="n">
-        <v>5264.833333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5310</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5310</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5280</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1320.2635</v>
-      </c>
-      <c r="G164" t="n">
-        <v>5259.166666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J164" t="n">
-        <v>890</v>
-      </c>
-      <c r="K164" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5293</v>
-      </c>
-      <c r="M164" t="n">
-        <v>5273</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5266.5</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5315</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5315</v>
-      </c>
-      <c r="F165" t="n">
-        <v>417.5425</v>
-      </c>
-      <c r="G165" t="n">
-        <v>5260.75</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>25</v>
-      </c>
-      <c r="J165" t="n">
-        <v>925</v>
-      </c>
-      <c r="K165" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5301</v>
-      </c>
-      <c r="M165" t="n">
-        <v>5277.75</v>
-      </c>
-      <c r="N165" t="n">
-        <v>5269.333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5345</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5350</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5345</v>
-      </c>
-      <c r="F166" t="n">
-        <v>49.667</v>
-      </c>
-      <c r="G166" t="n">
-        <v>5262.416666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>30</v>
-      </c>
-      <c r="J166" t="n">
-        <v>930</v>
-      </c>
-      <c r="K166" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5309</v>
-      </c>
-      <c r="M166" t="n">
-        <v>5282.75</v>
-      </c>
-      <c r="N166" t="n">
-        <v>5272.333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>5350</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D167" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F167" t="n">
-        <v>375.084</v>
-      </c>
-      <c r="G167" t="n">
-        <v>5263.833333333333</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>20</v>
-      </c>
-      <c r="J167" t="n">
-        <v>940</v>
-      </c>
-      <c r="K167" t="n">
-        <v>37.93103448275862</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5313</v>
-      </c>
-      <c r="M167" t="n">
-        <v>5287.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5275</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="C168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F168" t="n">
-        <v>590.9604</v>
-      </c>
-      <c r="G168" t="n">
-        <v>5265.25</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>20</v>
-      </c>
-      <c r="J168" t="n">
-        <v>940</v>
-      </c>
-      <c r="K168" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5318.5</v>
-      </c>
-      <c r="M168" t="n">
-        <v>5291.75</v>
-      </c>
-      <c r="N168" t="n">
-        <v>5277.833333333333</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5330</v>
-      </c>
-      <c r="F169" t="n">
-        <v>140.7102</v>
-      </c>
-      <c r="G169" t="n">
-        <v>5266.75</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>25</v>
-      </c>
-      <c r="J169" t="n">
-        <v>945</v>
-      </c>
-      <c r="K169" t="n">
-        <v>40</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5321</v>
-      </c>
-      <c r="M169" t="n">
-        <v>5296.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>5281</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>5355</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5360</v>
-      </c>
-      <c r="D170" t="n">
-        <v>5360</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5355</v>
-      </c>
-      <c r="F170" t="n">
-        <v>297.5</v>
-      </c>
-      <c r="G170" t="n">
-        <v>5268.666666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>40</v>
-      </c>
-      <c r="J170" t="n">
-        <v>960</v>
-      </c>
-      <c r="K170" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5326.5</v>
-      </c>
-      <c r="M170" t="n">
-        <v>5302</v>
-      </c>
-      <c r="N170" t="n">
-        <v>5284.666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18.6402</v>
-      </c>
-      <c r="G171" t="n">
-        <v>5270.833333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>50</v>
-      </c>
-      <c r="J171" t="n">
-        <v>970</v>
-      </c>
-      <c r="K171" t="n">
-        <v>80.95238095238095</v>
-      </c>
-      <c r="L171" t="n">
-        <v>5335</v>
-      </c>
-      <c r="M171" t="n">
-        <v>5307.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>5288.666666666667</v>
-      </c>
-      <c r="O171" t="n">
-        <v>5360</v>
-      </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5365</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5370</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5370</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5365</v>
-      </c>
-      <c r="F172" t="n">
-        <v>337.5189</v>
-      </c>
-      <c r="G172" t="n">
-        <v>5273.25</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>50</v>
-      </c>
-      <c r="J172" t="n">
-        <v>970</v>
-      </c>
-      <c r="K172" t="n">
-        <v>76.47058823529412</v>
-      </c>
-      <c r="L172" t="n">
-        <v>5343.5</v>
-      </c>
-      <c r="M172" t="n">
-        <v>5313.75</v>
-      </c>
-      <c r="N172" t="n">
-        <v>5292.666666666667</v>
-      </c>
-      <c r="O172" t="n">
-        <v>5370</v>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5375</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5420</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5420</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5375</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1418.177</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5276.166666666667</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>100</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K173" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5355</v>
-      </c>
-      <c r="M173" t="n">
-        <v>5321.75</v>
-      </c>
-      <c r="N173" t="n">
-        <v>5298.333333333333</v>
-      </c>
-      <c r="O173" t="n">
-        <v>5370</v>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5440</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5490</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5490</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5440</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1011.464</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5280.5</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>170</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1090</v>
-      </c>
-      <c r="K174" t="n">
-        <v>87.87878787878788</v>
-      </c>
-      <c r="L174" t="n">
-        <v>5373</v>
-      </c>
-      <c r="M174" t="n">
-        <v>5333</v>
-      </c>
-      <c r="N174" t="n">
-        <v>5306.333333333333</v>
-      </c>
-      <c r="O174" t="n">
-        <v>5420</v>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q174" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5465</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5505</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5505</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5465</v>
-      </c>
-      <c r="F175" t="n">
-        <v>930.5196</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5284.916666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>185</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K175" t="n">
-        <v>88.57142857142857</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5389</v>
-      </c>
-      <c r="M175" t="n">
-        <v>5345</v>
-      </c>
-      <c r="N175" t="n">
-        <v>5314.833333333333</v>
-      </c>
-      <c r="O175" t="n">
-        <v>5490</v>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5505</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5505</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5490</v>
-      </c>
-      <c r="F176" t="n">
-        <v>258.9835</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5289.25</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>180</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1110</v>
-      </c>
-      <c r="K176" t="n">
-        <v>94.11764705882352</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5404</v>
-      </c>
-      <c r="M176" t="n">
-        <v>5356.5</v>
-      </c>
-      <c r="N176" t="n">
-        <v>5323.166666666667</v>
-      </c>
-      <c r="O176" t="n">
-        <v>5505</v>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q176" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5495</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5455</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5455</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1325.918</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5292.833333333333</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>135</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1155</v>
-      </c>
-      <c r="K177" t="n">
-        <v>53.48837209302325</v>
-      </c>
-      <c r="L177" t="n">
-        <v>5415.5</v>
-      </c>
-      <c r="M177" t="n">
-        <v>5364.25</v>
-      </c>
-      <c r="N177" t="n">
-        <v>5330</v>
-      </c>
-      <c r="O177" t="n">
-        <v>5500</v>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q177" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5475</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5510</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5475</v>
-      </c>
-      <c r="F178" t="n">
-        <v>560.3982447488585</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5297.416666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>190</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1210</v>
-      </c>
-      <c r="K178" t="n">
-        <v>62.26415094339622</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5432.5</v>
-      </c>
-      <c r="M178" t="n">
-        <v>5375.5</v>
-      </c>
-      <c r="N178" t="n">
-        <v>5338.666666666667</v>
-      </c>
-      <c r="O178" t="n">
-        <v>5455</v>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q178" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5515</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5515</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5510</v>
-      </c>
-      <c r="F179" t="n">
-        <v>356.1987</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5301.75</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>195</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1215</v>
-      </c>
-      <c r="K179" t="n">
-        <v>60.78431372549019</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5449.5</v>
-      </c>
-      <c r="M179" t="n">
-        <v>5385.25</v>
-      </c>
-      <c r="N179" t="n">
-        <v>5347.5</v>
-      </c>
-      <c r="O179" t="n">
-        <v>5510</v>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q179" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5475</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1354.3768</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>155</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1255</v>
-      </c>
-      <c r="K180" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L180" t="n">
-        <v>5461</v>
-      </c>
-      <c r="M180" t="n">
-        <v>5393.75</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5355</v>
-      </c>
-      <c r="O180" t="n">
-        <v>5515</v>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q180" t="n">
-        <v>5360</v>
-      </c>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5465</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5470</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5470</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F181" t="n">
-        <v>705.3532</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5309</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>150</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1260</v>
-      </c>
-      <c r="K181" t="n">
-        <v>34.48275862068966</v>
-      </c>
-      <c r="L181" t="n">
-        <v>5471</v>
-      </c>
-      <c r="M181" t="n">
-        <v>5403</v>
-      </c>
-      <c r="N181" t="n">
-        <v>5362</v>
-      </c>
-      <c r="O181" t="n">
-        <v>5475</v>
-      </c>
-      <c r="P181" t="n">
-        <v>5665</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>5475</v>
-      </c>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5470</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5450</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5470</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F182" t="n">
-        <v>32.4196</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5312</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>130</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1280</v>
-      </c>
-      <c r="K182" t="n">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5479</v>
-      </c>
-      <c r="M182" t="n">
-        <v>5411.25</v>
-      </c>
-      <c r="N182" t="n">
-        <v>5368.833333333333</v>
-      </c>
-      <c r="O182" t="n">
-        <v>5470</v>
-      </c>
-      <c r="P182" t="n">
-        <v>5660</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>5475</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -4371,17 +4371,13 @@
         <v>5281.583333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>5230</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5230</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4410,22 +4406,14 @@
         <v>5280.333333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>5240</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5230</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4453,22 +4441,14 @@
         <v>5279.333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>5245</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5230</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4496,17 +4476,13 @@
         <v>5278.333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5240</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4543,9 +4519,7 @@
       <c r="J118" t="n">
         <v>5240</v>
       </c>
-      <c r="K118" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4584,11 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5240</v>
-      </c>
+        <v>5235</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,11 +4599,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5240</v>
-      </c>
+        <v>5255</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,11 +4640,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5240</v>
-      </c>
+        <v>5250</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,17 +4675,13 @@
         <v>5274.5</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,17 +4714,13 @@
         <v>5273.583333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K123" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4793,17 +4753,13 @@
         <v>5272.916666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K124" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,17 +4792,13 @@
         <v>5272.166666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K125" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,17 +4831,13 @@
         <v>5271.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5245</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,17 +4870,13 @@
         <v>5270.5</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,17 +4909,13 @@
         <v>5269.75</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,17 +4948,13 @@
         <v>5269.083333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,17 +4987,13 @@
         <v>5268.75</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,17 +5026,13 @@
         <v>5268.166666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,9 +5071,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,9 +5110,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,9 +5149,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,9 +5188,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,9 +5227,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,17 +5260,13 @@
         <v>5265.083333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K137" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,17 +5299,13 @@
         <v>5264.416666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K138" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,17 +5338,13 @@
         <v>5263.666666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,17 +5377,13 @@
         <v>5262.916666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K140" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5514,17 +5416,13 @@
         <v>5262.166666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,17 +5455,13 @@
         <v>5261.5</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,17 +5494,13 @@
         <v>5260.833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5643,17 +5533,13 @@
         <v>5260.166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K144" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,17 +5572,13 @@
         <v>5259.416666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,17 +5611,13 @@
         <v>5258.583333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K146" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,17 +5650,13 @@
         <v>5257.75</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K147" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,17 +5689,13 @@
         <v>5256.916666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K148" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,17 +5728,13 @@
         <v>5256.083333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K149" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,17 +5767,13 @@
         <v>5255.25</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K150" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,17 +5806,13 @@
         <v>5254.583333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,17 +5845,13 @@
         <v>5253.666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5245</v>
-      </c>
-      <c r="K152" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,17 +5884,13 @@
         <v>5253.25</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K153" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,17 +5923,13 @@
         <v>5253</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K154" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,17 +5962,13 @@
         <v>5252.916666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K155" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,17 +6001,13 @@
         <v>5253</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K156" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,17 +6040,13 @@
         <v>5253.583333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K157" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,17 +6079,13 @@
         <v>5254</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K158" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6294,9 +6124,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6332,55 +6160,55 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5240</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F161" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5256.75</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1.007404580152672</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F161" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>5256.75</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>5320</v>
       </c>
       <c r="F2" t="n">
-        <v>15.296</v>
+        <v>99.67910000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5333.333333333333</v>
+        <v>5333.083333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="C3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="D3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="E3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="F3" t="n">
-        <v>3.4511</v>
+        <v>15.296</v>
       </c>
       <c r="G3" t="n">
         <v>5333.333333333333</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="C4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="E4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F4" t="n">
-        <v>60.01</v>
+        <v>3.4511</v>
       </c>
       <c r="G4" t="n">
-        <v>5333.5</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="C5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="D5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="E5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="F5" t="n">
-        <v>9.407299999999999</v>
+        <v>60.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5333.583333333333</v>
+        <v>5333.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F6" t="n">
-        <v>957.793</v>
+        <v>9.407299999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>5333.5</v>
+        <v>5333.583333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>5305</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>957.793</v>
       </c>
       <c r="G7" t="n">
-        <v>5333.416666666667</v>
+        <v>5333.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="C8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="D8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="E8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="F8" t="n">
-        <v>28.222</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>5333.5</v>
+        <v>5333.416666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>5315</v>
       </c>
       <c r="F9" t="n">
-        <v>48.1945</v>
+        <v>28.222</v>
       </c>
       <c r="G9" t="n">
         <v>5333.5</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F10" t="n">
-        <v>69.9616</v>
+        <v>48.1945</v>
       </c>
       <c r="G10" t="n">
-        <v>5333.166666666667</v>
+        <v>5333.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>5305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5655</v>
+        <v>69.9616</v>
       </c>
       <c r="G11" t="n">
-        <v>5332.75</v>
+        <v>5333.166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F12" t="n">
-        <v>33.0518</v>
+        <v>0.5655</v>
       </c>
       <c r="G12" t="n">
-        <v>5332.166666666667</v>
+        <v>5332.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>5300</v>
       </c>
       <c r="F13" t="n">
-        <v>5.0878</v>
+        <v>33.0518</v>
       </c>
       <c r="G13" t="n">
-        <v>5331.583333333333</v>
+        <v>5332.166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>5300</v>
       </c>
       <c r="F14" t="n">
-        <v>35.5273</v>
+        <v>5.0878</v>
       </c>
       <c r="G14" t="n">
-        <v>5331</v>
+        <v>5331.583333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>5300</v>
       </c>
       <c r="C15" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D15" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E15" t="n">
         <v>5300</v>
       </c>
       <c r="F15" t="n">
-        <v>10.7218</v>
+        <v>35.5273</v>
       </c>
       <c r="G15" t="n">
-        <v>5330.5</v>
+        <v>5331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C16" t="n">
         <v>5305</v>
@@ -932,13 +932,13 @@
         <v>5305</v>
       </c>
       <c r="E16" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F16" t="n">
-        <v>63.8609</v>
+        <v>10.7218</v>
       </c>
       <c r="G16" t="n">
-        <v>5330</v>
+        <v>5330.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>5305</v>
       </c>
       <c r="F17" t="n">
-        <v>47.1654</v>
+        <v>63.8609</v>
       </c>
       <c r="G17" t="n">
-        <v>5329.25</v>
+        <v>5330</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>5305</v>
       </c>
       <c r="F18" t="n">
-        <v>4.3292</v>
+        <v>47.1654</v>
       </c>
       <c r="G18" t="n">
-        <v>5328.416666666667</v>
+        <v>5329.25</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>5305</v>
       </c>
       <c r="F19" t="n">
-        <v>92.01300000000001</v>
+        <v>4.3292</v>
       </c>
       <c r="G19" t="n">
-        <v>5327.666666666667</v>
+        <v>5328.416666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>5305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7693</v>
+        <v>92.01300000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>5327</v>
+        <v>5327.666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>5305</v>
       </c>
       <c r="F21" t="n">
-        <v>15.4963</v>
+        <v>0.7693</v>
       </c>
       <c r="G21" t="n">
-        <v>5326.25</v>
+        <v>5327</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>5305</v>
       </c>
       <c r="C22" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="D22" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="E22" t="n">
         <v>5305</v>
       </c>
       <c r="F22" t="n">
-        <v>231.0613</v>
+        <v>15.4963</v>
       </c>
       <c r="G22" t="n">
-        <v>5325.333333333333</v>
+        <v>5326.25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="C23" t="n">
         <v>5310</v>
       </c>
       <c r="D23" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="E23" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="F23" t="n">
-        <v>49.3214</v>
+        <v>231.0613</v>
       </c>
       <c r="G23" t="n">
-        <v>5324.583333333333</v>
+        <v>5325.333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="C24" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="D24" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="E24" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3279</v>
+        <v>49.3214</v>
       </c>
       <c r="G24" t="n">
-        <v>5324</v>
+        <v>5324.583333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>5320</v>
       </c>
       <c r="C25" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="D25" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="E25" t="n">
         <v>5320</v>
       </c>
       <c r="F25" t="n">
-        <v>235.4612</v>
+        <v>0.3279</v>
       </c>
       <c r="G25" t="n">
-        <v>5323.666666666667</v>
+        <v>5324</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5340</v>
+        <v>5320</v>
       </c>
       <c r="C26" t="n">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="D26" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="E26" t="n">
-        <v>5325</v>
+        <v>5320</v>
       </c>
       <c r="F26" t="n">
-        <v>61.034765917603</v>
+        <v>235.4612</v>
       </c>
       <c r="G26" t="n">
-        <v>5323.333333333333</v>
+        <v>5323.666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         <v>5340</v>
       </c>
       <c r="C27" t="n">
-        <v>5340</v>
+        <v>5325</v>
       </c>
       <c r="D27" t="n">
         <v>5340</v>
       </c>
       <c r="E27" t="n">
-        <v>5340</v>
+        <v>5325</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127</v>
+        <v>61.034765917603</v>
       </c>
       <c r="G27" t="n">
         <v>5323.333333333333</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="C28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="D28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="E28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="F28" t="n">
-        <v>52.434</v>
+        <v>0.1127</v>
       </c>
       <c r="G28" t="n">
-        <v>5323.666666666667</v>
+        <v>5323.333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="C29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="D29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="E29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="F29" t="n">
-        <v>80.04259999999999</v>
+        <v>52.434</v>
       </c>
       <c r="G29" t="n">
-        <v>5324.166666666667</v>
+        <v>5323.666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="C30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="D30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="E30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="F30" t="n">
-        <v>62.8712</v>
+        <v>80.04259999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>5324.583333333333</v>
+        <v>5324.166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>5355</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>62.8712</v>
       </c>
       <c r="G31" t="n">
-        <v>5325</v>
+        <v>5324.583333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="C32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="D32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="E32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F32" t="n">
-        <v>14.285</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>5325.166666666667</v>
+        <v>5325</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>5340</v>
       </c>
       <c r="F33" t="n">
-        <v>9.665800000000001</v>
+        <v>14.285</v>
       </c>
       <c r="G33" t="n">
-        <v>5325.333333333333</v>
+        <v>5325.166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>5340</v>
       </c>
       <c r="F34" t="n">
-        <v>25.6999</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>5325.083333333333</v>
+        <v>5325.333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>5340</v>
       </c>
       <c r="F35" t="n">
-        <v>119.331</v>
+        <v>25.6999</v>
       </c>
       <c r="G35" t="n">
-        <v>5324.75</v>
+        <v>5325.083333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="C36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="D36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="E36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="F36" t="n">
-        <v>10.02</v>
+        <v>119.331</v>
       </c>
       <c r="G36" t="n">
-        <v>5323.833333333333</v>
+        <v>5324.75</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F37" t="n">
-        <v>5.1814</v>
+        <v>10.02</v>
       </c>
       <c r="G37" t="n">
-        <v>5322.75</v>
+        <v>5323.833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>5305</v>
       </c>
       <c r="C38" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D38" t="n">
         <v>5305</v>
       </c>
       <c r="E38" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F38" t="n">
-        <v>67.58150000000001</v>
+        <v>5.1814</v>
       </c>
       <c r="G38" t="n">
-        <v>5321.583333333333</v>
+        <v>5322.75</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C39" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D39" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E39" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F39" t="n">
-        <v>2788.2913</v>
+        <v>67.58150000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>5320.5</v>
+        <v>5321.583333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C40" t="n">
         <v>5285</v>
       </c>
-      <c r="C40" t="n">
-        <v>5295</v>
-      </c>
       <c r="D40" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E40" t="n">
         <v>5285</v>
       </c>
       <c r="F40" t="n">
-        <v>10.1361</v>
+        <v>2788.2913</v>
       </c>
       <c r="G40" t="n">
-        <v>5319.583333333333</v>
+        <v>5320.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>5285</v>
       </c>
       <c r="C41" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="D41" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="E41" t="n">
         <v>5285</v>
       </c>
       <c r="F41" t="n">
-        <v>64.3284</v>
+        <v>10.1361</v>
       </c>
       <c r="G41" t="n">
-        <v>5318.583333333333</v>
+        <v>5319.583333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="C42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="D42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="E42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="F42" t="n">
-        <v>39.3</v>
+        <v>64.3284</v>
       </c>
       <c r="G42" t="n">
-        <v>5317.666666666667</v>
+        <v>5318.583333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>5290</v>
       </c>
       <c r="C43" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="D43" t="n">
         <v>5290</v>
       </c>
       <c r="E43" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F43" t="n">
-        <v>25.6653</v>
+        <v>39.3</v>
       </c>
       <c r="G43" t="n">
-        <v>5316.75</v>
+        <v>5317.666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C44" t="n">
         <v>5285</v>
       </c>
       <c r="D44" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="E44" t="n">
         <v>5285</v>
       </c>
       <c r="F44" t="n">
-        <v>22.7666</v>
+        <v>25.6653</v>
       </c>
       <c r="G44" t="n">
-        <v>5316.083333333333</v>
+        <v>5316.75</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="C45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="D45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="E45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F45" t="n">
-        <v>39.3</v>
+        <v>22.7666</v>
       </c>
       <c r="G45" t="n">
-        <v>5315.25</v>
+        <v>5316.083333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>5280</v>
       </c>
       <c r="F46" t="n">
-        <v>23.75</v>
+        <v>39.3</v>
       </c>
       <c r="G46" t="n">
-        <v>5314.416666666667</v>
+        <v>5315.25</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="C47" t="n">
         <v>5280</v>
       </c>
       <c r="D47" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="E47" t="n">
         <v>5280</v>
       </c>
       <c r="F47" t="n">
-        <v>41.0705</v>
+        <v>23.75</v>
       </c>
       <c r="G47" t="n">
-        <v>5313.583333333333</v>
+        <v>5314.416666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="C48" t="n">
         <v>5280</v>
       </c>
       <c r="D48" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="E48" t="n">
         <v>5280</v>
       </c>
       <c r="F48" t="n">
-        <v>45.4091</v>
+        <v>41.0705</v>
       </c>
       <c r="G48" t="n">
-        <v>5312.916666666667</v>
+        <v>5313.583333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>5280</v>
       </c>
       <c r="C49" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="D49" t="n">
         <v>5280</v>
       </c>
       <c r="E49" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="F49" t="n">
-        <v>8.0852</v>
+        <v>45.4091</v>
       </c>
       <c r="G49" t="n">
-        <v>5312</v>
+        <v>5312.916666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="C50" t="n">
         <v>5275</v>
       </c>
       <c r="D50" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="E50" t="n">
         <v>5275</v>
       </c>
       <c r="F50" t="n">
-        <v>11.3881</v>
+        <v>8.0852</v>
       </c>
       <c r="G50" t="n">
-        <v>5311.083333333333</v>
+        <v>5312</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="C51" t="n">
         <v>5275</v>
       </c>
       <c r="D51" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="E51" t="n">
         <v>5275</v>
       </c>
       <c r="F51" t="n">
-        <v>105.4126</v>
+        <v>11.3881</v>
       </c>
       <c r="G51" t="n">
-        <v>5310.25</v>
+        <v>5311.083333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="C52" t="n">
         <v>5275</v>
       </c>
       <c r="D52" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="E52" t="n">
         <v>5275</v>
       </c>
       <c r="F52" t="n">
-        <v>18.0572</v>
+        <v>105.4126</v>
       </c>
       <c r="G52" t="n">
-        <v>5309.333333333333</v>
+        <v>5310.25</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>5275</v>
       </c>
       <c r="C53" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="D53" t="n">
-        <v>5290</v>
+        <v>5275</v>
       </c>
       <c r="E53" t="n">
         <v>5275</v>
       </c>
       <c r="F53" t="n">
-        <v>11.4718</v>
+        <v>18.0572</v>
       </c>
       <c r="G53" t="n">
-        <v>5308.5</v>
+        <v>5309.333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="C54" t="n">
         <v>5280</v>
       </c>
       <c r="D54" t="n">
-        <v>5280</v>
+        <v>5290</v>
       </c>
       <c r="E54" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="F54" t="n">
-        <v>500.745</v>
+        <v>11.4718</v>
       </c>
       <c r="G54" t="n">
-        <v>5308</v>
+        <v>5308.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="C55" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="D55" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="E55" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="F55" t="n">
-        <v>1882.18907911571</v>
+        <v>500.745</v>
       </c>
       <c r="G55" t="n">
-        <v>5308.25</v>
+        <v>5308</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D56" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E56" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F56" t="n">
-        <v>180.1813</v>
+        <v>1882.18907911571</v>
       </c>
       <c r="G56" t="n">
-        <v>5308.083333333333</v>
+        <v>5308.25</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2364,16 +2364,16 @@
         <v>5300</v>
       </c>
       <c r="D57" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E57" t="n">
         <v>5300</v>
       </c>
       <c r="F57" t="n">
-        <v>30.6903</v>
+        <v>180.1813</v>
       </c>
       <c r="G57" t="n">
-        <v>5307.833333333333</v>
+        <v>5308.083333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C58" t="n">
         <v>5300</v>
       </c>
       <c r="D58" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E58" t="n">
         <v>5300</v>
       </c>
       <c r="F58" t="n">
-        <v>192.4875</v>
+        <v>30.6903</v>
       </c>
       <c r="G58" t="n">
-        <v>5307.583333333333</v>
+        <v>5307.833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C59" t="n">
         <v>5300</v>
       </c>
       <c r="D59" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E59" t="n">
         <v>5300</v>
       </c>
       <c r="F59" t="n">
-        <v>47.0592</v>
+        <v>192.4875</v>
       </c>
       <c r="G59" t="n">
-        <v>5307.416666666667</v>
+        <v>5307.583333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>5300</v>
       </c>
       <c r="F60" t="n">
-        <v>7.3327</v>
+        <v>47.0592</v>
       </c>
       <c r="G60" t="n">
-        <v>5307.083333333333</v>
+        <v>5307.416666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>5300</v>
       </c>
       <c r="F61" t="n">
-        <v>49.4175</v>
+        <v>7.3327</v>
       </c>
       <c r="G61" t="n">
-        <v>5306.75</v>
+        <v>5307.083333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>5300</v>
       </c>
       <c r="F62" t="n">
-        <v>377.2879</v>
+        <v>49.4175</v>
       </c>
       <c r="G62" t="n">
-        <v>5306.416666666667</v>
+        <v>5306.75</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>5300</v>
       </c>
       <c r="F63" t="n">
-        <v>194.5457</v>
+        <v>377.2879</v>
       </c>
       <c r="G63" t="n">
-        <v>5306.166666666667</v>
+        <v>5306.416666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>5300</v>
       </c>
       <c r="F64" t="n">
-        <v>4.9</v>
+        <v>194.5457</v>
       </c>
       <c r="G64" t="n">
-        <v>5306</v>
+        <v>5306.166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>5300</v>
       </c>
       <c r="F65" t="n">
-        <v>188.6342</v>
+        <v>4.9</v>
       </c>
       <c r="G65" t="n">
-        <v>5305.75</v>
+        <v>5306</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>5300</v>
       </c>
       <c r="F66" t="n">
-        <v>378.4325</v>
+        <v>188.6342</v>
       </c>
       <c r="G66" t="n">
-        <v>5305.666666666667</v>
+        <v>5305.75</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C67" t="n">
         <v>5300</v>
       </c>
       <c r="D67" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E67" t="n">
         <v>5300</v>
       </c>
       <c r="F67" t="n">
-        <v>171.8355</v>
+        <v>378.4325</v>
       </c>
       <c r="G67" t="n">
-        <v>5305.583333333333</v>
+        <v>5305.666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C68" t="n">
         <v>5300</v>
       </c>
       <c r="D68" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E68" t="n">
         <v>5300</v>
       </c>
       <c r="F68" t="n">
-        <v>185.342</v>
+        <v>171.8355</v>
       </c>
       <c r="G68" t="n">
-        <v>5305.333333333333</v>
+        <v>5305.583333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>5300</v>
       </c>
       <c r="F69" t="n">
-        <v>63.064</v>
+        <v>185.342</v>
       </c>
       <c r="G69" t="n">
-        <v>5305.083333333333</v>
+        <v>5305.333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>5300</v>
       </c>
       <c r="F70" t="n">
-        <v>259.3457</v>
+        <v>63.064</v>
       </c>
       <c r="G70" t="n">
-        <v>5305</v>
+        <v>5305.083333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F71" t="n">
-        <v>9.4252</v>
+        <v>259.3457</v>
       </c>
       <c r="G71" t="n">
         <v>5305</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="C72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="D72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="E72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="F72" t="n">
-        <v>225.007</v>
+        <v>9.4252</v>
       </c>
       <c r="G72" t="n">
-        <v>5304.833333333333</v>
+        <v>5305</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="D73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="E73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F73" t="n">
-        <v>9.5</v>
+        <v>225.007</v>
       </c>
       <c r="G73" t="n">
-        <v>5304.583333333333</v>
+        <v>5304.833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>5285</v>
       </c>
       <c r="E74" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F74" t="n">
-        <v>563.067</v>
+        <v>9.5</v>
       </c>
       <c r="G74" t="n">
-        <v>5304.333333333333</v>
+        <v>5304.583333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="C75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="D75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="E75" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="F75" t="n">
-        <v>79.8663</v>
+        <v>563.067</v>
       </c>
       <c r="G75" t="n">
-        <v>5304.083333333333</v>
+        <v>5304.333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>5290</v>
       </c>
       <c r="C76" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="D76" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="E76" t="n">
         <v>5290</v>
       </c>
       <c r="F76" t="n">
-        <v>1282.0678</v>
+        <v>79.8663</v>
       </c>
       <c r="G76" t="n">
         <v>5304.083333333333</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="C77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E77" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="F77" t="n">
-        <v>8.0458</v>
+        <v>1282.0678</v>
       </c>
       <c r="G77" t="n">
-        <v>5304</v>
+        <v>5304.083333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="D78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F78" t="n">
-        <v>5.9817</v>
+        <v>8.0458</v>
       </c>
       <c r="G78" t="n">
-        <v>5303.833333333333</v>
+        <v>5304</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>5295</v>
       </c>
       <c r="F79" t="n">
-        <v>21.5183</v>
+        <v>5.9817</v>
       </c>
       <c r="G79" t="n">
-        <v>5303.666666666667</v>
+        <v>5303.833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>5295</v>
       </c>
       <c r="F80" t="n">
-        <v>47.2379</v>
+        <v>21.5183</v>
       </c>
       <c r="G80" t="n">
-        <v>5303.5</v>
+        <v>5303.666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>5295</v>
       </c>
       <c r="F81" t="n">
-        <v>73.8373</v>
+        <v>47.2379</v>
       </c>
       <c r="G81" t="n">
-        <v>5303.333333333333</v>
+        <v>5303.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="C82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="D82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="E82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="F82" t="n">
-        <v>18.9166</v>
+        <v>73.8373</v>
       </c>
       <c r="G82" t="n">
-        <v>5303</v>
+        <v>5303.333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>5290</v>
       </c>
       <c r="F83" t="n">
-        <v>19.7916</v>
+        <v>18.9166</v>
       </c>
       <c r="G83" t="n">
-        <v>5302.666666666667</v>
+        <v>5303</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>5290</v>
       </c>
       <c r="F84" t="n">
-        <v>82.5581</v>
+        <v>19.7916</v>
       </c>
       <c r="G84" t="n">
-        <v>5302.166666666667</v>
+        <v>5302.666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="C85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="D85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="E85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="F85" t="n">
-        <v>96.17570000000001</v>
+        <v>82.5581</v>
       </c>
       <c r="G85" t="n">
-        <v>5301.583333333333</v>
+        <v>5302.166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>5295</v>
       </c>
       <c r="C86" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D86" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E86" t="n">
         <v>5295</v>
       </c>
       <c r="F86" t="n">
-        <v>21.2747</v>
+        <v>96.17570000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>5301.166666666667</v>
+        <v>5301.583333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="C87" t="n">
         <v>5300</v>
@@ -3417,13 +3417,13 @@
         <v>5300</v>
       </c>
       <c r="E87" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="F87" t="n">
-        <v>399.889</v>
+        <v>21.2747</v>
       </c>
       <c r="G87" t="n">
-        <v>5300.5</v>
+        <v>5301.166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="C88" t="n">
         <v>5300</v>
@@ -3452,13 +3452,13 @@
         <v>5300</v>
       </c>
       <c r="E88" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5594</v>
+        <v>399.889</v>
       </c>
       <c r="G88" t="n">
-        <v>5299.583333333333</v>
+        <v>5300.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>5300</v>
       </c>
       <c r="F89" t="n">
-        <v>223.1082</v>
+        <v>0.5594</v>
       </c>
       <c r="G89" t="n">
-        <v>5298.583333333333</v>
+        <v>5299.583333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>5300</v>
       </c>
       <c r="F90" t="n">
-        <v>144.9703</v>
+        <v>223.1082</v>
       </c>
       <c r="G90" t="n">
-        <v>5297.666666666667</v>
+        <v>5298.583333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>5300</v>
       </c>
       <c r="F91" t="n">
-        <v>141.4708</v>
+        <v>144.9703</v>
       </c>
       <c r="G91" t="n">
-        <v>5296.75</v>
+        <v>5297.666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>5300</v>
       </c>
       <c r="F92" t="n">
-        <v>95.408</v>
+        <v>141.4708</v>
       </c>
       <c r="G92" t="n">
-        <v>5296.083333333333</v>
+        <v>5296.75</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F93" t="n">
-        <v>25.4828</v>
+        <v>95.408</v>
       </c>
       <c r="G93" t="n">
-        <v>5295.166666666667</v>
+        <v>5296.083333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>5285</v>
       </c>
       <c r="C94" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="D94" t="n">
         <v>5285</v>
       </c>
       <c r="E94" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F94" t="n">
-        <v>34.5172</v>
+        <v>25.4828</v>
       </c>
       <c r="G94" t="n">
-        <v>5294.166666666667</v>
+        <v>5295.166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="C95" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="D95" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="E95" t="n">
-        <v>5265</v>
+        <v>5280</v>
       </c>
       <c r="F95" t="n">
-        <v>209.7811</v>
+        <v>34.5172</v>
       </c>
       <c r="G95" t="n">
-        <v>5293</v>
+        <v>5294.166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="C96" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="D96" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="E96" t="n">
         <v>5265</v>
       </c>
       <c r="F96" t="n">
-        <v>487.9947</v>
+        <v>209.7811</v>
       </c>
       <c r="G96" t="n">
-        <v>5292.166666666667</v>
+        <v>5293</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5260</v>
+        <v>5280</v>
       </c>
       <c r="C97" t="n">
         <v>5265</v>
       </c>
       <c r="D97" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E97" t="n">
         <v>5265</v>
       </c>
-      <c r="E97" t="n">
-        <v>5260</v>
-      </c>
       <c r="F97" t="n">
-        <v>15.1722</v>
+        <v>487.9947</v>
       </c>
       <c r="G97" t="n">
-        <v>5291.5</v>
+        <v>5292.166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>5260</v>
       </c>
       <c r="C98" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="D98" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E98" t="n">
         <v>5260</v>
       </c>
       <c r="F98" t="n">
-        <v>199.0874</v>
+        <v>15.1722</v>
       </c>
       <c r="G98" t="n">
-        <v>5290.833333333333</v>
+        <v>5291.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F99" t="n">
-        <v>56.529</v>
+        <v>199.0874</v>
       </c>
       <c r="G99" t="n">
-        <v>5290.166666666667</v>
+        <v>5290.833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="C100" t="n">
         <v>5245</v>
       </c>
       <c r="D100" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="E100" t="n">
         <v>5245</v>
       </c>
       <c r="F100" t="n">
-        <v>102.6487</v>
+        <v>56.529</v>
       </c>
       <c r="G100" t="n">
-        <v>5289.333333333333</v>
+        <v>5290.166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C101" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D101" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E101" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F101" t="n">
-        <v>26.0778</v>
+        <v>102.6487</v>
       </c>
       <c r="G101" t="n">
-        <v>5288.833333333333</v>
+        <v>5289.333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>26.0778</v>
       </c>
       <c r="G102" t="n">
-        <v>5288.333333333333</v>
+        <v>5288.833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C103" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D103" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E103" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F103" t="n">
-        <v>2339.742</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>5287.666666666667</v>
+        <v>5288.333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>5250</v>
       </c>
       <c r="C104" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="D104" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E104" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="F104" t="n">
-        <v>3686.428</v>
+        <v>2339.742</v>
       </c>
       <c r="G104" t="n">
-        <v>5287.083333333333</v>
+        <v>5287.666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,16 +4044,16 @@
         <v>5250</v>
       </c>
       <c r="D105" t="n">
-        <v>5250</v>
+        <v>5270</v>
       </c>
       <c r="E105" t="n">
         <v>5250</v>
       </c>
       <c r="F105" t="n">
-        <v>49.5292</v>
+        <v>3686.428</v>
       </c>
       <c r="G105" t="n">
-        <v>5286.583333333333</v>
+        <v>5287.083333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>5250</v>
       </c>
       <c r="F106" t="n">
-        <v>110.1057</v>
+        <v>49.5292</v>
       </c>
       <c r="G106" t="n">
-        <v>5286.083333333333</v>
+        <v>5286.583333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F107" t="n">
-        <v>304.9293</v>
+        <v>110.1057</v>
       </c>
       <c r="G107" t="n">
-        <v>5285.666666666667</v>
+        <v>5286.083333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>5255</v>
       </c>
       <c r="F108" t="n">
-        <v>309.61</v>
+        <v>304.9293</v>
       </c>
       <c r="G108" t="n">
-        <v>5285.25</v>
+        <v>5285.666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>5255</v>
       </c>
       <c r="F109" t="n">
-        <v>73.0086</v>
+        <v>309.61</v>
       </c>
       <c r="G109" t="n">
-        <v>5284.916666666667</v>
+        <v>5285.25</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C110" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="D110" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E110" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="F110" t="n">
-        <v>921.3878999999999</v>
+        <v>73.0086</v>
       </c>
       <c r="G110" t="n">
-        <v>5284.416666666667</v>
+        <v>5284.916666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="C111" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="D111" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E111" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="F111" t="n">
-        <v>110.1</v>
+        <v>921.3878999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>5283.833333333333</v>
+        <v>5284.416666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5230</v>
+        <v>5240</v>
       </c>
       <c r="C112" t="n">
-        <v>5225</v>
+        <v>5240</v>
       </c>
       <c r="D112" t="n">
-        <v>5230</v>
+        <v>5250</v>
       </c>
       <c r="E112" t="n">
-        <v>5225</v>
+        <v>5240</v>
       </c>
       <c r="F112" t="n">
-        <v>5.0744</v>
+        <v>110.1</v>
       </c>
       <c r="G112" t="n">
-        <v>5283</v>
+        <v>5283.833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="C113" t="n">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="D113" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="E113" t="n">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="F113" t="n">
-        <v>198.4556</v>
+        <v>5.0744</v>
       </c>
       <c r="G113" t="n">
-        <v>5282.416666666667</v>
+        <v>5283</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="C114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="D114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="E114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="F114" t="n">
-        <v>35.1716</v>
+        <v>198.4556</v>
       </c>
       <c r="G114" t="n">
-        <v>5281.583333333333</v>
+        <v>5282.416666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="C115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="F115" t="n">
-        <v>17.5</v>
+        <v>35.1716</v>
       </c>
       <c r="G115" t="n">
-        <v>5280.333333333333</v>
+        <v>5281.583333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="C116" t="n">
         <v>5240</v>
       </c>
       <c r="D116" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="E116" t="n">
         <v>5240</v>
       </c>
       <c r="F116" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="G116" t="n">
-        <v>5279.333333333333</v>
+        <v>5280.333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="C117" t="n">
         <v>5240</v>
       </c>
       <c r="D117" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="E117" t="n">
         <v>5240</v>
       </c>
       <c r="F117" t="n">
-        <v>6.0845</v>
+        <v>17.4</v>
       </c>
       <c r="G117" t="n">
-        <v>5278.333333333333</v>
+        <v>5279.333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>5240</v>
       </c>
       <c r="C118" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="D118" t="n">
         <v>5240</v>
       </c>
       <c r="E118" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="F118" t="n">
-        <v>184.867</v>
+        <v>6.0845</v>
       </c>
       <c r="G118" t="n">
-        <v>5277.25</v>
+        <v>5278.333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4519,53 +4519,53 @@
       <c r="J118" t="n">
         <v>5240</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5235</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5235</v>
+      </c>
+      <c r="F119" t="n">
+        <v>184.867</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5277.25</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K119" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5255</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5255</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.4228353948620361</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5276.5</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5235</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,22 +4575,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="C120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="E120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4028</v>
+        <v>0.4228353948620361</v>
       </c>
       <c r="G120" t="n">
-        <v>5275.666666666667</v>
+        <v>5276.5</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4599,9 +4599,11 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>5235</v>
+      </c>
+      <c r="K120" t="n">
+        <v>5240</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,33 +4618,35 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.4028</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5275.666666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>5255</v>
       </c>
-      <c r="C121" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5255</v>
-      </c>
-      <c r="F121" t="n">
-        <v>610.904</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5275</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5240</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,22 +4661,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="C122" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="D122" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="E122" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="F122" t="n">
-        <v>42.2912</v>
+        <v>610.904</v>
       </c>
       <c r="G122" t="n">
-        <v>5274.5</v>
+        <v>5275</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4681,7 +4685,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5240</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="C123" t="n">
-        <v>5245</v>
+        <v>5270</v>
       </c>
       <c r="D123" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E123" t="n">
-        <v>5245</v>
+        <v>5270</v>
       </c>
       <c r="F123" t="n">
-        <v>990.7965</v>
+        <v>42.2912</v>
       </c>
       <c r="G123" t="n">
-        <v>5273.583333333333</v>
+        <v>5274.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4720,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5240</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,22 +4743,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C124" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="D124" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E124" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F124" t="n">
-        <v>42.62</v>
+        <v>990.7965</v>
       </c>
       <c r="G124" t="n">
-        <v>5272.916666666667</v>
+        <v>5273.583333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4759,7 +4767,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5240</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,19 +4787,19 @@
         <v>5255</v>
       </c>
       <c r="C125" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D125" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E125" t="n">
         <v>5255</v>
       </c>
       <c r="F125" t="n">
-        <v>83.2298</v>
+        <v>42.62</v>
       </c>
       <c r="G125" t="n">
-        <v>5272.166666666667</v>
+        <v>5272.916666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4798,7 +4808,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5240</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,22 +4825,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="C126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="D126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="E126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="F126" t="n">
-        <v>3.0981</v>
+        <v>83.2298</v>
       </c>
       <c r="G126" t="n">
-        <v>5271.25</v>
+        <v>5272.166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4837,7 +4849,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5240</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,22 +4866,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="C127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="E127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F127" t="n">
-        <v>5</v>
+        <v>3.0981</v>
       </c>
       <c r="G127" t="n">
-        <v>5270.5</v>
+        <v>5271.25</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4876,7 +4890,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5240</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,10 +4919,10 @@
         <v>5255</v>
       </c>
       <c r="F128" t="n">
-        <v>64.3164</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>5269.75</v>
+        <v>5270.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4915,7 +4931,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5240</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +4948,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="C129" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D129" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="E129" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F129" t="n">
-        <v>177.8654</v>
+        <v>64.3164</v>
       </c>
       <c r="G129" t="n">
-        <v>5269.083333333333</v>
+        <v>5269.75</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4954,7 +4972,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5240</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,19 +4992,19 @@
         <v>5275</v>
       </c>
       <c r="C130" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="D130" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="E130" t="n">
-        <v>5275</v>
+        <v>5260</v>
       </c>
       <c r="F130" t="n">
-        <v>400</v>
+        <v>177.8654</v>
       </c>
       <c r="G130" t="n">
-        <v>5268.75</v>
+        <v>5269.083333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4993,7 +5013,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5240</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,22 +5030,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="C131" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="D131" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="E131" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="F131" t="n">
-        <v>8.4968</v>
+        <v>400</v>
       </c>
       <c r="G131" t="n">
-        <v>5268.166666666667</v>
+        <v>5268.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5032,7 +5054,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5240</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,10 +5083,10 @@
         <v>5270</v>
       </c>
       <c r="F132" t="n">
-        <v>1.5032</v>
+        <v>8.4968</v>
       </c>
       <c r="G132" t="n">
-        <v>5267.833333333333</v>
+        <v>5268.166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5071,7 +5095,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5240</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,22 +5112,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="C133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="D133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="E133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="F133" t="n">
-        <v>3.72</v>
+        <v>1.5032</v>
       </c>
       <c r="G133" t="n">
-        <v>5267.416666666667</v>
+        <v>5267.833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5110,7 +5136,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5240</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,10 +5165,10 @@
         <v>5260</v>
       </c>
       <c r="F134" t="n">
-        <v>59.293</v>
+        <v>3.72</v>
       </c>
       <c r="G134" t="n">
-        <v>5267</v>
+        <v>5267.416666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5149,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5240</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,10 +5206,10 @@
         <v>5260</v>
       </c>
       <c r="F135" t="n">
-        <v>104.8539</v>
+        <v>59.293</v>
       </c>
       <c r="G135" t="n">
-        <v>5266.5</v>
+        <v>5267</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5188,7 +5218,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5240</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,10 +5247,10 @@
         <v>5260</v>
       </c>
       <c r="F136" t="n">
-        <v>28.01</v>
+        <v>104.8539</v>
       </c>
       <c r="G136" t="n">
-        <v>5265.75</v>
+        <v>5266.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5227,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5240</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,10 +5288,10 @@
         <v>5260</v>
       </c>
       <c r="F137" t="n">
-        <v>5.486</v>
+        <v>28.01</v>
       </c>
       <c r="G137" t="n">
-        <v>5265.083333333333</v>
+        <v>5265.75</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5266,7 +5300,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5240</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,19 +5320,19 @@
         <v>5260</v>
       </c>
       <c r="C138" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D138" t="n">
         <v>5260</v>
       </c>
       <c r="E138" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F138" t="n">
-        <v>4.8729</v>
+        <v>5.486</v>
       </c>
       <c r="G138" t="n">
-        <v>5264.416666666667</v>
+        <v>5265.083333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5305,7 +5341,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5240</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,22 +5358,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C139" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D139" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E139" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F139" t="n">
-        <v>18.7761</v>
+        <v>4.8729</v>
       </c>
       <c r="G139" t="n">
-        <v>5263.666666666667</v>
+        <v>5264.416666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5344,7 +5382,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5240</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,10 +5411,10 @@
         <v>5250</v>
       </c>
       <c r="F140" t="n">
-        <v>62.6175</v>
+        <v>18.7761</v>
       </c>
       <c r="G140" t="n">
-        <v>5262.916666666667</v>
+        <v>5263.666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5383,7 +5423,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5240</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,10 +5452,10 @@
         <v>5250</v>
       </c>
       <c r="F141" t="n">
-        <v>3.14</v>
+        <v>62.6175</v>
       </c>
       <c r="G141" t="n">
-        <v>5262.166666666667</v>
+        <v>5262.916666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5422,7 +5464,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5240</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5449,10 +5493,10 @@
         <v>5250</v>
       </c>
       <c r="F142" t="n">
-        <v>6.3617</v>
+        <v>3.14</v>
       </c>
       <c r="G142" t="n">
-        <v>5261.5</v>
+        <v>5262.166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5461,7 +5505,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5240</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,10 +5534,10 @@
         <v>5250</v>
       </c>
       <c r="F143" t="n">
-        <v>7.58</v>
+        <v>6.3617</v>
       </c>
       <c r="G143" t="n">
-        <v>5260.833333333333</v>
+        <v>5261.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5500,7 +5546,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5240</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,10 +5575,10 @@
         <v>5250</v>
       </c>
       <c r="F144" t="n">
-        <v>103</v>
+        <v>7.58</v>
       </c>
       <c r="G144" t="n">
-        <v>5260.166666666667</v>
+        <v>5260.833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5539,7 +5587,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5240</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,10 +5616,10 @@
         <v>5250</v>
       </c>
       <c r="F145" t="n">
-        <v>50.1274</v>
+        <v>103</v>
       </c>
       <c r="G145" t="n">
-        <v>5259.416666666667</v>
+        <v>5260.166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5578,7 +5628,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5240</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,10 +5657,10 @@
         <v>5250</v>
       </c>
       <c r="F146" t="n">
-        <v>13.6228</v>
+        <v>50.1274</v>
       </c>
       <c r="G146" t="n">
-        <v>5258.583333333333</v>
+        <v>5259.416666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5617,7 +5669,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5240</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,10 +5698,10 @@
         <v>5250</v>
       </c>
       <c r="F147" t="n">
-        <v>159.6481</v>
+        <v>13.6228</v>
       </c>
       <c r="G147" t="n">
-        <v>5257.75</v>
+        <v>5258.583333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5656,7 +5710,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5240</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,10 +5739,10 @@
         <v>5250</v>
       </c>
       <c r="F148" t="n">
-        <v>89.55719999999999</v>
+        <v>159.6481</v>
       </c>
       <c r="G148" t="n">
-        <v>5256.916666666667</v>
+        <v>5257.75</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5695,7 +5751,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5240</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,10 +5780,10 @@
         <v>5250</v>
       </c>
       <c r="F149" t="n">
-        <v>20.0574</v>
+        <v>89.55719999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>5256.083333333333</v>
+        <v>5256.916666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5734,7 +5792,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5240</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5761,10 +5821,10 @@
         <v>5250</v>
       </c>
       <c r="F150" t="n">
-        <v>75.51179999999999</v>
+        <v>20.0574</v>
       </c>
       <c r="G150" t="n">
-        <v>5255.25</v>
+        <v>5256.083333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5773,7 +5833,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5240</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,22 +5850,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F151" t="n">
-        <v>38.0237</v>
+        <v>75.51179999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>5254.583333333333</v>
+        <v>5255.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5812,7 +5874,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5240</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5827,22 +5891,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F152" t="n">
-        <v>42.0403</v>
+        <v>38.0237</v>
       </c>
       <c r="G152" t="n">
-        <v>5253.666666666667</v>
+        <v>5254.583333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5851,7 +5915,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5240</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,22 +5932,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="C153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="D153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="E153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="F153" t="n">
-        <v>124.9625</v>
+        <v>42.0403</v>
       </c>
       <c r="G153" t="n">
-        <v>5253.25</v>
+        <v>5253.666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5890,7 +5956,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5240</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5905,22 +5973,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="C154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="D154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F154" t="n">
-        <v>81.7838</v>
+        <v>124.9625</v>
       </c>
       <c r="G154" t="n">
-        <v>5253</v>
+        <v>5253.25</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5929,7 +5997,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5240</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,7 +6014,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C155" t="n">
         <v>5265</v>
@@ -5953,13 +6023,13 @@
         <v>5265</v>
       </c>
       <c r="E155" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F155" t="n">
-        <v>464.8278</v>
+        <v>81.7838</v>
       </c>
       <c r="G155" t="n">
-        <v>5252.916666666667</v>
+        <v>5253</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5968,7 +6038,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5240</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,22 +6055,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C156" t="n">
         <v>5265</v>
       </c>
-      <c r="C156" t="n">
-        <v>5270</v>
-      </c>
       <c r="D156" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E156" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F156" t="n">
-        <v>131.0944</v>
+        <v>464.8278</v>
       </c>
       <c r="G156" t="n">
-        <v>5253</v>
+        <v>5252.916666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6007,7 +6079,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5240</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,22 +6096,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="C157" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="D157" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="E157" t="n">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="F157" t="n">
-        <v>195.8567</v>
+        <v>131.0944</v>
       </c>
       <c r="G157" t="n">
-        <v>5253.583333333333</v>
+        <v>5253</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6046,7 +6120,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5240</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6061,22 +6137,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="C158" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D158" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E158" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9442</v>
+        <v>195.8567</v>
       </c>
       <c r="G158" t="n">
-        <v>5254</v>
+        <v>5253.583333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6085,7 +6161,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5240</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,22 +6178,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="C159" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="D159" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="E159" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="F159" t="n">
-        <v>98.0565</v>
+        <v>0.9442</v>
       </c>
       <c r="G159" t="n">
-        <v>5255.25</v>
+        <v>5254</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6124,7 +6202,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5240</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,22 +6219,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C160" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="D160" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="E160" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F160" t="n">
-        <v>138.2</v>
+        <v>98.0565</v>
       </c>
       <c r="G160" t="n">
-        <v>5256.25</v>
+        <v>5255.25</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6163,7 +6243,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5240</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,37 +6260,82 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F161" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5256.25</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>5285</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C162" t="n">
         <v>5285</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D162" t="n">
         <v>5285</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E162" t="n">
         <v>5285</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F162" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G162" t="n">
         <v>5256.75</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>5240</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1.003587786259542</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>99.67910000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>5319.666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>5333.083333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>15.296</v>
       </c>
       <c r="G3" t="n">
+        <v>5319</v>
+      </c>
+      <c r="H3" t="n">
         <v>5333.333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3.4511</v>
       </c>
       <c r="G4" t="n">
+        <v>5318.666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>5333.333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>60.01</v>
       </c>
       <c r="G5" t="n">
+        <v>5317.333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>5333.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>9.407299999999999</v>
       </c>
       <c r="G6" t="n">
+        <v>5316.333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>5333.583333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>957.793</v>
       </c>
       <c r="G7" t="n">
+        <v>5315</v>
+      </c>
+      <c r="H7" t="n">
         <v>5333.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>20</v>
       </c>
       <c r="G8" t="n">
+        <v>5313.333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>5333.416666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>28.222</v>
       </c>
       <c r="G9" t="n">
+        <v>5312.333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>5333.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>48.1945</v>
       </c>
       <c r="G10" t="n">
+        <v>5312.666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>5333.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>69.9616</v>
       </c>
       <c r="G11" t="n">
+        <v>5313</v>
+      </c>
+      <c r="H11" t="n">
         <v>5333.166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>0.5655</v>
       </c>
       <c r="G12" t="n">
+        <v>5312.666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>5332.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>33.0518</v>
       </c>
       <c r="G13" t="n">
+        <v>5311.666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>5332.166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5.0878</v>
       </c>
       <c r="G14" t="n">
+        <v>5310.666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>5331.583333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>35.5273</v>
       </c>
       <c r="G15" t="n">
+        <v>5310</v>
+      </c>
+      <c r="H15" t="n">
         <v>5331</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10.7218</v>
       </c>
       <c r="G16" t="n">
+        <v>5309</v>
+      </c>
+      <c r="H16" t="n">
         <v>5330.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>63.8609</v>
       </c>
       <c r="G17" t="n">
+        <v>5308</v>
+      </c>
+      <c r="H17" t="n">
         <v>5330</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>47.1654</v>
       </c>
       <c r="G18" t="n">
+        <v>5307</v>
+      </c>
+      <c r="H18" t="n">
         <v>5329.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4.3292</v>
       </c>
       <c r="G19" t="n">
+        <v>5306.333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>5328.416666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>92.01300000000001</v>
       </c>
       <c r="G20" t="n">
+        <v>5306</v>
+      </c>
+      <c r="H20" t="n">
         <v>5327.666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.7693</v>
       </c>
       <c r="G21" t="n">
+        <v>5305.333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>5327</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>15.4963</v>
       </c>
       <c r="G22" t="n">
+        <v>5305.333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>5326.25</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>231.0613</v>
       </c>
       <c r="G23" t="n">
+        <v>5305.666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>5325.333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>49.3214</v>
       </c>
       <c r="G24" t="n">
+        <v>5305.333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>5324.583333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.3279</v>
       </c>
       <c r="G25" t="n">
+        <v>5305.666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>5324</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>235.4612</v>
       </c>
       <c r="G26" t="n">
+        <v>5307.333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>5323.666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>61.034765917603</v>
       </c>
       <c r="G27" t="n">
+        <v>5308.666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>5323.333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>0.1127</v>
       </c>
       <c r="G28" t="n">
+        <v>5311.333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>5323.333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>52.434</v>
       </c>
       <c r="G29" t="n">
+        <v>5315</v>
+      </c>
+      <c r="H29" t="n">
         <v>5323.666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>80.04259999999999</v>
       </c>
       <c r="G30" t="n">
+        <v>5319</v>
+      </c>
+      <c r="H30" t="n">
         <v>5324.166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>62.8712</v>
       </c>
       <c r="G31" t="n">
+        <v>5322.333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>5324.583333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>7</v>
       </c>
       <c r="G32" t="n">
+        <v>5325.666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>5325</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>14.285</v>
       </c>
       <c r="G33" t="n">
+        <v>5328</v>
+      </c>
+      <c r="H33" t="n">
         <v>5325.166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>9.665800000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>5330.333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>5325.333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>25.6999</v>
       </c>
       <c r="G35" t="n">
+        <v>5332.666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>5325.083333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>119.331</v>
       </c>
       <c r="G36" t="n">
+        <v>5335</v>
+      </c>
+      <c r="H36" t="n">
         <v>5324.75</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10.02</v>
       </c>
       <c r="G37" t="n">
+        <v>5335.666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>5323.833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>5.1814</v>
       </c>
       <c r="G38" t="n">
+        <v>5335.333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>5322.75</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>67.58150000000001</v>
       </c>
       <c r="G39" t="n">
+        <v>5334.666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>5321.583333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2788.2913</v>
       </c>
       <c r="G40" t="n">
+        <v>5332.333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>5320.5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10.1361</v>
       </c>
       <c r="G41" t="n">
+        <v>5330</v>
+      </c>
+      <c r="H41" t="n">
         <v>5319.583333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>64.3284</v>
       </c>
       <c r="G42" t="n">
+        <v>5327.333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>5318.583333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>39.3</v>
       </c>
       <c r="G43" t="n">
+        <v>5324</v>
+      </c>
+      <c r="H43" t="n">
         <v>5317.666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>25.6653</v>
       </c>
       <c r="G44" t="n">
+        <v>5319.333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>5316.75</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>22.7666</v>
       </c>
       <c r="G45" t="n">
+        <v>5314.333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>5316.083333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>39.3</v>
       </c>
       <c r="G46" t="n">
+        <v>5309.333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>5315.25</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>23.75</v>
       </c>
       <c r="G47" t="n">
+        <v>5304.333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>5314.416666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>41.0705</v>
       </c>
       <c r="G48" t="n">
+        <v>5300.333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>5313.583333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>45.4091</v>
       </c>
       <c r="G49" t="n">
+        <v>5296.333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>5312.916666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>8.0852</v>
       </c>
       <c r="G50" t="n">
+        <v>5292</v>
+      </c>
+      <c r="H50" t="n">
         <v>5312</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>11.3881</v>
       </c>
       <c r="G51" t="n">
+        <v>5287.666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>5311.083333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>105.4126</v>
       </c>
       <c r="G52" t="n">
+        <v>5285</v>
+      </c>
+      <c r="H52" t="n">
         <v>5310.25</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>18.0572</v>
       </c>
       <c r="G53" t="n">
+        <v>5283</v>
+      </c>
+      <c r="H53" t="n">
         <v>5309.333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>11.4718</v>
       </c>
       <c r="G54" t="n">
+        <v>5281.666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>5308.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>500.745</v>
       </c>
       <c r="G55" t="n">
+        <v>5281.333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>5308</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1882.18907911571</v>
       </c>
       <c r="G56" t="n">
+        <v>5282.666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>5308.25</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>180.1813</v>
       </c>
       <c r="G57" t="n">
+        <v>5283.666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>5308.083333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>30.6903</v>
       </c>
       <c r="G58" t="n">
+        <v>5284.333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>5307.833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>192.4875</v>
       </c>
       <c r="G59" t="n">
+        <v>5285.333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>5307.583333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>47.0592</v>
       </c>
       <c r="G60" t="n">
+        <v>5286.333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>5307.416666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>7.3327</v>
       </c>
       <c r="G61" t="n">
+        <v>5287.666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>5307.083333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>49.4175</v>
       </c>
       <c r="G62" t="n">
+        <v>5289</v>
+      </c>
+      <c r="H62" t="n">
         <v>5306.75</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>377.2879</v>
       </c>
       <c r="G63" t="n">
+        <v>5290.333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>5306.416666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>194.5457</v>
       </c>
       <c r="G64" t="n">
+        <v>5291.666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>5306.166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>4.9</v>
       </c>
       <c r="G65" t="n">
+        <v>5293.333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>5306</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>188.6342</v>
       </c>
       <c r="G66" t="n">
+        <v>5295</v>
+      </c>
+      <c r="H66" t="n">
         <v>5305.75</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>378.4325</v>
       </c>
       <c r="G67" t="n">
+        <v>5296.666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>5305.666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>171.8355</v>
       </c>
       <c r="G68" t="n">
+        <v>5298.333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>5305.583333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>185.342</v>
       </c>
       <c r="G69" t="n">
+        <v>5299.666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>5305.333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>63.064</v>
       </c>
       <c r="G70" t="n">
+        <v>5301</v>
+      </c>
+      <c r="H70" t="n">
         <v>5305.083333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>259.3457</v>
       </c>
       <c r="G71" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H71" t="n">
         <v>5305</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>9.4252</v>
       </c>
       <c r="G72" t="n">
+        <v>5300.333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>5305</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>225.007</v>
       </c>
       <c r="G73" t="n">
+        <v>5299.666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>5304.833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>9.5</v>
       </c>
       <c r="G74" t="n">
+        <v>5298.666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>5304.583333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>563.067</v>
       </c>
       <c r="G75" t="n">
+        <v>5297.666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>5304.333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>79.8663</v>
       </c>
       <c r="G76" t="n">
+        <v>5297</v>
+      </c>
+      <c r="H76" t="n">
         <v>5304.083333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1282.0678</v>
       </c>
       <c r="G77" t="n">
+        <v>5297.333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>5304.083333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>8.0458</v>
       </c>
       <c r="G78" t="n">
+        <v>5297.333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>5304</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>5.9817</v>
       </c>
       <c r="G79" t="n">
+        <v>5297</v>
+      </c>
+      <c r="H79" t="n">
         <v>5303.833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>21.5183</v>
       </c>
       <c r="G80" t="n">
+        <v>5296.666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>5303.666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>47.2379</v>
       </c>
       <c r="G81" t="n">
+        <v>5296.333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>5303.5</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>73.8373</v>
       </c>
       <c r="G82" t="n">
+        <v>5296</v>
+      </c>
+      <c r="H82" t="n">
         <v>5303.333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>18.9166</v>
       </c>
       <c r="G83" t="n">
+        <v>5295.333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>5303</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>19.7916</v>
       </c>
       <c r="G84" t="n">
+        <v>5294.666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>5302.666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>82.5581</v>
       </c>
       <c r="G85" t="n">
+        <v>5294</v>
+      </c>
+      <c r="H85" t="n">
         <v>5302.166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>96.17570000000001</v>
       </c>
       <c r="G86" t="n">
+        <v>5293.666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>5301.583333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>21.2747</v>
       </c>
       <c r="G87" t="n">
+        <v>5293.333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>5301.166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>399.889</v>
       </c>
       <c r="G88" t="n">
+        <v>5294</v>
+      </c>
+      <c r="H88" t="n">
         <v>5300.5</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>0.5594</v>
       </c>
       <c r="G89" t="n">
+        <v>5295</v>
+      </c>
+      <c r="H89" t="n">
         <v>5299.583333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>223.1082</v>
       </c>
       <c r="G90" t="n">
+        <v>5296</v>
+      </c>
+      <c r="H90" t="n">
         <v>5298.583333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>144.9703</v>
       </c>
       <c r="G91" t="n">
+        <v>5296.666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>5297.666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>141.4708</v>
       </c>
       <c r="G92" t="n">
+        <v>5296.333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>5296.75</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>95.408</v>
       </c>
       <c r="G93" t="n">
+        <v>5296.333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>5296.083333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>25.4828</v>
       </c>
       <c r="G94" t="n">
+        <v>5295.666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>5295.166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>34.5172</v>
       </c>
       <c r="G95" t="n">
+        <v>5294.666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>5294.166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,15 +4028,18 @@
         <v>5293</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>5293</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>487.9947</v>
       </c>
       <c r="G97" t="n">
+        <v>5291</v>
+      </c>
+      <c r="H97" t="n">
         <v>5292.166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,27 @@
         <v>15.1722</v>
       </c>
       <c r="G98" t="n">
+        <v>5289.333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>5291.5</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5265</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4145,27 @@
         <v>199.0874</v>
       </c>
       <c r="G99" t="n">
+        <v>5287.333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>5290.833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5265</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4189,27 @@
         <v>56.529</v>
       </c>
       <c r="G100" t="n">
+        <v>5284.333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>5290.166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5260</v>
+      </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4233,27 @@
         <v>102.6487</v>
       </c>
       <c r="G101" t="n">
+        <v>5281</v>
+      </c>
+      <c r="H101" t="n">
         <v>5289.333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>5245</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4277,27 @@
         <v>26.0778</v>
       </c>
       <c r="G102" t="n">
+        <v>5278</v>
+      </c>
+      <c r="H102" t="n">
         <v>5288.833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5245</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4321,27 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
+        <v>5275.333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>5288.333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5255</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4365,27 @@
         <v>2339.742</v>
       </c>
       <c r="G104" t="n">
+        <v>5271.666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>5287.666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5260</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4409,25 @@
         <v>3686.428</v>
       </c>
       <c r="G105" t="n">
+        <v>5268.333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>5287.083333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4451,25 @@
         <v>49.5292</v>
       </c>
       <c r="G106" t="n">
+        <v>5265</v>
+      </c>
+      <c r="H106" t="n">
         <v>5286.583333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4493,25 @@
         <v>110.1057</v>
       </c>
       <c r="G107" t="n">
+        <v>5261.666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>5286.083333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4535,25 @@
         <v>304.9293</v>
       </c>
       <c r="G108" t="n">
+        <v>5258.666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>5285.666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4577,25 @@
         <v>309.61</v>
       </c>
       <c r="G109" t="n">
+        <v>5256.666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>5285.25</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4619,25 @@
         <v>73.0086</v>
       </c>
       <c r="G110" t="n">
+        <v>5255</v>
+      </c>
+      <c r="H110" t="n">
         <v>5284.916666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4661,25 @@
         <v>921.3878999999999</v>
       </c>
       <c r="G111" t="n">
+        <v>5253.333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>5284.416666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4703,25 @@
         <v>110.1</v>
       </c>
       <c r="G112" t="n">
+        <v>5251.666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>5283.833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4745,25 @@
         <v>5.0744</v>
       </c>
       <c r="G113" t="n">
+        <v>5249</v>
+      </c>
+      <c r="H113" t="n">
         <v>5283</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4787,25 @@
         <v>198.4556</v>
       </c>
       <c r="G114" t="n">
+        <v>5248</v>
+      </c>
+      <c r="H114" t="n">
         <v>5282.416666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4829,25 @@
         <v>35.1716</v>
       </c>
       <c r="G115" t="n">
+        <v>5247</v>
+      </c>
+      <c r="H115" t="n">
         <v>5281.583333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4871,25 @@
         <v>17.5</v>
       </c>
       <c r="G116" t="n">
+        <v>5246.666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>5280.333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4913,25 @@
         <v>17.4</v>
       </c>
       <c r="G117" t="n">
+        <v>5245.666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>5279.333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,22 +4955,27 @@
         <v>6.0845</v>
       </c>
       <c r="G118" t="n">
+        <v>5244.333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>5278.333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>5240</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>5240</v>
       </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,26 +4999,25 @@
         <v>184.867</v>
       </c>
       <c r="G119" t="n">
+        <v>5243.666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>5277.25</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>5240</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,26 +5041,25 @@
         <v>0.4228353948620361</v>
       </c>
       <c r="G120" t="n">
+        <v>5244</v>
+      </c>
+      <c r="H120" t="n">
         <v>5276.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>5235</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,26 +5083,25 @@
         <v>2.4028</v>
       </c>
       <c r="G121" t="n">
+        <v>5244</v>
+      </c>
+      <c r="H121" t="n">
         <v>5275.666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,24 +5125,25 @@
         <v>610.904</v>
       </c>
       <c r="G122" t="n">
+        <v>5244.666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>5275</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,24 +5167,25 @@
         <v>42.2912</v>
       </c>
       <c r="G123" t="n">
+        <v>5245.666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>5274.5</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,24 +5209,25 @@
         <v>990.7965</v>
       </c>
       <c r="G124" t="n">
+        <v>5245</v>
+      </c>
+      <c r="H124" t="n">
         <v>5273.583333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,24 +5251,25 @@
         <v>42.62</v>
       </c>
       <c r="G125" t="n">
+        <v>5245.333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>5272.916666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,24 +5293,25 @@
         <v>83.2298</v>
       </c>
       <c r="G126" t="n">
+        <v>5246</v>
+      </c>
+      <c r="H126" t="n">
         <v>5272.166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,24 +5335,25 @@
         <v>3.0981</v>
       </c>
       <c r="G127" t="n">
+        <v>5246.333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>5271.25</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,24 +5377,25 @@
         <v>5</v>
       </c>
       <c r="G128" t="n">
+        <v>5248.333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>5270.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,24 +5419,25 @@
         <v>64.3164</v>
       </c>
       <c r="G129" t="n">
+        <v>5249</v>
+      </c>
+      <c r="H129" t="n">
         <v>5269.75</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,24 +5461,25 @@
         <v>177.8654</v>
       </c>
       <c r="G130" t="n">
+        <v>5251</v>
+      </c>
+      <c r="H130" t="n">
         <v>5269.083333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5045,24 +5503,25 @@
         <v>400</v>
       </c>
       <c r="G131" t="n">
+        <v>5253.666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>5268.75</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,24 +5545,25 @@
         <v>8.4968</v>
       </c>
       <c r="G132" t="n">
+        <v>5255.666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>5268.166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,24 +5587,25 @@
         <v>1.5032</v>
       </c>
       <c r="G133" t="n">
+        <v>5257.666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>5267.833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,24 +5629,25 @@
         <v>3.72</v>
       </c>
       <c r="G134" t="n">
+        <v>5259.333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>5267.416666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,24 +5671,25 @@
         <v>59.293</v>
       </c>
       <c r="G135" t="n">
+        <v>5259.666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>5267</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,24 +5713,25 @@
         <v>104.8539</v>
       </c>
       <c r="G136" t="n">
+        <v>5260.333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>5266.5</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,24 +5755,25 @@
         <v>28.01</v>
       </c>
       <c r="G137" t="n">
+        <v>5260.333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>5265.75</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,24 +5797,25 @@
         <v>5.486</v>
       </c>
       <c r="G138" t="n">
+        <v>5259.666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>5265.083333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,24 +5839,25 @@
         <v>4.8729</v>
       </c>
       <c r="G139" t="n">
+        <v>5260.333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>5264.416666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,24 +5881,25 @@
         <v>18.7761</v>
       </c>
       <c r="G140" t="n">
+        <v>5259.666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>5263.666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5455,24 +5923,25 @@
         <v>62.6175</v>
       </c>
       <c r="G141" t="n">
+        <v>5259.333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>5262.916666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,24 +5965,25 @@
         <v>3.14</v>
       </c>
       <c r="G142" t="n">
+        <v>5259.666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>5262.166666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5537,24 +6007,25 @@
         <v>6.3617</v>
       </c>
       <c r="G143" t="n">
+        <v>5259.333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>5261.5</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,24 +6049,25 @@
         <v>7.58</v>
       </c>
       <c r="G144" t="n">
+        <v>5259</v>
+      </c>
+      <c r="H144" t="n">
         <v>5260.833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,24 +6091,25 @@
         <v>103</v>
       </c>
       <c r="G145" t="n">
+        <v>5258.333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>5260.166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,24 +6133,25 @@
         <v>50.1274</v>
       </c>
       <c r="G146" t="n">
+        <v>5256.333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>5259.416666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,24 +6175,25 @@
         <v>13.6228</v>
       </c>
       <c r="G147" t="n">
+        <v>5255</v>
+      </c>
+      <c r="H147" t="n">
         <v>5258.583333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5742,24 +6217,25 @@
         <v>159.6481</v>
       </c>
       <c r="G148" t="n">
+        <v>5253.666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>5257.75</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,24 +6259,25 @@
         <v>89.55719999999999</v>
       </c>
       <c r="G149" t="n">
+        <v>5253</v>
+      </c>
+      <c r="H149" t="n">
         <v>5256.916666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,24 +6301,25 @@
         <v>20.0574</v>
       </c>
       <c r="G150" t="n">
+        <v>5252.333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>5256.083333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5865,24 +6343,25 @@
         <v>75.51179999999999</v>
       </c>
       <c r="G151" t="n">
+        <v>5251.666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>5255.25</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5906,24 +6385,25 @@
         <v>38.0237</v>
       </c>
       <c r="G152" t="n">
+        <v>5251.666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>5254.583333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5947,24 +6427,25 @@
         <v>42.0403</v>
       </c>
       <c r="G153" t="n">
+        <v>5250.666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>5253.666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,24 +6469,25 @@
         <v>124.9625</v>
       </c>
       <c r="G154" t="n">
+        <v>5251</v>
+      </c>
+      <c r="H154" t="n">
         <v>5253.25</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,24 +6511,25 @@
         <v>81.7838</v>
       </c>
       <c r="G155" t="n">
+        <v>5252</v>
+      </c>
+      <c r="H155" t="n">
         <v>5253</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,24 +6553,25 @@
         <v>464.8278</v>
       </c>
       <c r="G156" t="n">
+        <v>5253</v>
+      </c>
+      <c r="H156" t="n">
         <v>5252.916666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,24 +6595,25 @@
         <v>131.0944</v>
       </c>
       <c r="G157" t="n">
+        <v>5254.333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>5253</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,24 +6637,25 @@
         <v>195.8567</v>
       </c>
       <c r="G158" t="n">
+        <v>5257.666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>5253.583333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,24 +6679,25 @@
         <v>0.9442</v>
       </c>
       <c r="G159" t="n">
+        <v>5260</v>
+      </c>
+      <c r="H159" t="n">
         <v>5254</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,24 +6721,25 @@
         <v>98.0565</v>
       </c>
       <c r="G160" t="n">
+        <v>5264.666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>5255.25</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,24 +6763,25 @@
         <v>138.2</v>
       </c>
       <c r="G161" t="n">
+        <v>5268.333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>5256.25</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,25 +6805,446 @@
         <v>98.59999999999999</v>
       </c>
       <c r="G162" t="n">
+        <v>5270.666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>5256.75</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1.003587786259542</v>
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F163" t="n">
+        <v>159.7739</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5273</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5257.166666666667</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100.637</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5276.666666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>5258.166666666667</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1320.2635</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5280.666666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>5259.166666666667</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5315</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5315</v>
+      </c>
+      <c r="F166" t="n">
+        <v>417.5425</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5287</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5260.75</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5345</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5350</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5345</v>
+      </c>
+      <c r="F167" t="n">
+        <v>49.667</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5293</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5262.416666666667</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5350</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F168" t="n">
+        <v>375.084</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5299.333333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>5263.833333333333</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5340</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5340</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F169" t="n">
+        <v>590.9604</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5304.666666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5265.25</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5330</v>
+      </c>
+      <c r="F170" t="n">
+        <v>140.7102</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5310</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5266.75</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5355</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5360</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5360</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F171" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5316.333333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>5268.666666666667</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5370</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5370</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5370</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18.6402</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5323</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5270.833333333333</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="C2" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="D2" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="E2" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="F2" t="n">
-        <v>99.67910000000001</v>
+        <v>13.95</v>
       </c>
       <c r="G2" t="n">
-        <v>5319.666666666667</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H2" t="n">
-        <v>5333.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="C3" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="D3" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="E3" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="F3" t="n">
-        <v>15.296</v>
+        <v>52.3726</v>
       </c>
       <c r="G3" t="n">
-        <v>5319</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H3" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="C4" t="n">
-        <v>5315</v>
+        <v>5355</v>
       </c>
       <c r="D4" t="n">
-        <v>5315</v>
+        <v>5360</v>
       </c>
       <c r="E4" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="F4" t="n">
-        <v>3.4511</v>
+        <v>1974.7607</v>
       </c>
       <c r="G4" t="n">
-        <v>5318.666666666667</v>
+        <v>4219.100396958173</v>
       </c>
       <c r="H4" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5310</v>
+        <v>5355</v>
       </c>
       <c r="C5" t="n">
-        <v>5310</v>
+        <v>5360</v>
       </c>
       <c r="D5" t="n">
-        <v>5310</v>
+        <v>5360</v>
       </c>
       <c r="E5" t="n">
-        <v>5310</v>
+        <v>5355</v>
       </c>
       <c r="F5" t="n">
-        <v>60.01</v>
+        <v>114.5938</v>
       </c>
       <c r="G5" t="n">
-        <v>5317.333333333333</v>
+        <v>4333.694196958173</v>
       </c>
       <c r="H5" t="n">
-        <v>5333.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5315</v>
+        <v>5370</v>
       </c>
       <c r="C6" t="n">
-        <v>5315</v>
+        <v>5370</v>
       </c>
       <c r="D6" t="n">
-        <v>5315</v>
+        <v>5370</v>
       </c>
       <c r="E6" t="n">
-        <v>5315</v>
+        <v>5370</v>
       </c>
       <c r="F6" t="n">
-        <v>9.407299999999999</v>
+        <v>3.0835</v>
       </c>
       <c r="G6" t="n">
-        <v>5316.333333333333</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H6" t="n">
-        <v>5333.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="C7" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="D7" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="E7" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="F7" t="n">
-        <v>957.793</v>
+        <v>56.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5315</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H7" t="n">
-        <v>5333.5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5305</v>
+        <v>5360</v>
       </c>
       <c r="C8" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="D8" t="n">
-        <v>5305</v>
+        <v>5370</v>
       </c>
       <c r="E8" t="n">
-        <v>5305</v>
+        <v>5360</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>178.0929</v>
       </c>
       <c r="G8" t="n">
-        <v>5313.333333333333</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H8" t="n">
-        <v>5333.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="C9" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="D9" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="E9" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="F9" t="n">
-        <v>28.222</v>
+        <v>5.1232</v>
       </c>
       <c r="G9" t="n">
-        <v>5312.333333333333</v>
+        <v>4331.654496958173</v>
       </c>
       <c r="H9" t="n">
-        <v>5333.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="C10" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="D10" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="E10" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="F10" t="n">
-        <v>48.1945</v>
+        <v>184.108</v>
       </c>
       <c r="G10" t="n">
-        <v>5312.666666666667</v>
+        <v>4331.654496958173</v>
       </c>
       <c r="H10" t="n">
-        <v>5333.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="C11" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="D11" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="E11" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="F11" t="n">
-        <v>69.9616</v>
+        <v>189.8142</v>
       </c>
       <c r="G11" t="n">
-        <v>5313</v>
+        <v>4141.840296958173</v>
       </c>
       <c r="H11" t="n">
-        <v>5333.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="C12" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="D12" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="E12" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5655</v>
+        <v>5.679</v>
       </c>
       <c r="G12" t="n">
-        <v>5312.666666666667</v>
+        <v>4141.840296958173</v>
       </c>
       <c r="H12" t="n">
-        <v>5332.75</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5300</v>
+        <v>5345</v>
       </c>
       <c r="C13" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D13" t="n">
-        <v>5300</v>
+        <v>5345</v>
       </c>
       <c r="E13" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F13" t="n">
-        <v>33.0518</v>
+        <v>26.0068</v>
       </c>
       <c r="G13" t="n">
-        <v>5311.666666666667</v>
+        <v>4115.833496958173</v>
       </c>
       <c r="H13" t="n">
-        <v>5332.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="C14" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="D14" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="E14" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="F14" t="n">
-        <v>5.0878</v>
+        <v>0.6744</v>
       </c>
       <c r="G14" t="n">
-        <v>5310.666666666667</v>
+        <v>4115.159096958173</v>
       </c>
       <c r="H14" t="n">
-        <v>5331.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="C15" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D15" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E15" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="F15" t="n">
-        <v>35.5273</v>
+        <v>501.0068</v>
       </c>
       <c r="G15" t="n">
-        <v>5310</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H15" t="n">
-        <v>5331</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C16" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="D16" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E16" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F16" t="n">
-        <v>10.7218</v>
+        <v>1.0408</v>
       </c>
       <c r="G16" t="n">
-        <v>5309</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H16" t="n">
-        <v>5330.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C17" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E17" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F17" t="n">
-        <v>63.8609</v>
+        <v>0.3702</v>
       </c>
       <c r="G17" t="n">
-        <v>5308</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H17" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="C18" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="D18" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="E18" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="F18" t="n">
-        <v>47.1654</v>
+        <v>20.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5307</v>
+        <v>4595.965896958173</v>
       </c>
       <c r="H18" t="n">
-        <v>5329.25</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C19" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="D19" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E19" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F19" t="n">
-        <v>4.3292</v>
+        <v>979.8759</v>
       </c>
       <c r="G19" t="n">
-        <v>5306.333333333333</v>
+        <v>5575.841796958173</v>
       </c>
       <c r="H19" t="n">
-        <v>5328.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C20" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="D20" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E20" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F20" t="n">
-        <v>92.01300000000001</v>
+        <v>321.8712</v>
       </c>
       <c r="G20" t="n">
-        <v>5306</v>
+        <v>5575.841796958173</v>
       </c>
       <c r="H20" t="n">
-        <v>5327.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5305</v>
+        <v>5335</v>
       </c>
       <c r="C21" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="D21" t="n">
-        <v>5305</v>
+        <v>5335</v>
       </c>
       <c r="E21" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7693</v>
+        <v>75.16072127460168</v>
       </c>
       <c r="G21" t="n">
-        <v>5305.333333333333</v>
+        <v>5500.681075683571</v>
       </c>
       <c r="H21" t="n">
-        <v>5327</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C22" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="D22" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E22" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F22" t="n">
-        <v>15.4963</v>
+        <v>0.8337711069418386</v>
       </c>
       <c r="G22" t="n">
-        <v>5305.333333333333</v>
+        <v>5501.514846790513</v>
       </c>
       <c r="H22" t="n">
-        <v>5326.25</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C23" t="n">
-        <v>5310</v>
+        <v>5330</v>
       </c>
       <c r="D23" t="n">
-        <v>5310</v>
+        <v>5330</v>
       </c>
       <c r="E23" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F23" t="n">
-        <v>231.0613</v>
+        <v>0.3602</v>
       </c>
       <c r="G23" t="n">
-        <v>5305.666666666667</v>
+        <v>5501.514846790513</v>
       </c>
       <c r="H23" t="n">
-        <v>5325.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="C24" t="n">
         <v>5310</v>
       </c>
       <c r="D24" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="E24" t="n">
         <v>5310</v>
       </c>
       <c r="F24" t="n">
-        <v>49.3214</v>
+        <v>177.6476</v>
       </c>
       <c r="G24" t="n">
-        <v>5305.333333333333</v>
+        <v>5323.867246790513</v>
       </c>
       <c r="H24" t="n">
-        <v>5324.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="C25" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="D25" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="E25" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3279</v>
+        <v>226.83</v>
       </c>
       <c r="G25" t="n">
-        <v>5305.666666666667</v>
+        <v>5097.037246790513</v>
       </c>
       <c r="H25" t="n">
-        <v>5324</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="C26" t="n">
-        <v>5330</v>
+        <v>5310</v>
       </c>
       <c r="D26" t="n">
-        <v>5330</v>
+        <v>5310</v>
       </c>
       <c r="E26" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="F26" t="n">
-        <v>235.4612</v>
+        <v>22.0715</v>
       </c>
       <c r="G26" t="n">
-        <v>5307.333333333333</v>
+        <v>5119.108746790513</v>
       </c>
       <c r="H26" t="n">
-        <v>5323.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="C27" t="n">
-        <v>5325</v>
+        <v>5315</v>
       </c>
       <c r="D27" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="E27" t="n">
-        <v>5325</v>
+        <v>5315</v>
       </c>
       <c r="F27" t="n">
-        <v>61.034765917603</v>
+        <v>18.39876208842897</v>
       </c>
       <c r="G27" t="n">
-        <v>5308.666666666667</v>
+        <v>5137.507508878942</v>
       </c>
       <c r="H27" t="n">
-        <v>5323.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="C28" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="D28" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="E28" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1127</v>
+        <v>54.3377</v>
       </c>
       <c r="G28" t="n">
-        <v>5311.333333333333</v>
+        <v>5137.507508878942</v>
       </c>
       <c r="H28" t="n">
-        <v>5323.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5355</v>
+        <v>5310</v>
       </c>
       <c r="C29" t="n">
-        <v>5355</v>
+        <v>5310</v>
       </c>
       <c r="D29" t="n">
-        <v>5355</v>
+        <v>5310</v>
       </c>
       <c r="E29" t="n">
-        <v>5355</v>
+        <v>5310</v>
       </c>
       <c r="F29" t="n">
-        <v>52.434</v>
+        <v>7.2874</v>
       </c>
       <c r="G29" t="n">
-        <v>5315</v>
+        <v>5130.220108878942</v>
       </c>
       <c r="H29" t="n">
-        <v>5323.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5360</v>
+        <v>5320</v>
       </c>
       <c r="C30" t="n">
-        <v>5360</v>
+        <v>5320</v>
       </c>
       <c r="D30" t="n">
-        <v>5360</v>
+        <v>5320</v>
       </c>
       <c r="E30" t="n">
-        <v>5360</v>
+        <v>5320</v>
       </c>
       <c r="F30" t="n">
-        <v>80.04259999999999</v>
+        <v>0.4176691729323308</v>
       </c>
       <c r="G30" t="n">
-        <v>5319</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H30" t="n">
-        <v>5324.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="C31" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="D31" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="E31" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="F31" t="n">
-        <v>62.8712</v>
+        <v>99.67910000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>5322.333333333333</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H31" t="n">
-        <v>5324.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="C32" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="D32" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="E32" t="n">
-        <v>5355</v>
+        <v>5320</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>15.296</v>
       </c>
       <c r="G32" t="n">
-        <v>5325.666666666667</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H32" t="n">
-        <v>5325</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="C33" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="D33" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="E33" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="F33" t="n">
-        <v>14.285</v>
+        <v>3.4511</v>
       </c>
       <c r="G33" t="n">
-        <v>5328</v>
+        <v>5127.186678051874</v>
       </c>
       <c r="H33" t="n">
-        <v>5325.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5340</v>
+        <v>5310</v>
       </c>
       <c r="C34" t="n">
-        <v>5340</v>
+        <v>5310</v>
       </c>
       <c r="D34" t="n">
-        <v>5340</v>
+        <v>5310</v>
       </c>
       <c r="E34" t="n">
-        <v>5340</v>
+        <v>5310</v>
       </c>
       <c r="F34" t="n">
-        <v>9.665800000000001</v>
+        <v>60.01</v>
       </c>
       <c r="G34" t="n">
-        <v>5330.333333333333</v>
+        <v>5067.176678051874</v>
       </c>
       <c r="H34" t="n">
-        <v>5325.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="C35" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="D35" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="E35" t="n">
-        <v>5340</v>
+        <v>5315</v>
       </c>
       <c r="F35" t="n">
-        <v>25.6999</v>
+        <v>9.407299999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>5332.666666666667</v>
+        <v>5076.583978051874</v>
       </c>
       <c r="H35" t="n">
-        <v>5325.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="C36" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="D36" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="E36" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="F36" t="n">
-        <v>119.331</v>
+        <v>957.793</v>
       </c>
       <c r="G36" t="n">
-        <v>5335</v>
+        <v>4118.790978051874</v>
       </c>
       <c r="H36" t="n">
-        <v>5324.75</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="C37" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="D37" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="E37" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="F37" t="n">
-        <v>10.02</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>5335.666666666667</v>
+        <v>4118.790978051874</v>
       </c>
       <c r="H37" t="n">
-        <v>5323.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C38" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D38" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E38" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F38" t="n">
-        <v>5.1814</v>
+        <v>28.222</v>
       </c>
       <c r="G38" t="n">
-        <v>5335.333333333333</v>
+        <v>4147.012978051874</v>
       </c>
       <c r="H38" t="n">
-        <v>5322.75</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C39" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D39" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E39" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="F39" t="n">
-        <v>67.58150000000001</v>
+        <v>48.1945</v>
       </c>
       <c r="G39" t="n">
-        <v>5334.666666666667</v>
+        <v>4147.012978051874</v>
       </c>
       <c r="H39" t="n">
-        <v>5321.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C40" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="D40" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E40" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="F40" t="n">
-        <v>2788.2913</v>
+        <v>69.9616</v>
       </c>
       <c r="G40" t="n">
-        <v>5332.333333333333</v>
+        <v>4077.051378051874</v>
       </c>
       <c r="H40" t="n">
-        <v>5320.5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="C41" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="D41" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="E41" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="F41" t="n">
-        <v>10.1361</v>
+        <v>0.5655</v>
       </c>
       <c r="G41" t="n">
-        <v>5330</v>
+        <v>4077.051378051874</v>
       </c>
       <c r="H41" t="n">
-        <v>5319.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C42" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D42" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E42" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F42" t="n">
-        <v>64.3284</v>
+        <v>33.0518</v>
       </c>
       <c r="G42" t="n">
-        <v>5327.333333333333</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H42" t="n">
-        <v>5318.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="C43" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="D43" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="E43" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F43" t="n">
-        <v>39.3</v>
+        <v>5.0878</v>
       </c>
       <c r="G43" t="n">
-        <v>5324</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H43" t="n">
-        <v>5317.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="C44" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D44" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="E44" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F44" t="n">
-        <v>25.6653</v>
+        <v>35.5273</v>
       </c>
       <c r="G44" t="n">
-        <v>5319.333333333333</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H44" t="n">
-        <v>5316.75</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C45" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="D45" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="E45" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F45" t="n">
-        <v>22.7666</v>
+        <v>10.7218</v>
       </c>
       <c r="G45" t="n">
-        <v>5314.333333333333</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H45" t="n">
-        <v>5316.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C46" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="D46" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E46" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="F46" t="n">
-        <v>39.3</v>
+        <v>63.8609</v>
       </c>
       <c r="G46" t="n">
-        <v>5309.333333333333</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H46" t="n">
-        <v>5315.25</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C47" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="D47" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E47" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="F47" t="n">
-        <v>23.75</v>
+        <v>47.1654</v>
       </c>
       <c r="G47" t="n">
-        <v>5304.333333333333</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H47" t="n">
-        <v>5314.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="C48" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="D48" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="E48" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="F48" t="n">
-        <v>41.0705</v>
+        <v>4.3292</v>
       </c>
       <c r="G48" t="n">
-        <v>5300.333333333333</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H48" t="n">
-        <v>5313.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C49" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="D49" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E49" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="F49" t="n">
-        <v>45.4091</v>
+        <v>92.01300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>5296.333333333333</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H49" t="n">
-        <v>5312.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C50" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="D50" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E50" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="F50" t="n">
-        <v>8.0852</v>
+        <v>0.7693</v>
       </c>
       <c r="G50" t="n">
-        <v>5292</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H50" t="n">
-        <v>5312</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="C51" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="D51" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="E51" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="F51" t="n">
-        <v>11.3881</v>
+        <v>15.4963</v>
       </c>
       <c r="G51" t="n">
-        <v>5287.666666666667</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H51" t="n">
-        <v>5311.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="C52" t="n">
-        <v>5275</v>
+        <v>5310</v>
       </c>
       <c r="D52" t="n">
-        <v>5285</v>
+        <v>5310</v>
       </c>
       <c r="E52" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="F52" t="n">
-        <v>105.4126</v>
+        <v>231.0613</v>
       </c>
       <c r="G52" t="n">
-        <v>5285</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H52" t="n">
-        <v>5310.25</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5275</v>
+        <v>5315</v>
       </c>
       <c r="C53" t="n">
-        <v>5275</v>
+        <v>5310</v>
       </c>
       <c r="D53" t="n">
-        <v>5275</v>
+        <v>5315</v>
       </c>
       <c r="E53" t="n">
-        <v>5275</v>
+        <v>5310</v>
       </c>
       <c r="F53" t="n">
-        <v>18.0572</v>
+        <v>49.3214</v>
       </c>
       <c r="G53" t="n">
-        <v>5283</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H53" t="n">
-        <v>5309.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5275</v>
+        <v>5320</v>
       </c>
       <c r="C54" t="n">
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="D54" t="n">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="E54" t="n">
-        <v>5275</v>
+        <v>5320</v>
       </c>
       <c r="F54" t="n">
-        <v>11.4718</v>
+        <v>0.3279</v>
       </c>
       <c r="G54" t="n">
-        <v>5281.666666666667</v>
+        <v>4286.110578051874</v>
       </c>
       <c r="H54" t="n">
-        <v>5308.5</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="C55" t="n">
-        <v>5280</v>
+        <v>5330</v>
       </c>
       <c r="D55" t="n">
-        <v>5280</v>
+        <v>5330</v>
       </c>
       <c r="E55" t="n">
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="F55" t="n">
-        <v>500.745</v>
+        <v>235.4612</v>
       </c>
       <c r="G55" t="n">
-        <v>5281.333333333333</v>
+        <v>4521.571778051873</v>
       </c>
       <c r="H55" t="n">
-        <v>5308</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5310</v>
+        <v>5340</v>
       </c>
       <c r="C56" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="D56" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="E56" t="n">
-        <v>5310</v>
+        <v>5325</v>
       </c>
       <c r="F56" t="n">
-        <v>1882.18907911571</v>
+        <v>61.034765917603</v>
       </c>
       <c r="G56" t="n">
-        <v>5282.666666666667</v>
+        <v>4460.53701213427</v>
       </c>
       <c r="H56" t="n">
-        <v>5308.25</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C57" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D57" t="n">
-        <v>5305</v>
+        <v>5340</v>
       </c>
       <c r="E57" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F57" t="n">
-        <v>180.1813</v>
+        <v>0.1127</v>
       </c>
       <c r="G57" t="n">
-        <v>5283.666666666667</v>
+        <v>4460.64971213427</v>
       </c>
       <c r="H57" t="n">
-        <v>5308.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="C58" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="D58" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="E58" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="F58" t="n">
-        <v>30.6903</v>
+        <v>52.434</v>
       </c>
       <c r="G58" t="n">
-        <v>5284.333333333333</v>
+        <v>4513.08371213427</v>
       </c>
       <c r="H58" t="n">
-        <v>5307.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5305</v>
+        <v>5360</v>
       </c>
       <c r="C59" t="n">
-        <v>5300</v>
+        <v>5360</v>
       </c>
       <c r="D59" t="n">
-        <v>5305</v>
+        <v>5360</v>
       </c>
       <c r="E59" t="n">
-        <v>5300</v>
+        <v>5360</v>
       </c>
       <c r="F59" t="n">
-        <v>192.4875</v>
+        <v>80.04259999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>5285.333333333333</v>
+        <v>4593.12631213427</v>
       </c>
       <c r="H59" t="n">
-        <v>5307.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="C60" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="D60" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="E60" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="F60" t="n">
-        <v>47.0592</v>
+        <v>62.8712</v>
       </c>
       <c r="G60" t="n">
-        <v>5286.333333333333</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H60" t="n">
-        <v>5307.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="C61" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="D61" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="E61" t="n">
-        <v>5300</v>
+        <v>5355</v>
       </c>
       <c r="F61" t="n">
-        <v>7.3327</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>5287.666666666667</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H61" t="n">
-        <v>5307.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C62" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D62" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="E62" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F62" t="n">
-        <v>49.4175</v>
+        <v>14.285</v>
       </c>
       <c r="G62" t="n">
-        <v>5289</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H62" t="n">
-        <v>5306.75</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C63" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D63" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="E63" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F63" t="n">
-        <v>377.2879</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>5290.333333333333</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H63" t="n">
-        <v>5306.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C64" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D64" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="E64" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F64" t="n">
-        <v>194.5457</v>
+        <v>25.6999</v>
       </c>
       <c r="G64" t="n">
-        <v>5291.666666666667</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H64" t="n">
-        <v>5306.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C65" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D65" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="E65" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F65" t="n">
-        <v>4.9</v>
+        <v>119.331</v>
       </c>
       <c r="G65" t="n">
-        <v>5293.333333333333</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H65" t="n">
-        <v>5306</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="C66" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D66" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="E66" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="F66" t="n">
-        <v>188.6342</v>
+        <v>10.02</v>
       </c>
       <c r="G66" t="n">
-        <v>5295</v>
+        <v>4505.95011213427</v>
       </c>
       <c r="H66" t="n">
-        <v>5305.75</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C67" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D67" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E67" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F67" t="n">
-        <v>378.4325</v>
+        <v>5.1814</v>
       </c>
       <c r="G67" t="n">
-        <v>5296.666666666667</v>
+        <v>4500.76871213427</v>
       </c>
       <c r="H67" t="n">
-        <v>5305.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,24 +2755,21 @@
         <v>5300</v>
       </c>
       <c r="F68" t="n">
-        <v>171.8355</v>
+        <v>67.58150000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>5298.333333333333</v>
+        <v>4433.187212134269</v>
       </c>
       <c r="H68" t="n">
-        <v>5305.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,33 +2781,30 @@
         <v>5300</v>
       </c>
       <c r="C69" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="D69" t="n">
         <v>5300</v>
       </c>
       <c r="E69" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="F69" t="n">
-        <v>185.342</v>
+        <v>2788.2913</v>
       </c>
       <c r="G69" t="n">
-        <v>5299.666666666667</v>
+        <v>1644.89591213427</v>
       </c>
       <c r="H69" t="n">
-        <v>5305.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="C70" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D70" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E70" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="F70" t="n">
-        <v>63.064</v>
+        <v>10.1361</v>
       </c>
       <c r="G70" t="n">
-        <v>5301</v>
+        <v>1655.03201213427</v>
       </c>
       <c r="H70" t="n">
-        <v>5305.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="C71" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="D71" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="E71" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="F71" t="n">
-        <v>259.3457</v>
+        <v>64.3284</v>
       </c>
       <c r="G71" t="n">
-        <v>5300</v>
+        <v>1590.703612134269</v>
       </c>
       <c r="H71" t="n">
-        <v>5305</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="C72" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="D72" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="E72" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="F72" t="n">
-        <v>9.4252</v>
+        <v>39.3</v>
       </c>
       <c r="G72" t="n">
-        <v>5300.333333333333</v>
+        <v>1630.003612134269</v>
       </c>
       <c r="H72" t="n">
-        <v>5305</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3139,33 +2921,30 @@
         <v>5290</v>
       </c>
       <c r="C73" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="D73" t="n">
         <v>5290</v>
       </c>
       <c r="E73" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="F73" t="n">
-        <v>225.007</v>
+        <v>25.6653</v>
       </c>
       <c r="G73" t="n">
-        <v>5299.666666666667</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H73" t="n">
-        <v>5304.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,24 +2965,21 @@
         <v>5285</v>
       </c>
       <c r="F74" t="n">
-        <v>9.5</v>
+        <v>22.7666</v>
       </c>
       <c r="G74" t="n">
-        <v>5298.666666666667</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H74" t="n">
-        <v>5304.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="C75" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="D75" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="E75" t="n">
         <v>5280</v>
       </c>
       <c r="F75" t="n">
-        <v>563.067</v>
+        <v>39.3</v>
       </c>
       <c r="G75" t="n">
-        <v>5297.666666666667</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H75" t="n">
-        <v>5304.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="C76" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="D76" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="E76" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="F76" t="n">
-        <v>79.8663</v>
+        <v>23.75</v>
       </c>
       <c r="G76" t="n">
-        <v>5297</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H76" t="n">
-        <v>5304.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="C77" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="D77" t="n">
-        <v>5305</v>
+        <v>5285</v>
       </c>
       <c r="E77" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="F77" t="n">
-        <v>1282.0678</v>
+        <v>41.0705</v>
       </c>
       <c r="G77" t="n">
-        <v>5297.333333333333</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H77" t="n">
-        <v>5304.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="C78" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="D78" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="E78" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="F78" t="n">
-        <v>8.0458</v>
+        <v>45.4091</v>
       </c>
       <c r="G78" t="n">
-        <v>5297.333333333333</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H78" t="n">
-        <v>5304</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="C79" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="D79" t="n">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="E79" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="F79" t="n">
-        <v>5.9817</v>
+        <v>8.0852</v>
       </c>
       <c r="G79" t="n">
-        <v>5297</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H79" t="n">
-        <v>5303.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="C80" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="D80" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="E80" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="F80" t="n">
-        <v>21.5183</v>
+        <v>11.3881</v>
       </c>
       <c r="G80" t="n">
-        <v>5296.666666666667</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H80" t="n">
-        <v>5303.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5295</v>
+        <v>5285</v>
       </c>
       <c r="C81" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="D81" t="n">
-        <v>5295</v>
+        <v>5285</v>
       </c>
       <c r="E81" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="F81" t="n">
-        <v>47.2379</v>
+        <v>105.4126</v>
       </c>
       <c r="G81" t="n">
-        <v>5296.333333333333</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H81" t="n">
-        <v>5303.5</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>5275</v>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3239,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="C82" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="D82" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="E82" t="n">
-        <v>5295</v>
+        <v>5275</v>
       </c>
       <c r="F82" t="n">
-        <v>73.8373</v>
+        <v>18.0572</v>
       </c>
       <c r="G82" t="n">
-        <v>5296</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H82" t="n">
-        <v>5303.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3278,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5290</v>
+        <v>5275</v>
       </c>
       <c r="C83" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="D83" t="n">
         <v>5290</v>
       </c>
       <c r="E83" t="n">
-        <v>5290</v>
+        <v>5275</v>
       </c>
       <c r="F83" t="n">
-        <v>18.9166</v>
+        <v>11.4718</v>
       </c>
       <c r="G83" t="n">
-        <v>5295.333333333333</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H83" t="n">
-        <v>5303</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3317,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="C84" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="D84" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="E84" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="F84" t="n">
-        <v>19.7916</v>
+        <v>500.745</v>
       </c>
       <c r="G84" t="n">
-        <v>5294.666666666667</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H84" t="n">
-        <v>5302.666666666667</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>5280</v>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3358,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="C85" t="n">
-        <v>5290</v>
+        <v>5315</v>
       </c>
       <c r="D85" t="n">
-        <v>5290</v>
+        <v>5315</v>
       </c>
       <c r="E85" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="F85" t="n">
-        <v>82.5581</v>
+        <v>1882.18907911571</v>
       </c>
       <c r="G85" t="n">
-        <v>5294</v>
+        <v>3450.613991249979</v>
       </c>
       <c r="H85" t="n">
-        <v>5302.166666666667</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>5280</v>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3399,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C86" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="D86" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="E86" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F86" t="n">
-        <v>96.17570000000001</v>
+        <v>180.1813</v>
       </c>
       <c r="G86" t="n">
-        <v>5293.666666666667</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H86" t="n">
-        <v>5301.583333333333</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5315</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,7 +3440,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C87" t="n">
         <v>5300</v>
@@ -3677,27 +3449,30 @@
         <v>5300</v>
       </c>
       <c r="E87" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F87" t="n">
-        <v>21.2747</v>
+        <v>30.6903</v>
       </c>
       <c r="G87" t="n">
-        <v>5293.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H87" t="n">
-        <v>5301.166666666667</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3481,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="C88" t="n">
         <v>5300</v>
       </c>
       <c r="D88" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E88" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F88" t="n">
-        <v>399.889</v>
+        <v>192.4875</v>
       </c>
       <c r="G88" t="n">
-        <v>5294</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H88" t="n">
-        <v>5300.5</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,24 +3532,25 @@
         <v>5300</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5594</v>
+        <v>47.0592</v>
       </c>
       <c r="G89" t="n">
-        <v>5295</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H89" t="n">
-        <v>5299.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,24 +3571,25 @@
         <v>5300</v>
       </c>
       <c r="F90" t="n">
-        <v>223.1082</v>
+        <v>7.3327</v>
       </c>
       <c r="G90" t="n">
-        <v>5296</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H90" t="n">
-        <v>5298.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,24 +3610,25 @@
         <v>5300</v>
       </c>
       <c r="F91" t="n">
-        <v>144.9703</v>
+        <v>49.4175</v>
       </c>
       <c r="G91" t="n">
-        <v>5296.666666666667</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H91" t="n">
-        <v>5297.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,24 +3649,25 @@
         <v>5300</v>
       </c>
       <c r="F92" t="n">
-        <v>141.4708</v>
+        <v>377.2879</v>
       </c>
       <c r="G92" t="n">
-        <v>5296.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H92" t="n">
-        <v>5296.75</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,24 +3688,25 @@
         <v>5300</v>
       </c>
       <c r="F93" t="n">
-        <v>95.408</v>
+        <v>194.5457</v>
       </c>
       <c r="G93" t="n">
-        <v>5296.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H93" t="n">
-        <v>5296.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3715,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C94" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D94" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E94" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F94" t="n">
-        <v>25.4828</v>
+        <v>4.9</v>
       </c>
       <c r="G94" t="n">
-        <v>5295.666666666667</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H94" t="n">
-        <v>5295.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3754,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C95" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D95" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E95" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="F95" t="n">
-        <v>34.5172</v>
+        <v>188.6342</v>
       </c>
       <c r="G95" t="n">
-        <v>5294.666666666667</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H95" t="n">
-        <v>5294.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3793,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="C96" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="D96" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="E96" t="n">
-        <v>5265</v>
+        <v>5300</v>
       </c>
       <c r="F96" t="n">
-        <v>209.7811</v>
+        <v>378.4325</v>
       </c>
       <c r="G96" t="n">
-        <v>5293</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H96" t="n">
-        <v>5293</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3832,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C97" t="n">
-        <v>5265</v>
+        <v>5300</v>
       </c>
       <c r="D97" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E97" t="n">
-        <v>5265</v>
+        <v>5300</v>
       </c>
       <c r="F97" t="n">
-        <v>487.9947</v>
+        <v>171.8355</v>
       </c>
       <c r="G97" t="n">
-        <v>5291</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H97" t="n">
-        <v>5292.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,42 +3871,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C98" t="n">
-        <v>5265</v>
+        <v>5300</v>
       </c>
       <c r="D98" t="n">
-        <v>5265</v>
+        <v>5300</v>
       </c>
       <c r="E98" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F98" t="n">
-        <v>15.1722</v>
+        <v>185.342</v>
       </c>
       <c r="G98" t="n">
-        <v>5289.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H98" t="n">
-        <v>5291.5</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5265</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,42 +3910,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C99" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D99" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E99" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F99" t="n">
-        <v>199.0874</v>
+        <v>63.064</v>
       </c>
       <c r="G99" t="n">
-        <v>5287.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H99" t="n">
-        <v>5290.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>5265</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,42 +3949,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5245</v>
+        <v>5300</v>
       </c>
       <c r="C100" t="n">
-        <v>5245</v>
+        <v>5300</v>
       </c>
       <c r="D100" t="n">
-        <v>5245</v>
+        <v>5300</v>
       </c>
       <c r="E100" t="n">
-        <v>5245</v>
+        <v>5300</v>
       </c>
       <c r="F100" t="n">
-        <v>56.529</v>
+        <v>259.3457</v>
       </c>
       <c r="G100" t="n">
-        <v>5284.333333333333</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H100" t="n">
-        <v>5290.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5260</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,42 +3988,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="C101" t="n">
-        <v>5245</v>
+        <v>5305</v>
       </c>
       <c r="D101" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="E101" t="n">
-        <v>5245</v>
+        <v>5305</v>
       </c>
       <c r="F101" t="n">
-        <v>102.6487</v>
+        <v>9.4252</v>
       </c>
       <c r="G101" t="n">
-        <v>5281</v>
+        <v>3279.857891249979</v>
       </c>
       <c r="H101" t="n">
-        <v>5289.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5245</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,42 +4027,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5255</v>
+        <v>5290</v>
       </c>
       <c r="C102" t="n">
-        <v>5255</v>
+        <v>5290</v>
       </c>
       <c r="D102" t="n">
-        <v>5255</v>
+        <v>5290</v>
       </c>
       <c r="E102" t="n">
-        <v>5255</v>
+        <v>5290</v>
       </c>
       <c r="F102" t="n">
-        <v>26.0778</v>
+        <v>225.007</v>
       </c>
       <c r="G102" t="n">
-        <v>5278</v>
+        <v>3054.850891249979</v>
       </c>
       <c r="H102" t="n">
-        <v>5288.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5245</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,42 +4066,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="C103" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="D103" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="E103" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="F103" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G103" t="n">
-        <v>5275.333333333333</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H103" t="n">
-        <v>5288.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5255</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,42 +4105,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="C104" t="n">
-        <v>5245</v>
+        <v>5285</v>
       </c>
       <c r="D104" t="n">
-        <v>5265</v>
+        <v>5285</v>
       </c>
       <c r="E104" t="n">
-        <v>5245</v>
+        <v>5280</v>
       </c>
       <c r="F104" t="n">
-        <v>2339.742</v>
+        <v>563.067</v>
       </c>
       <c r="G104" t="n">
-        <v>5271.666666666667</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H104" t="n">
-        <v>5287.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5260</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,40 +4144,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="C105" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="D105" t="n">
-        <v>5270</v>
+        <v>5290</v>
       </c>
       <c r="E105" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="F105" t="n">
-        <v>3686.428</v>
+        <v>79.8663</v>
       </c>
       <c r="G105" t="n">
-        <v>5268.333333333333</v>
+        <v>3125.217191249979</v>
       </c>
       <c r="H105" t="n">
-        <v>5287.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,40 +4183,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="C106" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="D106" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="E106" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="F106" t="n">
-        <v>49.5292</v>
+        <v>1282.0678</v>
       </c>
       <c r="G106" t="n">
-        <v>5265</v>
+        <v>4407.28499124998</v>
       </c>
       <c r="H106" t="n">
-        <v>5286.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,40 +4222,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C107" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D107" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E107" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F107" t="n">
-        <v>110.1057</v>
+        <v>8.0458</v>
       </c>
       <c r="G107" t="n">
-        <v>5261.666666666667</v>
+        <v>4399.23919124998</v>
       </c>
       <c r="H107" t="n">
-        <v>5286.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,40 +4261,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="C108" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="D108" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="E108" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="F108" t="n">
-        <v>304.9293</v>
+        <v>5.9817</v>
       </c>
       <c r="G108" t="n">
-        <v>5258.666666666667</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H108" t="n">
-        <v>5285.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,40 +4300,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="C109" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="D109" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="E109" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="F109" t="n">
-        <v>309.61</v>
+        <v>21.5183</v>
       </c>
       <c r="G109" t="n">
-        <v>5256.666666666667</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H109" t="n">
-        <v>5285.25</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,40 +4339,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="C110" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="D110" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="E110" t="n">
-        <v>5255</v>
+        <v>5295</v>
       </c>
       <c r="F110" t="n">
-        <v>73.0086</v>
+        <v>47.2379</v>
       </c>
       <c r="G110" t="n">
-        <v>5255</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H110" t="n">
-        <v>5284.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,40 +4378,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="C111" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="D111" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="E111" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="F111" t="n">
-        <v>921.3878999999999</v>
+        <v>73.8373</v>
       </c>
       <c r="G111" t="n">
-        <v>5253.333333333333</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H111" t="n">
-        <v>5284.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,40 +4417,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5240</v>
+        <v>5290</v>
       </c>
       <c r="C112" t="n">
-        <v>5240</v>
+        <v>5290</v>
       </c>
       <c r="D112" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="E112" t="n">
-        <v>5240</v>
+        <v>5290</v>
       </c>
       <c r="F112" t="n">
-        <v>110.1</v>
+        <v>18.9166</v>
       </c>
       <c r="G112" t="n">
-        <v>5251.666666666667</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H112" t="n">
-        <v>5283.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,40 +4456,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5230</v>
+        <v>5290</v>
       </c>
       <c r="C113" t="n">
-        <v>5225</v>
+        <v>5290</v>
       </c>
       <c r="D113" t="n">
-        <v>5230</v>
+        <v>5290</v>
       </c>
       <c r="E113" t="n">
-        <v>5225</v>
+        <v>5290</v>
       </c>
       <c r="F113" t="n">
-        <v>5.0744</v>
+        <v>19.7916</v>
       </c>
       <c r="G113" t="n">
-        <v>5249</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H113" t="n">
-        <v>5283</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,40 +4495,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="C114" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="D114" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="E114" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="F114" t="n">
-        <v>198.4556</v>
+        <v>82.5581</v>
       </c>
       <c r="G114" t="n">
-        <v>5248</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H114" t="n">
-        <v>5282.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,40 +4534,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5230</v>
+        <v>5295</v>
       </c>
       <c r="C115" t="n">
-        <v>5230</v>
+        <v>5295</v>
       </c>
       <c r="D115" t="n">
-        <v>5230</v>
+        <v>5295</v>
       </c>
       <c r="E115" t="n">
-        <v>5230</v>
+        <v>5295</v>
       </c>
       <c r="F115" t="n">
-        <v>35.1716</v>
+        <v>96.17570000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>5247</v>
+        <v>4470.51659124998</v>
       </c>
       <c r="H115" t="n">
-        <v>5281.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,40 +4573,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5240</v>
+        <v>5295</v>
       </c>
       <c r="C116" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="D116" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="E116" t="n">
-        <v>5240</v>
+        <v>5295</v>
       </c>
       <c r="F116" t="n">
-        <v>17.5</v>
+        <v>21.2747</v>
       </c>
       <c r="G116" t="n">
-        <v>5246.666666666667</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H116" t="n">
-        <v>5280.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,40 +4612,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="C117" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="D117" t="n">
-        <v>5245</v>
+        <v>5300</v>
       </c>
       <c r="E117" t="n">
-        <v>5240</v>
+        <v>5290</v>
       </c>
       <c r="F117" t="n">
-        <v>17.4</v>
+        <v>399.889</v>
       </c>
       <c r="G117" t="n">
-        <v>5245.666666666667</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H117" t="n">
-        <v>5279.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,42 +4651,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="C118" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="D118" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="E118" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="F118" t="n">
-        <v>6.0845</v>
+        <v>0.5594</v>
       </c>
       <c r="G118" t="n">
-        <v>5244.333333333333</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H118" t="n">
-        <v>5278.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5240</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,40 +4690,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="C119" t="n">
-        <v>5235</v>
+        <v>5300</v>
       </c>
       <c r="D119" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="E119" t="n">
-        <v>5235</v>
+        <v>5300</v>
       </c>
       <c r="F119" t="n">
-        <v>184.867</v>
+        <v>223.1082</v>
       </c>
       <c r="G119" t="n">
-        <v>5243.666666666667</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H119" t="n">
-        <v>5277.25</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,40 +4729,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="C120" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="D120" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="E120" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4228353948620361</v>
+        <v>144.9703</v>
       </c>
       <c r="G120" t="n">
-        <v>5244</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H120" t="n">
-        <v>5276.5</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,40 +4768,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C121" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D121" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E121" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F121" t="n">
-        <v>2.4028</v>
+        <v>141.4708</v>
       </c>
       <c r="G121" t="n">
-        <v>5244</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H121" t="n">
-        <v>5275.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,40 +4807,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="C122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E122" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F122" t="n">
-        <v>610.904</v>
+        <v>95.408</v>
       </c>
       <c r="G122" t="n">
-        <v>5244.666666666667</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H122" t="n">
-        <v>5275</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,40 +4846,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="C123" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="D123" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="E123" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="F123" t="n">
-        <v>42.2912</v>
+        <v>25.4828</v>
       </c>
       <c r="G123" t="n">
-        <v>5245.666666666667</v>
+        <v>4466.30849124998</v>
       </c>
       <c r="H123" t="n">
-        <v>5274.5</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,40 +4885,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5265</v>
+        <v>5285</v>
       </c>
       <c r="C124" t="n">
-        <v>5245</v>
+        <v>5280</v>
       </c>
       <c r="D124" t="n">
-        <v>5265</v>
+        <v>5285</v>
       </c>
       <c r="E124" t="n">
-        <v>5245</v>
+        <v>5280</v>
       </c>
       <c r="F124" t="n">
-        <v>990.7965</v>
+        <v>34.5172</v>
       </c>
       <c r="G124" t="n">
-        <v>5245</v>
+        <v>4431.79129124998</v>
       </c>
       <c r="H124" t="n">
-        <v>5273.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,40 +4924,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5255</v>
+        <v>5270</v>
       </c>
       <c r="C125" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="D125" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="E125" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F125" t="n">
-        <v>42.62</v>
+        <v>209.7811</v>
       </c>
       <c r="G125" t="n">
-        <v>5245.333333333333</v>
+        <v>4222.010191249979</v>
       </c>
       <c r="H125" t="n">
-        <v>5272.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,40 +4963,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="C126" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D126" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="E126" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F126" t="n">
-        <v>83.2298</v>
+        <v>487.9947</v>
       </c>
       <c r="G126" t="n">
-        <v>5246</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H126" t="n">
-        <v>5272.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,40 +5002,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C127" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="D127" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="E127" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F127" t="n">
-        <v>3.0981</v>
+        <v>15.1722</v>
       </c>
       <c r="G127" t="n">
-        <v>5246.333333333333</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H127" t="n">
-        <v>5271.25</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,40 +5041,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="C128" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D128" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E128" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>199.0874</v>
       </c>
       <c r="G128" t="n">
-        <v>5248.333333333333</v>
+        <v>3534.928091249979</v>
       </c>
       <c r="H128" t="n">
-        <v>5270.5</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,40 +5080,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="C129" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D129" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="E129" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F129" t="n">
-        <v>64.3164</v>
+        <v>56.529</v>
       </c>
       <c r="G129" t="n">
-        <v>5249</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H129" t="n">
-        <v>5269.75</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,40 +5119,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5275</v>
+        <v>5250</v>
       </c>
       <c r="C130" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="D130" t="n">
-        <v>5275</v>
+        <v>5250</v>
       </c>
       <c r="E130" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="F130" t="n">
-        <v>177.8654</v>
+        <v>102.6487</v>
       </c>
       <c r="G130" t="n">
-        <v>5251</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H130" t="n">
-        <v>5269.083333333333</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,40 +5160,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="C131" t="n">
-        <v>5280</v>
+        <v>5255</v>
       </c>
       <c r="D131" t="n">
-        <v>5280</v>
+        <v>5255</v>
       </c>
       <c r="E131" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="F131" t="n">
-        <v>400</v>
+        <v>26.0778</v>
       </c>
       <c r="G131" t="n">
-        <v>5253.666666666667</v>
+        <v>3504.476891249979</v>
       </c>
       <c r="H131" t="n">
-        <v>5268.75</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,40 +5201,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="C132" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="D132" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="E132" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="F132" t="n">
-        <v>8.4968</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>5255.666666666667</v>
+        <v>3604.476891249979</v>
       </c>
       <c r="H132" t="n">
-        <v>5268.166666666667</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>5255</v>
       </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,40 +5242,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5270</v>
+        <v>5250</v>
       </c>
       <c r="C133" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="D133" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E133" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="F133" t="n">
-        <v>1.5032</v>
+        <v>2339.742</v>
       </c>
       <c r="G133" t="n">
-        <v>5257.666666666667</v>
+        <v>1264.734891249979</v>
       </c>
       <c r="H133" t="n">
-        <v>5267.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,40 +5281,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C134" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D134" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="E134" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F134" t="n">
-        <v>3.72</v>
+        <v>3686.428</v>
       </c>
       <c r="G134" t="n">
-        <v>5259.333333333333</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H134" t="n">
-        <v>5267.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,40 +5320,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C135" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D135" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E135" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F135" t="n">
-        <v>59.293</v>
+        <v>49.5292</v>
       </c>
       <c r="G135" t="n">
-        <v>5259.666666666667</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H135" t="n">
-        <v>5267</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,40 +5359,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C136" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D136" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E136" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F136" t="n">
-        <v>104.8539</v>
+        <v>110.1057</v>
       </c>
       <c r="G136" t="n">
-        <v>5260.333333333333</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H136" t="n">
-        <v>5266.5</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,40 +5398,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C137" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D137" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E137" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F137" t="n">
-        <v>28.01</v>
+        <v>304.9293</v>
       </c>
       <c r="G137" t="n">
-        <v>5260.333333333333</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H137" t="n">
-        <v>5265.75</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,40 +5437,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C138" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D138" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E138" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F138" t="n">
-        <v>5.486</v>
+        <v>309.61</v>
       </c>
       <c r="G138" t="n">
-        <v>5259.666666666667</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H138" t="n">
-        <v>5265.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,40 +5476,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C139" t="n">
         <v>5255</v>
       </c>
       <c r="D139" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E139" t="n">
         <v>5255</v>
       </c>
       <c r="F139" t="n">
-        <v>4.8729</v>
+        <v>73.0086</v>
       </c>
       <c r="G139" t="n">
-        <v>5260.333333333333</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H139" t="n">
-        <v>5264.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,40 +5515,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C140" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="D140" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E140" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="F140" t="n">
-        <v>18.7761</v>
+        <v>921.3878999999999</v>
       </c>
       <c r="G140" t="n">
-        <v>5259.666666666667</v>
+        <v>4334.704291249979</v>
       </c>
       <c r="H140" t="n">
-        <v>5263.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,40 +5554,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C141" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D141" t="n">
         <v>5250</v>
       </c>
       <c r="E141" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F141" t="n">
-        <v>62.6175</v>
+        <v>110.1</v>
       </c>
       <c r="G141" t="n">
-        <v>5259.333333333333</v>
+        <v>4224.604291249979</v>
       </c>
       <c r="H141" t="n">
-        <v>5262.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,40 +5593,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="C142" t="n">
-        <v>5250</v>
+        <v>5225</v>
       </c>
       <c r="D142" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="E142" t="n">
-        <v>5250</v>
+        <v>5225</v>
       </c>
       <c r="F142" t="n">
-        <v>3.14</v>
+        <v>5.0744</v>
       </c>
       <c r="G142" t="n">
-        <v>5259.666666666667</v>
+        <v>4219.529891249978</v>
       </c>
       <c r="H142" t="n">
-        <v>5262.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5992,40 +5632,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="C143" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="D143" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="E143" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="F143" t="n">
-        <v>6.3617</v>
+        <v>198.4556</v>
       </c>
       <c r="G143" t="n">
-        <v>5259.333333333333</v>
+        <v>4417.985491249979</v>
       </c>
       <c r="H143" t="n">
-        <v>5261.5</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,40 +5671,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="C144" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="D144" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="E144" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F144" t="n">
-        <v>7.58</v>
+        <v>35.1716</v>
       </c>
       <c r="G144" t="n">
-        <v>5259</v>
+        <v>4382.813891249979</v>
       </c>
       <c r="H144" t="n">
-        <v>5260.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,40 +5710,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C145" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D145" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E145" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F145" t="n">
-        <v>103</v>
+        <v>17.5</v>
       </c>
       <c r="G145" t="n">
-        <v>5258.333333333333</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H145" t="n">
-        <v>5260.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,40 +5749,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="C146" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D146" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="E146" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F146" t="n">
-        <v>50.1274</v>
+        <v>17.4</v>
       </c>
       <c r="G146" t="n">
-        <v>5256.333333333333</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H146" t="n">
-        <v>5259.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,40 +5788,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C147" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D147" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E147" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F147" t="n">
-        <v>13.6228</v>
+        <v>6.0845</v>
       </c>
       <c r="G147" t="n">
-        <v>5255</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H147" t="n">
-        <v>5258.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,40 +5827,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C148" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="D148" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E148" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="F148" t="n">
-        <v>159.6481</v>
+        <v>184.867</v>
       </c>
       <c r="G148" t="n">
-        <v>5253.666666666667</v>
+        <v>4215.446891249979</v>
       </c>
       <c r="H148" t="n">
-        <v>5257.75</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,40 +5866,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="C149" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D149" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="E149" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F149" t="n">
-        <v>89.55719999999999</v>
+        <v>0.4228353948620361</v>
       </c>
       <c r="G149" t="n">
-        <v>5253</v>
+        <v>4215.869726644841</v>
       </c>
       <c r="H149" t="n">
-        <v>5256.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,28 +5917,25 @@
         <v>5250</v>
       </c>
       <c r="F150" t="n">
-        <v>20.0574</v>
+        <v>2.4028</v>
       </c>
       <c r="G150" t="n">
-        <v>5252.333333333333</v>
+        <v>4213.466926644841</v>
       </c>
       <c r="H150" t="n">
-        <v>5256.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,40 +5944,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="C151" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="D151" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E151" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F151" t="n">
-        <v>75.51179999999999</v>
+        <v>610.904</v>
       </c>
       <c r="G151" t="n">
-        <v>5251.666666666667</v>
+        <v>4824.37092664484</v>
       </c>
       <c r="H151" t="n">
-        <v>5255.25</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,40 +5983,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="C152" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="D152" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="E152" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="F152" t="n">
-        <v>38.0237</v>
+        <v>42.2912</v>
       </c>
       <c r="G152" t="n">
-        <v>5251.666666666667</v>
+        <v>4866.66212664484</v>
       </c>
       <c r="H152" t="n">
-        <v>5254.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,40 +6022,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="C153" t="n">
         <v>5245</v>
       </c>
       <c r="D153" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="E153" t="n">
         <v>5245</v>
       </c>
       <c r="F153" t="n">
-        <v>42.0403</v>
+        <v>990.7965</v>
       </c>
       <c r="G153" t="n">
-        <v>5250.666666666667</v>
+        <v>3875.86562664484</v>
       </c>
       <c r="H153" t="n">
-        <v>5253.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,7 +6061,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C154" t="n">
         <v>5260</v>
@@ -6463,31 +6070,28 @@
         <v>5260</v>
       </c>
       <c r="E154" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F154" t="n">
-        <v>124.9625</v>
+        <v>42.62</v>
       </c>
       <c r="G154" t="n">
-        <v>5251</v>
+        <v>3918.48562664484</v>
       </c>
       <c r="H154" t="n">
-        <v>5253.25</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,40 +6100,37 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C155" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D155" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E155" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F155" t="n">
-        <v>81.7838</v>
+        <v>83.2298</v>
       </c>
       <c r="G155" t="n">
-        <v>5252</v>
+        <v>3835.25582664484</v>
       </c>
       <c r="H155" t="n">
-        <v>5253</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,40 +6139,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="C156" t="n">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="D156" t="n">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="E156" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="F156" t="n">
-        <v>464.8278</v>
+        <v>3.0981</v>
       </c>
       <c r="G156" t="n">
-        <v>5253</v>
+        <v>3832.15772664484</v>
       </c>
       <c r="H156" t="n">
-        <v>5252.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,40 +6178,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C157" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="D157" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="E157" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F157" t="n">
-        <v>131.0944</v>
+        <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>5254.333333333333</v>
+        <v>3837.15772664484</v>
       </c>
       <c r="H157" t="n">
-        <v>5253</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6622,40 +6217,37 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="C158" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D158" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E158" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="F158" t="n">
-        <v>195.8567</v>
+        <v>64.3164</v>
       </c>
       <c r="G158" t="n">
-        <v>5257.666666666667</v>
+        <v>3837.15772664484</v>
       </c>
       <c r="H158" t="n">
-        <v>5253.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,40 +6256,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="C159" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="D159" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="E159" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9442</v>
+        <v>177.8654</v>
       </c>
       <c r="G159" t="n">
-        <v>5260</v>
+        <v>4015.02312664484</v>
       </c>
       <c r="H159" t="n">
-        <v>5254</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,40 +6295,37 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5300</v>
+        <v>5275</v>
       </c>
       <c r="C160" t="n">
-        <v>5320</v>
+        <v>5280</v>
       </c>
       <c r="D160" t="n">
-        <v>5320</v>
+        <v>5280</v>
       </c>
       <c r="E160" t="n">
-        <v>5300</v>
+        <v>5275</v>
       </c>
       <c r="F160" t="n">
-        <v>98.0565</v>
+        <v>400</v>
       </c>
       <c r="G160" t="n">
-        <v>5264.666666666667</v>
+        <v>4415.02312664484</v>
       </c>
       <c r="H160" t="n">
-        <v>5255.25</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,40 +6334,37 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5305</v>
+        <v>5270</v>
       </c>
       <c r="C161" t="n">
-        <v>5305</v>
+        <v>5270</v>
       </c>
       <c r="D161" t="n">
-        <v>5305</v>
+        <v>5270</v>
       </c>
       <c r="E161" t="n">
-        <v>5305</v>
+        <v>5270</v>
       </c>
       <c r="F161" t="n">
-        <v>138.2</v>
+        <v>8.4968</v>
       </c>
       <c r="G161" t="n">
-        <v>5268.333333333333</v>
+        <v>4406.52632664484</v>
       </c>
       <c r="H161" t="n">
-        <v>5256.25</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6790,40 +6373,37 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="C162" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="D162" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="E162" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="F162" t="n">
-        <v>98.59999999999999</v>
+        <v>1.5032</v>
       </c>
       <c r="G162" t="n">
-        <v>5270.666666666667</v>
+        <v>4406.52632664484</v>
       </c>
       <c r="H162" t="n">
-        <v>5256.75</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,40 +6412,37 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="C163" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="D163" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="E163" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="F163" t="n">
-        <v>159.7739</v>
+        <v>3.72</v>
       </c>
       <c r="G163" t="n">
-        <v>5273</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H163" t="n">
-        <v>5257.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,40 +6451,37 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="C164" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="D164" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="E164" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="F164" t="n">
-        <v>100.637</v>
+        <v>59.293</v>
       </c>
       <c r="G164" t="n">
-        <v>5276.666666666667</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H164" t="n">
-        <v>5258.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N164" t="n">
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6916,40 +6490,37 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C165" t="n">
-        <v>5310</v>
+        <v>5260</v>
       </c>
       <c r="D165" t="n">
-        <v>5310</v>
+        <v>5260</v>
       </c>
       <c r="E165" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="F165" t="n">
-        <v>1320.2635</v>
+        <v>104.8539</v>
       </c>
       <c r="G165" t="n">
-        <v>5280.666666666667</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H165" t="n">
-        <v>5259.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,40 +6529,37 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5315</v>
+        <v>5260</v>
       </c>
       <c r="C166" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="D166" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="E166" t="n">
-        <v>5315</v>
+        <v>5260</v>
       </c>
       <c r="F166" t="n">
-        <v>417.5425</v>
+        <v>28.01</v>
       </c>
       <c r="G166" t="n">
-        <v>5287</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H166" t="n">
-        <v>5260.75</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,40 +6568,37 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="C167" t="n">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="D167" t="n">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="E167" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="F167" t="n">
-        <v>49.667</v>
+        <v>5.486</v>
       </c>
       <c r="G167" t="n">
-        <v>5293</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H167" t="n">
-        <v>5262.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7042,40 +6607,37 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="C168" t="n">
-        <v>5340</v>
+        <v>5255</v>
       </c>
       <c r="D168" t="n">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="E168" t="n">
-        <v>5340</v>
+        <v>5255</v>
       </c>
       <c r="F168" t="n">
-        <v>375.084</v>
+        <v>4.8729</v>
       </c>
       <c r="G168" t="n">
-        <v>5299.333333333333</v>
+        <v>4397.93342664484</v>
       </c>
       <c r="H168" t="n">
-        <v>5263.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7084,40 +6646,37 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5340</v>
+        <v>5250</v>
       </c>
       <c r="C169" t="n">
-        <v>5340</v>
+        <v>5250</v>
       </c>
       <c r="D169" t="n">
-        <v>5340</v>
+        <v>5250</v>
       </c>
       <c r="E169" t="n">
-        <v>5340</v>
+        <v>5250</v>
       </c>
       <c r="F169" t="n">
-        <v>590.9604</v>
+        <v>18.7761</v>
       </c>
       <c r="G169" t="n">
-        <v>5304.666666666667</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H169" t="n">
-        <v>5265.25</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,40 +6685,37 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5330</v>
+        <v>5250</v>
       </c>
       <c r="C170" t="n">
-        <v>5345</v>
+        <v>5250</v>
       </c>
       <c r="D170" t="n">
-        <v>5345</v>
+        <v>5250</v>
       </c>
       <c r="E170" t="n">
-        <v>5330</v>
+        <v>5250</v>
       </c>
       <c r="F170" t="n">
-        <v>140.7102</v>
+        <v>62.6175</v>
       </c>
       <c r="G170" t="n">
-        <v>5310</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H170" t="n">
-        <v>5266.75</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N170" t="n">
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,40 +6724,37 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5355</v>
+        <v>5250</v>
       </c>
       <c r="C171" t="n">
-        <v>5360</v>
+        <v>5250</v>
       </c>
       <c r="D171" t="n">
-        <v>5360</v>
+        <v>5250</v>
       </c>
       <c r="E171" t="n">
-        <v>5355</v>
+        <v>5250</v>
       </c>
       <c r="F171" t="n">
-        <v>297.5</v>
+        <v>3.14</v>
       </c>
       <c r="G171" t="n">
-        <v>5316.333333333333</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H171" t="n">
-        <v>5268.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N171" t="n">
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7210,40 +6763,1150 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6.3617</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F174" t="n">
+        <v>103</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50.1274</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13.6228</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F177" t="n">
+        <v>159.6481</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F178" t="n">
+        <v>89.55719999999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20.0574</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F180" t="n">
+        <v>75.51179999999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F181" t="n">
+        <v>38.0237</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4417.181026644839</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F182" t="n">
+        <v>42.0403</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4375.14072664484</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F183" t="n">
+        <v>124.9625</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4500.103226644839</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F184" t="n">
+        <v>81.7838</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4581.887026644839</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F185" t="n">
+        <v>464.8278</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4581.887026644839</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F186" t="n">
+        <v>131.0944</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4712.981426644839</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5300</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F187" t="n">
+        <v>195.8567</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4908.83812664484</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4907.89392664484</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F189" t="n">
+        <v>98.0565</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5005.950426644839</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F190" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4867.75042664484</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F191" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4769.150426644839</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F192" t="n">
+        <v>159.7739</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4769.150426644839</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100.637</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4869.787426644839</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1320.2635</v>
+      </c>
+      <c r="G194" t="n">
+        <v>6190.050926644839</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5315</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5315</v>
+      </c>
+      <c r="F195" t="n">
+        <v>417.5425</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6607.593426644838</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5345</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5350</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5345</v>
+      </c>
+      <c r="F196" t="n">
+        <v>49.667</v>
+      </c>
+      <c r="G196" t="n">
+        <v>6657.260426644839</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5350</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F197" t="n">
+        <v>375.084</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6282.176426644839</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5340</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5340</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F198" t="n">
+        <v>590.9604</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6282.176426644839</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5330</v>
+      </c>
+      <c r="F199" t="n">
+        <v>140.7102</v>
+      </c>
+      <c r="G199" t="n">
+        <v>6422.886626644839</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5355</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5360</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5360</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F200" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6720.386626644839</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
         <v>5370</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C201" t="n">
         <v>5370</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D201" t="n">
         <v>5370</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E201" t="n">
         <v>5370</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F201" t="n">
         <v>18.6402</v>
       </c>
-      <c r="G172" t="n">
-        <v>5323</v>
-      </c>
-      <c r="H172" t="n">
-        <v>5270.833333333333</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N172" t="n">
+      <c r="G201" t="n">
+        <v>6739.026826644838</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="C2" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="D2" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="E2" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="F2" t="n">
-        <v>13.95</v>
+        <v>35.5273</v>
       </c>
       <c r="G2" t="n">
-        <v>2244.339696958173</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="C3" t="n">
-        <v>5330</v>
+        <v>5305</v>
       </c>
       <c r="D3" t="n">
-        <v>5330</v>
+        <v>5305</v>
       </c>
       <c r="E3" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3726</v>
+        <v>10.7218</v>
       </c>
       <c r="G3" t="n">
-        <v>2244.339696958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5330</v>
+        <v>5305</v>
       </c>
       <c r="C4" t="n">
-        <v>5355</v>
+        <v>5305</v>
       </c>
       <c r="D4" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="E4" t="n">
-        <v>5330</v>
+        <v>5305</v>
       </c>
       <c r="F4" t="n">
-        <v>1974.7607</v>
+        <v>63.8609</v>
       </c>
       <c r="G4" t="n">
-        <v>4219.100396958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5355</v>
+        <v>5305</v>
       </c>
       <c r="C5" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="D5" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="E5" t="n">
-        <v>5355</v>
+        <v>5305</v>
       </c>
       <c r="F5" t="n">
-        <v>114.5938</v>
+        <v>47.1654</v>
       </c>
       <c r="G5" t="n">
-        <v>4333.694196958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="C6" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="D6" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="E6" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0835</v>
+        <v>4.3292</v>
       </c>
       <c r="G6" t="n">
-        <v>4336.777696958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="C7" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="D7" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="E7" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="F7" t="n">
-        <v>56.7</v>
+        <v>92.01300000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4336.777696958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="C8" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="D8" t="n">
-        <v>5370</v>
+        <v>5305</v>
       </c>
       <c r="E8" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="F8" t="n">
-        <v>178.0929</v>
+        <v>0.7693</v>
       </c>
       <c r="G8" t="n">
-        <v>4336.777696958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="C9" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="D9" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="E9" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="F9" t="n">
-        <v>5.1232</v>
+        <v>15.4963</v>
       </c>
       <c r="G9" t="n">
-        <v>4331.654496958173</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="C10" t="n">
-        <v>5350</v>
+        <v>5310</v>
       </c>
       <c r="D10" t="n">
-        <v>5350</v>
+        <v>5310</v>
       </c>
       <c r="E10" t="n">
-        <v>5350</v>
+        <v>5305</v>
       </c>
       <c r="F10" t="n">
-        <v>184.108</v>
+        <v>231.0613</v>
       </c>
       <c r="G10" t="n">
-        <v>4331.654496958173</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="C11" t="n">
-        <v>5345</v>
+        <v>5310</v>
       </c>
       <c r="D11" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="E11" t="n">
-        <v>5345</v>
+        <v>5310</v>
       </c>
       <c r="F11" t="n">
-        <v>189.8142</v>
+        <v>49.3214</v>
       </c>
       <c r="G11" t="n">
-        <v>4141.840296958173</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5345</v>
+        <v>5320</v>
       </c>
       <c r="C12" t="n">
-        <v>5345</v>
+        <v>5320</v>
       </c>
       <c r="D12" t="n">
-        <v>5345</v>
+        <v>5320</v>
       </c>
       <c r="E12" t="n">
-        <v>5345</v>
+        <v>5320</v>
       </c>
       <c r="F12" t="n">
-        <v>5.679</v>
+        <v>0.3279</v>
       </c>
       <c r="G12" t="n">
-        <v>4141.840296958173</v>
+        <v>4286.110578051874</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5345</v>
+        <v>5320</v>
       </c>
       <c r="C13" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="D13" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="E13" t="n">
-        <v>5340</v>
+        <v>5320</v>
       </c>
       <c r="F13" t="n">
-        <v>26.0068</v>
+        <v>235.4612</v>
       </c>
       <c r="G13" t="n">
-        <v>4115.833496958173</v>
+        <v>4521.571778051873</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5325</v>
+        <v>5340</v>
       </c>
       <c r="C14" t="n">
         <v>5325</v>
       </c>
       <c r="D14" t="n">
-        <v>5325</v>
+        <v>5340</v>
       </c>
       <c r="E14" t="n">
         <v>5325</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6744</v>
+        <v>61.034765917603</v>
       </c>
       <c r="G14" t="n">
-        <v>4115.159096958173</v>
+        <v>4460.53701213427</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5325</v>
+        <v>5340</v>
       </c>
       <c r="C15" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="D15" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E15" t="n">
-        <v>5320</v>
+        <v>5340</v>
       </c>
       <c r="F15" t="n">
-        <v>501.0068</v>
+        <v>0.1127</v>
       </c>
       <c r="G15" t="n">
-        <v>4616.165896958173</v>
+        <v>4460.64971213427</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="C16" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="D16" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="E16" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0408</v>
+        <v>52.434</v>
       </c>
       <c r="G16" t="n">
-        <v>4616.165896958173</v>
+        <v>4513.08371213427</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5330</v>
+        <v>5360</v>
       </c>
       <c r="C17" t="n">
-        <v>5330</v>
+        <v>5360</v>
       </c>
       <c r="D17" t="n">
-        <v>5330</v>
+        <v>5360</v>
       </c>
       <c r="E17" t="n">
-        <v>5330</v>
+        <v>5360</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3702</v>
+        <v>80.04259999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>4616.165896958173</v>
+        <v>4593.12631213427</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5320</v>
+        <v>5355</v>
       </c>
       <c r="C18" t="n">
-        <v>5320</v>
+        <v>5355</v>
       </c>
       <c r="D18" t="n">
-        <v>5320</v>
+        <v>5355</v>
       </c>
       <c r="E18" t="n">
-        <v>5320</v>
+        <v>5355</v>
       </c>
       <c r="F18" t="n">
-        <v>20.2</v>
+        <v>62.8712</v>
       </c>
       <c r="G18" t="n">
-        <v>4595.965896958173</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="C19" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="D19" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="E19" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="F19" t="n">
-        <v>979.8759</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>5575.841796958173</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="C20" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="D20" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E20" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="F20" t="n">
-        <v>321.8712</v>
+        <v>14.285</v>
       </c>
       <c r="G20" t="n">
-        <v>5575.841796958173</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="C21" t="n">
-        <v>5325</v>
+        <v>5340</v>
       </c>
       <c r="D21" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="E21" t="n">
-        <v>5325</v>
+        <v>5340</v>
       </c>
       <c r="F21" t="n">
-        <v>75.16072127460168</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>5500.681075683571</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="C22" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="D22" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E22" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8337711069418386</v>
+        <v>25.6999</v>
       </c>
       <c r="G22" t="n">
-        <v>5501.514846790513</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="C23" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="D23" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E23" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3602</v>
+        <v>119.331</v>
       </c>
       <c r="G23" t="n">
-        <v>5501.514846790513</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="C24" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D24" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="E24" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F24" t="n">
-        <v>177.6476</v>
+        <v>10.02</v>
       </c>
       <c r="G24" t="n">
-        <v>5323.867246790513</v>
+        <v>4505.95011213427</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C25" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D25" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E25" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F25" t="n">
-        <v>226.83</v>
+        <v>5.1814</v>
       </c>
       <c r="G25" t="n">
-        <v>5097.037246790513</v>
+        <v>4500.76871213427</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C26" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="D26" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="E26" t="n">
         <v>5300</v>
       </c>
       <c r="F26" t="n">
-        <v>22.0715</v>
+        <v>67.58150000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>5119.108746790513</v>
+        <v>4433.187212134269</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="C27" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="D27" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="E27" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="F27" t="n">
-        <v>18.39876208842897</v>
+        <v>2788.2913</v>
       </c>
       <c r="G27" t="n">
-        <v>5137.507508878942</v>
+        <v>1644.89591213427</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="C28" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="D28" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="E28" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="F28" t="n">
-        <v>54.3377</v>
+        <v>10.1361</v>
       </c>
       <c r="G28" t="n">
-        <v>5137.507508878942</v>
+        <v>1655.03201213427</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="C29" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="D29" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="E29" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="F29" t="n">
-        <v>7.2874</v>
+        <v>64.3284</v>
       </c>
       <c r="G29" t="n">
-        <v>5130.220108878942</v>
+        <v>1590.703612134269</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="C30" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="D30" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="E30" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4176691729323308</v>
+        <v>39.3</v>
       </c>
       <c r="G30" t="n">
-        <v>5130.637778051874</v>
+        <v>1630.003612134269</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="C31" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="D31" t="n">
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="E31" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="F31" t="n">
-        <v>99.67910000000001</v>
+        <v>25.6653</v>
       </c>
       <c r="G31" t="n">
-        <v>5130.637778051874</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="C32" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="D32" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="E32" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="F32" t="n">
-        <v>15.296</v>
+        <v>22.7666</v>
       </c>
       <c r="G32" t="n">
-        <v>5130.637778051874</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="C33" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="D33" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="E33" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="F33" t="n">
-        <v>3.4511</v>
+        <v>39.3</v>
       </c>
       <c r="G33" t="n">
-        <v>5127.186678051874</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="C34" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="D34" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="E34" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="F34" t="n">
-        <v>60.01</v>
+        <v>23.75</v>
       </c>
       <c r="G34" t="n">
-        <v>5067.176678051874</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="C35" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="D35" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="E35" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="F35" t="n">
-        <v>9.407299999999999</v>
+        <v>41.0705</v>
       </c>
       <c r="G35" t="n">
-        <v>5076.583978051874</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="C36" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="D36" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="E36" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="F36" t="n">
-        <v>957.793</v>
+        <v>45.4091</v>
       </c>
       <c r="G36" t="n">
-        <v>4118.790978051874</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="C37" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="D37" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="E37" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>8.0852</v>
       </c>
       <c r="G37" t="n">
-        <v>4118.790978051874</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="C38" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="D38" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="E38" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="F38" t="n">
-        <v>28.222</v>
+        <v>11.3881</v>
       </c>
       <c r="G38" t="n">
-        <v>4147.012978051874</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="C39" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="D39" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="E39" t="n">
-        <v>5315</v>
+        <v>5275</v>
       </c>
       <c r="F39" t="n">
-        <v>48.1945</v>
+        <v>105.4126</v>
       </c>
       <c r="G39" t="n">
-        <v>4147.012978051874</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="C40" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="D40" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="E40" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="F40" t="n">
-        <v>69.9616</v>
+        <v>18.0572</v>
       </c>
       <c r="G40" t="n">
-        <v>4077.051378051874</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="C41" t="n">
-        <v>5305</v>
+        <v>5280</v>
       </c>
       <c r="D41" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="E41" t="n">
-        <v>5305</v>
+        <v>5275</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5655</v>
+        <v>11.4718</v>
       </c>
       <c r="G41" t="n">
-        <v>4077.051378051874</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="C42" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="D42" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="E42" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="F42" t="n">
-        <v>33.0518</v>
+        <v>500.745</v>
       </c>
       <c r="G42" t="n">
-        <v>4043.999578051873</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,41 +1907,47 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C43" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D43" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="E43" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F43" t="n">
-        <v>5.0878</v>
+        <v>1882.18907911571</v>
       </c>
       <c r="G43" t="n">
-        <v>4043.999578051873</v>
+        <v>3450.613991249979</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5280</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5280</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1909,16 +1960,16 @@
         <v>5300</v>
       </c>
       <c r="D44" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E44" t="n">
         <v>5300</v>
       </c>
       <c r="F44" t="n">
-        <v>35.5273</v>
+        <v>180.1813</v>
       </c>
       <c r="G44" t="n">
-        <v>4043.999578051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,11 +1978,18 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>5280</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,19 +1999,19 @@
         <v>5300</v>
       </c>
       <c r="C45" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D45" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E45" t="n">
         <v>5300</v>
       </c>
       <c r="F45" t="n">
-        <v>10.7218</v>
+        <v>30.6903</v>
       </c>
       <c r="G45" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,11 +2020,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>5280</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,19 +2041,19 @@
         <v>5305</v>
       </c>
       <c r="C46" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D46" t="n">
         <v>5305</v>
       </c>
       <c r="E46" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F46" t="n">
-        <v>63.8609</v>
+        <v>192.4875</v>
       </c>
       <c r="G46" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2067,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C47" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D47" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E47" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F47" t="n">
-        <v>47.1654</v>
+        <v>47.0592</v>
       </c>
       <c r="G47" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2103,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C48" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D48" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E48" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F48" t="n">
-        <v>4.3292</v>
+        <v>7.3327</v>
       </c>
       <c r="G48" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2139,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C49" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D49" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E49" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F49" t="n">
-        <v>92.01300000000001</v>
+        <v>49.4175</v>
       </c>
       <c r="G49" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2175,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C50" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D50" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E50" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7693</v>
+        <v>377.2879</v>
       </c>
       <c r="G50" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2211,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C51" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D51" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E51" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F51" t="n">
-        <v>15.4963</v>
+        <v>194.5457</v>
       </c>
       <c r="G51" t="n">
-        <v>4054.721378051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2247,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C52" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="D52" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="E52" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F52" t="n">
-        <v>231.0613</v>
+        <v>4.9</v>
       </c>
       <c r="G52" t="n">
-        <v>4285.782678051874</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2283,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="C53" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="D53" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="E53" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="F53" t="n">
-        <v>49.3214</v>
+        <v>188.6342</v>
       </c>
       <c r="G53" t="n">
-        <v>4285.782678051874</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2319,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="C54" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="D54" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="E54" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3279</v>
+        <v>378.4325</v>
       </c>
       <c r="G54" t="n">
-        <v>4286.110578051874</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2355,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5320</v>
+        <v>5305</v>
       </c>
       <c r="C55" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="D55" t="n">
-        <v>5330</v>
+        <v>5305</v>
       </c>
       <c r="E55" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="F55" t="n">
-        <v>235.4612</v>
+        <v>171.8355</v>
       </c>
       <c r="G55" t="n">
-        <v>4521.571778051873</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2391,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="C56" t="n">
-        <v>5325</v>
+        <v>5300</v>
       </c>
       <c r="D56" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="E56" t="n">
-        <v>5325</v>
+        <v>5300</v>
       </c>
       <c r="F56" t="n">
-        <v>61.034765917603</v>
+        <v>185.342</v>
       </c>
       <c r="G56" t="n">
-        <v>4460.53701213427</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2427,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="C57" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="D57" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="E57" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1127</v>
+        <v>63.064</v>
       </c>
       <c r="G57" t="n">
-        <v>4460.64971213427</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2463,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5355</v>
+        <v>5300</v>
       </c>
       <c r="C58" t="n">
-        <v>5355</v>
+        <v>5300</v>
       </c>
       <c r="D58" t="n">
-        <v>5355</v>
+        <v>5300</v>
       </c>
       <c r="E58" t="n">
-        <v>5355</v>
+        <v>5300</v>
       </c>
       <c r="F58" t="n">
-        <v>52.434</v>
+        <v>259.3457</v>
       </c>
       <c r="G58" t="n">
-        <v>4513.08371213427</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2499,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="C59" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="D59" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="E59" t="n">
-        <v>5360</v>
+        <v>5305</v>
       </c>
       <c r="F59" t="n">
-        <v>80.04259999999999</v>
+        <v>9.4252</v>
       </c>
       <c r="G59" t="n">
-        <v>4593.12631213427</v>
+        <v>3279.857891249979</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,34 +2535,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5355</v>
+        <v>5290</v>
       </c>
       <c r="C60" t="n">
-        <v>5355</v>
+        <v>5290</v>
       </c>
       <c r="D60" t="n">
-        <v>5355</v>
+        <v>5290</v>
       </c>
       <c r="E60" t="n">
-        <v>5355</v>
+        <v>5290</v>
       </c>
       <c r="F60" t="n">
-        <v>62.8712</v>
+        <v>225.007</v>
       </c>
       <c r="G60" t="n">
-        <v>4530.25511213427</v>
+        <v>3054.850891249979</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,28 +2571,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5355</v>
+        <v>5285</v>
       </c>
       <c r="C61" t="n">
-        <v>5355</v>
+        <v>5285</v>
       </c>
       <c r="D61" t="n">
-        <v>5355</v>
+        <v>5285</v>
       </c>
       <c r="E61" t="n">
-        <v>5355</v>
+        <v>5285</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="G61" t="n">
-        <v>4530.25511213427</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,34 +2607,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5340</v>
+        <v>5285</v>
       </c>
       <c r="C62" t="n">
-        <v>5340</v>
+        <v>5285</v>
       </c>
       <c r="D62" t="n">
-        <v>5340</v>
+        <v>5285</v>
       </c>
       <c r="E62" t="n">
-        <v>5340</v>
+        <v>5280</v>
       </c>
       <c r="F62" t="n">
-        <v>14.285</v>
+        <v>563.067</v>
       </c>
       <c r="G62" t="n">
-        <v>4515.97011213427</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,28 +2643,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="C63" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="D63" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="E63" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="F63" t="n">
-        <v>9.665800000000001</v>
+        <v>79.8663</v>
       </c>
       <c r="G63" t="n">
-        <v>4515.97011213427</v>
+        <v>3125.217191249979</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2679,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="C64" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="D64" t="n">
-        <v>5340</v>
+        <v>5305</v>
       </c>
       <c r="E64" t="n">
-        <v>5340</v>
+        <v>5290</v>
       </c>
       <c r="F64" t="n">
-        <v>25.6999</v>
+        <v>1282.0678</v>
       </c>
       <c r="G64" t="n">
-        <v>4515.97011213427</v>
+        <v>4407.28499124998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2715,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="C65" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="D65" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="E65" t="n">
-        <v>5340</v>
+        <v>5300</v>
       </c>
       <c r="F65" t="n">
-        <v>119.331</v>
+        <v>8.0458</v>
       </c>
       <c r="G65" t="n">
-        <v>4515.97011213427</v>
+        <v>4399.23919124998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2751,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="C66" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="D66" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="E66" t="n">
-        <v>5315</v>
+        <v>5295</v>
       </c>
       <c r="F66" t="n">
-        <v>10.02</v>
+        <v>5.9817</v>
       </c>
       <c r="G66" t="n">
-        <v>4505.95011213427</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2787,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="C67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="D67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="E67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="F67" t="n">
-        <v>5.1814</v>
+        <v>21.5183</v>
       </c>
       <c r="G67" t="n">
-        <v>4500.76871213427</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2823,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="C68" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D68" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="E68" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="F68" t="n">
-        <v>67.58150000000001</v>
+        <v>47.2379</v>
       </c>
       <c r="G68" t="n">
-        <v>4433.187212134269</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2859,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="C69" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="D69" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E69" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="F69" t="n">
-        <v>2788.2913</v>
+        <v>73.8373</v>
       </c>
       <c r="G69" t="n">
-        <v>1644.89591213427</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2895,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C70" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="D70" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="E70" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F70" t="n">
-        <v>10.1361</v>
+        <v>18.9166</v>
       </c>
       <c r="G70" t="n">
-        <v>1655.03201213427</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2931,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C71" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="D71" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="E71" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F71" t="n">
-        <v>64.3284</v>
+        <v>19.7916</v>
       </c>
       <c r="G71" t="n">
-        <v>1590.703612134269</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2895,10 +2986,10 @@
         <v>5290</v>
       </c>
       <c r="F72" t="n">
-        <v>39.3</v>
+        <v>82.5581</v>
       </c>
       <c r="G72" t="n">
-        <v>1630.003612134269</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3003,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="C73" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="D73" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="E73" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="F73" t="n">
-        <v>25.6653</v>
+        <v>96.17570000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>1604.338312134269</v>
+        <v>4470.51659124998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3039,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="C74" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D74" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E74" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="F74" t="n">
-        <v>22.7666</v>
+        <v>21.2747</v>
       </c>
       <c r="G74" t="n">
-        <v>1604.338312134269</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3075,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5280</v>
+        <v>5290</v>
       </c>
       <c r="C75" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D75" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E75" t="n">
-        <v>5280</v>
+        <v>5290</v>
       </c>
       <c r="F75" t="n">
-        <v>39.3</v>
+        <v>399.889</v>
       </c>
       <c r="G75" t="n">
-        <v>1565.03831213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3111,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="C76" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D76" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E76" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="F76" t="n">
-        <v>23.75</v>
+        <v>0.5594</v>
       </c>
       <c r="G76" t="n">
-        <v>1565.03831213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3147,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C77" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D77" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E77" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="F77" t="n">
-        <v>41.0705</v>
+        <v>223.1082</v>
       </c>
       <c r="G77" t="n">
-        <v>1565.03831213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3183,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="C78" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D78" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E78" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="F78" t="n">
-        <v>45.4091</v>
+        <v>144.9703</v>
       </c>
       <c r="G78" t="n">
-        <v>1565.03831213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3219,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="C79" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="D79" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E79" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="F79" t="n">
-        <v>8.0852</v>
+        <v>141.4708</v>
       </c>
       <c r="G79" t="n">
-        <v>1556.95311213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3255,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="C80" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="D80" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="E80" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="F80" t="n">
-        <v>11.3881</v>
+        <v>95.408</v>
       </c>
       <c r="G80" t="n">
-        <v>1556.95311213427</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3291,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3201,60 +3301,55 @@
         <v>5285</v>
       </c>
       <c r="C81" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="D81" t="n">
         <v>5285</v>
       </c>
       <c r="E81" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="F81" t="n">
-        <v>105.4126</v>
+        <v>25.4828</v>
       </c>
       <c r="G81" t="n">
-        <v>1556.95311213427</v>
+        <v>4466.30849124998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5275</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="C82" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="D82" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="E82" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="F82" t="n">
-        <v>18.0572</v>
+        <v>34.5172</v>
       </c>
       <c r="G82" t="n">
-        <v>1556.95311213427</v>
+        <v>4431.79129124998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3264,36 +3359,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5275</v>
+        <v>5270</v>
       </c>
       <c r="C83" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="D83" t="n">
-        <v>5290</v>
+        <v>5270</v>
       </c>
       <c r="E83" t="n">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="F83" t="n">
-        <v>11.4718</v>
+        <v>209.7811</v>
       </c>
       <c r="G83" t="n">
-        <v>1568.42491213427</v>
+        <v>4222.010191249979</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,14 +3395,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3320,19 +3409,19 @@
         <v>5280</v>
       </c>
       <c r="C84" t="n">
-        <v>5280</v>
+        <v>5265</v>
       </c>
       <c r="D84" t="n">
         <v>5280</v>
       </c>
       <c r="E84" t="n">
-        <v>5280</v>
+        <v>5265</v>
       </c>
       <c r="F84" t="n">
-        <v>500.745</v>
+        <v>487.9947</v>
       </c>
       <c r="G84" t="n">
-        <v>1568.42491213427</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3341,39 +3430,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5310</v>
+        <v>5260</v>
       </c>
       <c r="C85" t="n">
-        <v>5315</v>
+        <v>5265</v>
       </c>
       <c r="D85" t="n">
-        <v>5315</v>
+        <v>5265</v>
       </c>
       <c r="E85" t="n">
-        <v>5310</v>
+        <v>5260</v>
       </c>
       <c r="F85" t="n">
-        <v>1882.18907911571</v>
+        <v>15.1722</v>
       </c>
       <c r="G85" t="n">
-        <v>3450.613991249979</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3382,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5280</v>
+        <v>5265</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
@@ -3393,28 +3483,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C86" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D86" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="E86" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="F86" t="n">
-        <v>180.1813</v>
+        <v>199.0874</v>
       </c>
       <c r="G86" t="n">
-        <v>3270.432691249979</v>
+        <v>3534.928091249979</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3423,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5315</v>
+        <v>5265</v>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
@@ -3434,28 +3525,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="C87" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="D87" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="E87" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="F87" t="n">
-        <v>30.6903</v>
+        <v>56.529</v>
       </c>
       <c r="G87" t="n">
-        <v>3270.432691249979</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3464,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
@@ -3475,36 +3567,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5305</v>
+        <v>5250</v>
       </c>
       <c r="C88" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="D88" t="n">
-        <v>5305</v>
+        <v>5250</v>
       </c>
       <c r="E88" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="F88" t="n">
-        <v>192.4875</v>
+        <v>102.6487</v>
       </c>
       <c r="G88" t="n">
-        <v>3270.432691249979</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5245</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3514,36 +3609,39 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="C89" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D89" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E89" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="F89" t="n">
-        <v>47.0592</v>
+        <v>26.0778</v>
       </c>
       <c r="G89" t="n">
-        <v>3270.432691249979</v>
+        <v>3504.476891249979</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5245</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3553,36 +3651,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C90" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D90" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="E90" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="F90" t="n">
-        <v>7.3327</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>3270.432691249979</v>
+        <v>3604.476891249979</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5255</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3592,36 +3693,39 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="C91" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="D91" t="n">
-        <v>5300</v>
+        <v>5265</v>
       </c>
       <c r="E91" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="F91" t="n">
-        <v>49.4175</v>
+        <v>2339.742</v>
       </c>
       <c r="G91" t="n">
-        <v>3270.432691249979</v>
+        <v>1264.734891249979</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5260</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3631,36 +3735,39 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="C92" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="D92" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="E92" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="F92" t="n">
-        <v>377.2879</v>
+        <v>3686.428</v>
       </c>
       <c r="G92" t="n">
-        <v>3270.432691249979</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5245</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3670,28 +3777,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="C93" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="D93" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="E93" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="F93" t="n">
-        <v>194.5457</v>
+        <v>49.5292</v>
       </c>
       <c r="G93" t="n">
-        <v>3270.432691249979</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3709,36 +3817,39 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="C94" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="D94" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="E94" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="F94" t="n">
-        <v>4.9</v>
+        <v>110.1057</v>
       </c>
       <c r="G94" t="n">
-        <v>3270.432691249979</v>
+        <v>4951.162891249979</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5250</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3748,36 +3859,39 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="C95" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D95" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E95" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="F95" t="n">
-        <v>188.6342</v>
+        <v>304.9293</v>
       </c>
       <c r="G95" t="n">
-        <v>3270.432691249979</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5250</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3787,36 +3901,39 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="C96" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D96" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E96" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="F96" t="n">
-        <v>378.4325</v>
+        <v>309.61</v>
       </c>
       <c r="G96" t="n">
-        <v>3270.432691249979</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5255</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3826,28 +3943,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5305</v>
+        <v>5255</v>
       </c>
       <c r="C97" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D97" t="n">
-        <v>5305</v>
+        <v>5255</v>
       </c>
       <c r="E97" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="F97" t="n">
-        <v>171.8355</v>
+        <v>73.0086</v>
       </c>
       <c r="G97" t="n">
-        <v>3270.432691249979</v>
+        <v>5256.092191249979</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3865,28 +3983,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C98" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="D98" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="E98" t="n">
-        <v>5300</v>
+        <v>5245</v>
       </c>
       <c r="F98" t="n">
-        <v>185.342</v>
+        <v>921.3878999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>3270.432691249979</v>
+        <v>4334.704291249979</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3904,28 +4023,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5300</v>
+        <v>5240</v>
       </c>
       <c r="C99" t="n">
-        <v>5300</v>
+        <v>5240</v>
       </c>
       <c r="D99" t="n">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="E99" t="n">
-        <v>5300</v>
+        <v>5240</v>
       </c>
       <c r="F99" t="n">
-        <v>63.064</v>
+        <v>110.1</v>
       </c>
       <c r="G99" t="n">
-        <v>3270.432691249979</v>
+        <v>4224.604291249979</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3943,28 +4063,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5300</v>
+        <v>5230</v>
       </c>
       <c r="C100" t="n">
-        <v>5300</v>
+        <v>5225</v>
       </c>
       <c r="D100" t="n">
-        <v>5300</v>
+        <v>5230</v>
       </c>
       <c r="E100" t="n">
-        <v>5300</v>
+        <v>5225</v>
       </c>
       <c r="F100" t="n">
-        <v>259.3457</v>
+        <v>5.0744</v>
       </c>
       <c r="G100" t="n">
-        <v>3270.432691249979</v>
+        <v>4219.529891249978</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3982,28 +4103,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5305</v>
+        <v>5245</v>
       </c>
       <c r="C101" t="n">
-        <v>5305</v>
+        <v>5245</v>
       </c>
       <c r="D101" t="n">
-        <v>5305</v>
+        <v>5245</v>
       </c>
       <c r="E101" t="n">
-        <v>5305</v>
+        <v>5245</v>
       </c>
       <c r="F101" t="n">
-        <v>9.4252</v>
+        <v>198.4556</v>
       </c>
       <c r="G101" t="n">
-        <v>3279.857891249979</v>
+        <v>4417.985491249979</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4021,28 +4143,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5290</v>
+        <v>5230</v>
       </c>
       <c r="C102" t="n">
-        <v>5290</v>
+        <v>5230</v>
       </c>
       <c r="D102" t="n">
-        <v>5290</v>
+        <v>5230</v>
       </c>
       <c r="E102" t="n">
-        <v>5290</v>
+        <v>5230</v>
       </c>
       <c r="F102" t="n">
-        <v>225.007</v>
+        <v>35.1716</v>
       </c>
       <c r="G102" t="n">
-        <v>3054.850891249979</v>
+        <v>4382.813891249979</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4060,28 +4183,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="C103" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="D103" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="E103" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="F103" t="n">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="G103" t="n">
-        <v>3045.350891249979</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4099,36 +4223,39 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5285</v>
+        <v>5245</v>
       </c>
       <c r="C104" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="D104" t="n">
-        <v>5285</v>
+        <v>5245</v>
       </c>
       <c r="E104" t="n">
-        <v>5280</v>
+        <v>5240</v>
       </c>
       <c r="F104" t="n">
-        <v>563.067</v>
+        <v>17.4</v>
       </c>
       <c r="G104" t="n">
-        <v>3045.350891249979</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5240</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4138,28 +4265,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="C105" t="n">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="D105" t="n">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="E105" t="n">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="F105" t="n">
-        <v>79.8663</v>
+        <v>6.0845</v>
       </c>
       <c r="G105" t="n">
-        <v>3125.217191249979</v>
+        <v>4400.313891249979</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4177,28 +4305,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5290</v>
+        <v>5240</v>
       </c>
       <c r="C106" t="n">
-        <v>5305</v>
+        <v>5235</v>
       </c>
       <c r="D106" t="n">
-        <v>5305</v>
+        <v>5240</v>
       </c>
       <c r="E106" t="n">
-        <v>5290</v>
+        <v>5235</v>
       </c>
       <c r="F106" t="n">
-        <v>1282.0678</v>
+        <v>184.867</v>
       </c>
       <c r="G106" t="n">
-        <v>4407.28499124998</v>
+        <v>4215.446891249979</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4216,28 +4345,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="C107" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D107" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E107" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="F107" t="n">
-        <v>8.0458</v>
+        <v>0.4228353948620361</v>
       </c>
       <c r="G107" t="n">
-        <v>4399.23919124998</v>
+        <v>4215.869726644841</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4255,28 +4385,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5295</v>
+        <v>5250</v>
       </c>
       <c r="C108" t="n">
-        <v>5295</v>
+        <v>5250</v>
       </c>
       <c r="D108" t="n">
-        <v>5295</v>
+        <v>5250</v>
       </c>
       <c r="E108" t="n">
-        <v>5295</v>
+        <v>5250</v>
       </c>
       <c r="F108" t="n">
-        <v>5.9817</v>
+        <v>2.4028</v>
       </c>
       <c r="G108" t="n">
-        <v>4393.257491249979</v>
+        <v>4213.466926644841</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4294,28 +4425,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="C109" t="n">
-        <v>5295</v>
+        <v>5260</v>
       </c>
       <c r="D109" t="n">
-        <v>5295</v>
+        <v>5260</v>
       </c>
       <c r="E109" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="F109" t="n">
-        <v>21.5183</v>
+        <v>610.904</v>
       </c>
       <c r="G109" t="n">
-        <v>4393.257491249979</v>
+        <v>4824.37092664484</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4333,28 +4465,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="C110" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="D110" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="E110" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="F110" t="n">
-        <v>47.2379</v>
+        <v>42.2912</v>
       </c>
       <c r="G110" t="n">
-        <v>4393.257491249979</v>
+        <v>4866.66212664484</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4372,28 +4505,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5295</v>
+        <v>5265</v>
       </c>
       <c r="C111" t="n">
-        <v>5295</v>
+        <v>5245</v>
       </c>
       <c r="D111" t="n">
-        <v>5295</v>
+        <v>5265</v>
       </c>
       <c r="E111" t="n">
-        <v>5295</v>
+        <v>5245</v>
       </c>
       <c r="F111" t="n">
-        <v>73.8373</v>
+        <v>990.7965</v>
       </c>
       <c r="G111" t="n">
-        <v>4393.257491249979</v>
+        <v>3875.86562664484</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4411,28 +4545,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="C112" t="n">
-        <v>5290</v>
+        <v>5260</v>
       </c>
       <c r="D112" t="n">
-        <v>5290</v>
+        <v>5260</v>
       </c>
       <c r="E112" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="F112" t="n">
-        <v>18.9166</v>
+        <v>42.62</v>
       </c>
       <c r="G112" t="n">
-        <v>4374.34089124998</v>
+        <v>3918.48562664484</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4450,28 +4585,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="C113" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="D113" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="E113" t="n">
-        <v>5290</v>
+        <v>5255</v>
       </c>
       <c r="F113" t="n">
-        <v>19.7916</v>
+        <v>83.2298</v>
       </c>
       <c r="G113" t="n">
-        <v>4374.34089124998</v>
+        <v>3835.25582664484</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4489,28 +4625,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5290</v>
+        <v>5245</v>
       </c>
       <c r="C114" t="n">
-        <v>5290</v>
+        <v>5245</v>
       </c>
       <c r="D114" t="n">
-        <v>5290</v>
+        <v>5245</v>
       </c>
       <c r="E114" t="n">
-        <v>5290</v>
+        <v>5245</v>
       </c>
       <c r="F114" t="n">
-        <v>82.5581</v>
+        <v>3.0981</v>
       </c>
       <c r="G114" t="n">
-        <v>4374.34089124998</v>
+        <v>3832.15772664484</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4528,28 +4665,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="C115" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="D115" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="E115" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="F115" t="n">
-        <v>96.17570000000001</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>4470.51659124998</v>
+        <v>3837.15772664484</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4567,28 +4705,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="C116" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="D116" t="n">
-        <v>5300</v>
+        <v>5255</v>
       </c>
       <c r="E116" t="n">
-        <v>5295</v>
+        <v>5255</v>
       </c>
       <c r="F116" t="n">
-        <v>21.2747</v>
+        <v>64.3164</v>
       </c>
       <c r="G116" t="n">
-        <v>4491.79129124998</v>
+        <v>3837.15772664484</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4606,28 +4745,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5290</v>
+        <v>5275</v>
       </c>
       <c r="C117" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D117" t="n">
-        <v>5300</v>
+        <v>5275</v>
       </c>
       <c r="E117" t="n">
-        <v>5290</v>
+        <v>5260</v>
       </c>
       <c r="F117" t="n">
-        <v>399.889</v>
+        <v>177.8654</v>
       </c>
       <c r="G117" t="n">
-        <v>4491.79129124998</v>
+        <v>4015.02312664484</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4645,28 +4785,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5300</v>
+        <v>5275</v>
       </c>
       <c r="C118" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="D118" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="E118" t="n">
-        <v>5300</v>
+        <v>5275</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5594</v>
+        <v>400</v>
       </c>
       <c r="G118" t="n">
-        <v>4491.79129124998</v>
+        <v>4415.02312664484</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4684,28 +4825,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="C119" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="D119" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="E119" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="F119" t="n">
-        <v>223.1082</v>
+        <v>8.4968</v>
       </c>
       <c r="G119" t="n">
-        <v>4491.79129124998</v>
+        <v>4406.52632664484</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4723,28 +4865,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="C120" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="D120" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="E120" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="F120" t="n">
-        <v>144.9703</v>
+        <v>1.5032</v>
       </c>
       <c r="G120" t="n">
-        <v>4491.79129124998</v>
+        <v>4406.52632664484</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4762,28 +4905,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C121" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D121" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="E121" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="F121" t="n">
-        <v>141.4708</v>
+        <v>3.72</v>
       </c>
       <c r="G121" t="n">
-        <v>4491.79129124998</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4801,28 +4945,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="C122" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="D122" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="E122" t="n">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="F122" t="n">
-        <v>95.408</v>
+        <v>59.293</v>
       </c>
       <c r="G122" t="n">
-        <v>4491.79129124998</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4840,28 +4985,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="C123" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="D123" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="E123" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="F123" t="n">
-        <v>25.4828</v>
+        <v>104.8539</v>
       </c>
       <c r="G123" t="n">
-        <v>4466.30849124998</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4879,28 +5025,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="C124" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="D124" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="E124" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="F124" t="n">
-        <v>34.5172</v>
+        <v>28.01</v>
       </c>
       <c r="G124" t="n">
-        <v>4431.79129124998</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4918,28 +5065,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="C125" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="D125" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="E125" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F125" t="n">
-        <v>209.7811</v>
+        <v>5.486</v>
       </c>
       <c r="G125" t="n">
-        <v>4222.010191249979</v>
+        <v>4402.80632664484</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4957,28 +5105,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="C126" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D126" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="E126" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F126" t="n">
-        <v>487.9947</v>
+        <v>4.8729</v>
       </c>
       <c r="G126" t="n">
-        <v>3734.015491249979</v>
+        <v>4397.93342664484</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4996,28 +5145,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C127" t="n">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="D127" t="n">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="E127" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F127" t="n">
-        <v>15.1722</v>
+        <v>18.7761</v>
       </c>
       <c r="G127" t="n">
-        <v>3734.015491249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5035,28 +5185,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C128" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D128" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E128" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F128" t="n">
-        <v>199.0874</v>
+        <v>62.6175</v>
       </c>
       <c r="G128" t="n">
-        <v>3534.928091249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5074,28 +5225,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="C129" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="D129" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="E129" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="F129" t="n">
-        <v>56.529</v>
+        <v>3.14</v>
       </c>
       <c r="G129" t="n">
-        <v>3478.399091249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5113,6 +5265,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5122,29 +5275,27 @@
         <v>5250</v>
       </c>
       <c r="C130" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="D130" t="n">
         <v>5250</v>
       </c>
       <c r="E130" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="F130" t="n">
-        <v>102.6487</v>
+        <v>6.3617</v>
       </c>
       <c r="G130" t="n">
-        <v>3478.399091249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5245</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5154,38 +5305,37 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C131" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D131" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E131" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F131" t="n">
-        <v>26.0778</v>
+        <v>7.58</v>
       </c>
       <c r="G131" t="n">
-        <v>3504.476891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5245</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5195,38 +5345,37 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C132" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D132" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E132" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F132" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G132" t="n">
-        <v>3604.476891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>5255</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5236,6 +5385,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5245,19 +5395,19 @@
         <v>5250</v>
       </c>
       <c r="C133" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="D133" t="n">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="E133" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="F133" t="n">
-        <v>2339.742</v>
+        <v>50.1274</v>
       </c>
       <c r="G133" t="n">
-        <v>1264.734891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5275,6 +5425,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5287,16 +5438,16 @@
         <v>5250</v>
       </c>
       <c r="D134" t="n">
-        <v>5270</v>
+        <v>5250</v>
       </c>
       <c r="E134" t="n">
         <v>5250</v>
       </c>
       <c r="F134" t="n">
-        <v>3686.428</v>
+        <v>13.6228</v>
       </c>
       <c r="G134" t="n">
-        <v>4951.162891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5314,6 +5465,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5332,10 +5484,10 @@
         <v>5250</v>
       </c>
       <c r="F135" t="n">
-        <v>49.5292</v>
+        <v>159.6481</v>
       </c>
       <c r="G135" t="n">
-        <v>4951.162891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5353,6 +5505,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5371,10 +5524,10 @@
         <v>5250</v>
       </c>
       <c r="F136" t="n">
-        <v>110.1057</v>
+        <v>89.55719999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>4951.162891249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5392,28 +5545,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C137" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D137" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E137" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F137" t="n">
-        <v>304.9293</v>
+        <v>20.0574</v>
       </c>
       <c r="G137" t="n">
-        <v>5256.092191249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5431,36 +5585,39 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C138" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D138" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E138" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F138" t="n">
-        <v>309.61</v>
+        <v>75.51179999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>5256.092191249979</v>
+        <v>4379.157326644839</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5250</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5470,28 +5627,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="C139" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D139" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E139" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F139" t="n">
-        <v>73.0086</v>
+        <v>38.0237</v>
       </c>
       <c r="G139" t="n">
-        <v>5256.092191249979</v>
+        <v>4417.181026644839</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5509,36 +5667,39 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="C140" t="n">
         <v>5245</v>
       </c>
       <c r="D140" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="E140" t="n">
         <v>5245</v>
       </c>
       <c r="F140" t="n">
-        <v>921.3878999999999</v>
+        <v>42.0403</v>
       </c>
       <c r="G140" t="n">
-        <v>4334.704291249979</v>
+        <v>4375.14072664484</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5260</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5548,28 +5709,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="C141" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="D141" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E141" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="F141" t="n">
-        <v>110.1</v>
+        <v>124.9625</v>
       </c>
       <c r="G141" t="n">
-        <v>4224.604291249979</v>
+        <v>4500.103226644839</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5587,28 +5749,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5230</v>
+        <v>5265</v>
       </c>
       <c r="C142" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="D142" t="n">
-        <v>5230</v>
+        <v>5265</v>
       </c>
       <c r="E142" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="F142" t="n">
-        <v>5.0744</v>
+        <v>81.7838</v>
       </c>
       <c r="G142" t="n">
-        <v>4219.529891249978</v>
+        <v>4581.887026644839</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5626,28 +5789,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C143" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="D143" t="n">
-        <v>5245</v>
+        <v>5265</v>
       </c>
       <c r="E143" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F143" t="n">
-        <v>198.4556</v>
+        <v>464.8278</v>
       </c>
       <c r="G143" t="n">
-        <v>4417.985491249979</v>
+        <v>4581.887026644839</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5665,28 +5829,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5230</v>
+        <v>5265</v>
       </c>
       <c r="C144" t="n">
-        <v>5230</v>
+        <v>5270</v>
       </c>
       <c r="D144" t="n">
-        <v>5230</v>
+        <v>5270</v>
       </c>
       <c r="E144" t="n">
-        <v>5230</v>
+        <v>5265</v>
       </c>
       <c r="F144" t="n">
-        <v>35.1716</v>
+        <v>131.0944</v>
       </c>
       <c r="G144" t="n">
-        <v>4382.813891249979</v>
+        <v>4712.981426644839</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5704,28 +5869,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5240</v>
+        <v>5275</v>
       </c>
       <c r="C145" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="D145" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="E145" t="n">
-        <v>5240</v>
+        <v>5275</v>
       </c>
       <c r="F145" t="n">
-        <v>17.5</v>
+        <v>195.8567</v>
       </c>
       <c r="G145" t="n">
-        <v>4400.313891249979</v>
+        <v>4908.83812664484</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5743,28 +5909,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5245</v>
+        <v>5285</v>
       </c>
       <c r="C146" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="D146" t="n">
-        <v>5245</v>
+        <v>5285</v>
       </c>
       <c r="E146" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="F146" t="n">
-        <v>17.4</v>
+        <v>0.9442</v>
       </c>
       <c r="G146" t="n">
-        <v>4400.313891249979</v>
+        <v>4907.89392664484</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5782,28 +5949,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="C147" t="n">
-        <v>5240</v>
+        <v>5320</v>
       </c>
       <c r="D147" t="n">
-        <v>5240</v>
+        <v>5320</v>
       </c>
       <c r="E147" t="n">
-        <v>5240</v>
+        <v>5300</v>
       </c>
       <c r="F147" t="n">
-        <v>6.0845</v>
+        <v>98.0565</v>
       </c>
       <c r="G147" t="n">
-        <v>4400.313891249979</v>
+        <v>5005.950426644839</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5821,28 +5989,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5240</v>
+        <v>5305</v>
       </c>
       <c r="C148" t="n">
-        <v>5235</v>
+        <v>5305</v>
       </c>
       <c r="D148" t="n">
-        <v>5240</v>
+        <v>5305</v>
       </c>
       <c r="E148" t="n">
-        <v>5235</v>
+        <v>5305</v>
       </c>
       <c r="F148" t="n">
-        <v>184.867</v>
+        <v>138.2</v>
       </c>
       <c r="G148" t="n">
-        <v>4215.446891249979</v>
+        <v>4867.75042664484</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5860,28 +6029,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5255</v>
+        <v>5285</v>
       </c>
       <c r="C149" t="n">
-        <v>5255</v>
+        <v>5285</v>
       </c>
       <c r="D149" t="n">
-        <v>5255</v>
+        <v>5285</v>
       </c>
       <c r="E149" t="n">
-        <v>5255</v>
+        <v>5285</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4228353948620361</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>4215.869726644841</v>
+        <v>4769.150426644839</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5899,28 +6069,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="C150" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="D150" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="E150" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="F150" t="n">
-        <v>2.4028</v>
+        <v>159.7739</v>
       </c>
       <c r="G150" t="n">
-        <v>4213.466926644841</v>
+        <v>4769.150426644839</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5938,28 +6109,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="C151" t="n">
-        <v>5260</v>
+        <v>5305</v>
       </c>
       <c r="D151" t="n">
-        <v>5260</v>
+        <v>5305</v>
       </c>
       <c r="E151" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="F151" t="n">
-        <v>610.904</v>
+        <v>100.637</v>
       </c>
       <c r="G151" t="n">
-        <v>4824.37092664484</v>
+        <v>4869.787426644839</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5977,28 +6149,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="C152" t="n">
-        <v>5270</v>
+        <v>5310</v>
       </c>
       <c r="D152" t="n">
-        <v>5270</v>
+        <v>5310</v>
       </c>
       <c r="E152" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="F152" t="n">
-        <v>42.2912</v>
+        <v>1320.2635</v>
       </c>
       <c r="G152" t="n">
-        <v>4866.66212664484</v>
+        <v>6190.050926644839</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6016,28 +6189,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5265</v>
+        <v>5315</v>
       </c>
       <c r="C153" t="n">
-        <v>5245</v>
+        <v>5345</v>
       </c>
       <c r="D153" t="n">
-        <v>5265</v>
+        <v>5345</v>
       </c>
       <c r="E153" t="n">
-        <v>5245</v>
+        <v>5315</v>
       </c>
       <c r="F153" t="n">
-        <v>990.7965</v>
+        <v>417.5425</v>
       </c>
       <c r="G153" t="n">
-        <v>3875.86562664484</v>
+        <v>6607.593426644838</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6055,28 +6229,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5255</v>
+        <v>5345</v>
       </c>
       <c r="C154" t="n">
-        <v>5260</v>
+        <v>5350</v>
       </c>
       <c r="D154" t="n">
-        <v>5260</v>
+        <v>5350</v>
       </c>
       <c r="E154" t="n">
-        <v>5255</v>
+        <v>5345</v>
       </c>
       <c r="F154" t="n">
-        <v>42.62</v>
+        <v>49.667</v>
       </c>
       <c r="G154" t="n">
-        <v>3918.48562664484</v>
+        <v>6657.260426644839</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6094,28 +6269,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5255</v>
+        <v>5350</v>
       </c>
       <c r="C155" t="n">
-        <v>5255</v>
+        <v>5340</v>
       </c>
       <c r="D155" t="n">
-        <v>5255</v>
+        <v>5350</v>
       </c>
       <c r="E155" t="n">
-        <v>5255</v>
+        <v>5340</v>
       </c>
       <c r="F155" t="n">
-        <v>83.2298</v>
+        <v>375.084</v>
       </c>
       <c r="G155" t="n">
-        <v>3835.25582664484</v>
+        <v>6282.176426644839</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6133,28 +6309,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="C156" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="D156" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="E156" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="F156" t="n">
-        <v>3.0981</v>
+        <v>590.9604</v>
       </c>
       <c r="G156" t="n">
-        <v>3832.15772664484</v>
+        <v>6282.176426644839</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6172,28 +6349,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5255</v>
+        <v>5330</v>
       </c>
       <c r="C157" t="n">
-        <v>5255</v>
+        <v>5345</v>
       </c>
       <c r="D157" t="n">
-        <v>5255</v>
+        <v>5345</v>
       </c>
       <c r="E157" t="n">
-        <v>5255</v>
+        <v>5330</v>
       </c>
       <c r="F157" t="n">
-        <v>5</v>
+        <v>140.7102</v>
       </c>
       <c r="G157" t="n">
-        <v>3837.15772664484</v>
+        <v>6422.886626644839</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6211,28 +6389,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="C158" t="n">
-        <v>5255</v>
+        <v>5360</v>
       </c>
       <c r="D158" t="n">
-        <v>5255</v>
+        <v>5360</v>
       </c>
       <c r="E158" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="F158" t="n">
-        <v>64.3164</v>
+        <v>297.5</v>
       </c>
       <c r="G158" t="n">
-        <v>3837.15772664484</v>
+        <v>6720.386626644839</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6250,28 +6429,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5275</v>
+        <v>5370</v>
       </c>
       <c r="C159" t="n">
-        <v>5260</v>
+        <v>5370</v>
       </c>
       <c r="D159" t="n">
-        <v>5275</v>
+        <v>5370</v>
       </c>
       <c r="E159" t="n">
-        <v>5260</v>
+        <v>5370</v>
       </c>
       <c r="F159" t="n">
-        <v>177.8654</v>
+        <v>18.6402</v>
       </c>
       <c r="G159" t="n">
-        <v>4015.02312664484</v>
+        <v>6739.026826644838</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6289,1626 +6469,7 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C160" t="n">
-        <v>5280</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5280</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F160" t="n">
-        <v>400</v>
-      </c>
-      <c r="G160" t="n">
-        <v>4415.02312664484</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5270</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8.4968</v>
-      </c>
-      <c r="G161" t="n">
-        <v>4406.52632664484</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5270</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1.5032</v>
-      </c>
-      <c r="G162" t="n">
-        <v>4406.52632664484</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="G163" t="n">
-        <v>4402.80632664484</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F164" t="n">
-        <v>59.293</v>
-      </c>
-      <c r="G164" t="n">
-        <v>4402.80632664484</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F165" t="n">
-        <v>104.8539</v>
-      </c>
-      <c r="G165" t="n">
-        <v>4402.80632664484</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F166" t="n">
-        <v>28.01</v>
-      </c>
-      <c r="G166" t="n">
-        <v>4402.80632664484</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D167" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F167" t="n">
-        <v>5.486</v>
-      </c>
-      <c r="G167" t="n">
-        <v>4402.80632664484</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C168" t="n">
-        <v>5255</v>
-      </c>
-      <c r="D168" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5255</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4.8729</v>
-      </c>
-      <c r="G168" t="n">
-        <v>4397.93342664484</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F169" t="n">
-        <v>18.7761</v>
-      </c>
-      <c r="G169" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D170" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F170" t="n">
-        <v>62.6175</v>
-      </c>
-      <c r="G170" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G171" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6.3617</v>
-      </c>
-      <c r="G172" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F174" t="n">
-        <v>103</v>
-      </c>
-      <c r="G174" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F175" t="n">
-        <v>50.1274</v>
-      </c>
-      <c r="G175" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F176" t="n">
-        <v>13.6228</v>
-      </c>
-      <c r="G176" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F177" t="n">
-        <v>159.6481</v>
-      </c>
-      <c r="G177" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F178" t="n">
-        <v>89.55719999999999</v>
-      </c>
-      <c r="G178" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F179" t="n">
-        <v>20.0574</v>
-      </c>
-      <c r="G179" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F180" t="n">
-        <v>75.51179999999999</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4379.157326644839</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F181" t="n">
-        <v>38.0237</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4417.181026644839</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5245</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5245</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5245</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5245</v>
-      </c>
-      <c r="F182" t="n">
-        <v>42.0403</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4375.14072664484</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F183" t="n">
-        <v>124.9625</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4500.103226644839</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5265</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5265</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5265</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5265</v>
-      </c>
-      <c r="F184" t="n">
-        <v>81.7838</v>
-      </c>
-      <c r="G184" t="n">
-        <v>4581.887026644839</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5265</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5265</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F185" t="n">
-        <v>464.8278</v>
-      </c>
-      <c r="G185" t="n">
-        <v>4581.887026644839</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5265</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5270</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5265</v>
-      </c>
-      <c r="F186" t="n">
-        <v>131.0944</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4712.981426644839</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5300</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5300</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F187" t="n">
-        <v>195.8567</v>
-      </c>
-      <c r="G187" t="n">
-        <v>4908.83812664484</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.9442</v>
-      </c>
-      <c r="G188" t="n">
-        <v>4907.89392664484</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5320</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5320</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5300</v>
-      </c>
-      <c r="F189" t="n">
-        <v>98.0565</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5005.950426644839</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5305</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5305</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5305</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5305</v>
-      </c>
-      <c r="F190" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4867.75042664484</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F191" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4769.150426644839</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F192" t="n">
-        <v>159.7739</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4769.150426644839</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5305</v>
-      </c>
-      <c r="C193" t="n">
-        <v>5305</v>
-      </c>
-      <c r="D193" t="n">
-        <v>5305</v>
-      </c>
-      <c r="E193" t="n">
-        <v>5305</v>
-      </c>
-      <c r="F193" t="n">
-        <v>100.637</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4869.787426644839</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5310</v>
-      </c>
-      <c r="D194" t="n">
-        <v>5310</v>
-      </c>
-      <c r="E194" t="n">
-        <v>5280</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1320.2635</v>
-      </c>
-      <c r="G194" t="n">
-        <v>6190.050926644839</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5315</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D195" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E195" t="n">
-        <v>5315</v>
-      </c>
-      <c r="F195" t="n">
-        <v>417.5425</v>
-      </c>
-      <c r="G195" t="n">
-        <v>6607.593426644838</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5345</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5350</v>
-      </c>
-      <c r="D196" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E196" t="n">
-        <v>5345</v>
-      </c>
-      <c r="F196" t="n">
-        <v>49.667</v>
-      </c>
-      <c r="G196" t="n">
-        <v>6657.260426644839</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5350</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D197" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E197" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F197" t="n">
-        <v>375.084</v>
-      </c>
-      <c r="G197" t="n">
-        <v>6282.176426644839</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5340</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D198" t="n">
-        <v>5340</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F198" t="n">
-        <v>590.9604</v>
-      </c>
-      <c r="G198" t="n">
-        <v>6282.176426644839</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D199" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E199" t="n">
-        <v>5330</v>
-      </c>
-      <c r="F199" t="n">
-        <v>140.7102</v>
-      </c>
-      <c r="G199" t="n">
-        <v>6422.886626644839</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5355</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5360</v>
-      </c>
-      <c r="D200" t="n">
-        <v>5360</v>
-      </c>
-      <c r="E200" t="n">
-        <v>5355</v>
-      </c>
-      <c r="F200" t="n">
-        <v>297.5</v>
-      </c>
-      <c r="G200" t="n">
-        <v>6720.386626644839</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5370</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5370</v>
-      </c>
-      <c r="D201" t="n">
-        <v>5370</v>
-      </c>
-      <c r="E201" t="n">
-        <v>5370</v>
-      </c>
-      <c r="F201" t="n">
-        <v>18.6402</v>
-      </c>
-      <c r="G201" t="n">
-        <v>6739.026826644838</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
         <v>5300</v>
       </c>
       <c r="C2" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D2" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="E2" t="n">
         <v>5300</v>
       </c>
       <c r="F2" t="n">
-        <v>35.5273</v>
+        <v>31.3283</v>
       </c>
       <c r="G2" t="n">
-        <v>4043.999578051873</v>
+        <v>2169.687396958175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>5300</v>
       </c>
       <c r="C3" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D3" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E3" t="n">
         <v>5300</v>
       </c>
       <c r="F3" t="n">
-        <v>10.7218</v>
+        <v>10.3692</v>
       </c>
       <c r="G3" t="n">
-        <v>4054.721378051873</v>
+        <v>2159.318196958175</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="C4" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="D4" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E4" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="F4" t="n">
-        <v>63.8609</v>
+        <v>37.74</v>
       </c>
       <c r="G4" t="n">
-        <v>4054.721378051873</v>
+        <v>2197.058196958174</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5300</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -549,29 +553,37 @@
         <v>5305</v>
       </c>
       <c r="C5" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="D5" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E5" t="n">
-        <v>5305</v>
+        <v>5285</v>
       </c>
       <c r="F5" t="n">
-        <v>47.1654</v>
+        <v>2238.8485</v>
       </c>
       <c r="G5" t="n">
-        <v>4054.721378051873</v>
+        <v>2197.058196958174</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5310</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="C6" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="D6" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E6" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="F6" t="n">
-        <v>4.3292</v>
+        <v>221.5706</v>
       </c>
       <c r="G6" t="n">
-        <v>4054.721378051873</v>
+        <v>2197.058196958174</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +618,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="C7" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="D7" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E7" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="F7" t="n">
-        <v>92.01300000000001</v>
+        <v>93.39570000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4054.721378051873</v>
+        <v>2197.058196958174</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +660,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="C8" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D8" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E8" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7693</v>
+        <v>391.3434</v>
       </c>
       <c r="G8" t="n">
-        <v>4054.721378051873</v>
+        <v>2588.401596958174</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +702,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="C9" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="D9" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="E9" t="n">
-        <v>5305</v>
+        <v>5325</v>
       </c>
       <c r="F9" t="n">
-        <v>15.4963</v>
+        <v>131.0607</v>
       </c>
       <c r="G9" t="n">
-        <v>4054.721378051873</v>
+        <v>2719.462296958174</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +744,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C10" t="n">
-        <v>5310</v>
+        <v>5330</v>
       </c>
       <c r="D10" t="n">
-        <v>5310</v>
+        <v>5330</v>
       </c>
       <c r="E10" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="F10" t="n">
-        <v>231.0613</v>
+        <v>50.2903</v>
       </c>
       <c r="G10" t="n">
-        <v>4285.782678051874</v>
+        <v>2769.752596958174</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +786,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +804,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="C11" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="D11" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="E11" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="F11" t="n">
-        <v>49.3214</v>
+        <v>8.1724</v>
       </c>
       <c r="G11" t="n">
-        <v>4285.782678051874</v>
+        <v>2777.924996958174</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +828,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +846,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="C12" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="D12" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="E12" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3279</v>
+        <v>24.9595</v>
       </c>
       <c r="G12" t="n">
-        <v>4286.110578051874</v>
+        <v>2777.924996958174</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +870,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +888,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="C13" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="D13" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="E13" t="n">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="F13" t="n">
-        <v>235.4612</v>
+        <v>2.0607</v>
       </c>
       <c r="G13" t="n">
-        <v>4521.571778051873</v>
+        <v>2777.924996958174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +912,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="C14" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="D14" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="E14" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="F14" t="n">
-        <v>61.034765917603</v>
+        <v>2.2493</v>
       </c>
       <c r="G14" t="n">
-        <v>4460.53701213427</v>
+        <v>2777.924996958174</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +954,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="C15" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="D15" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="E15" t="n">
-        <v>5340</v>
+        <v>5335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1127</v>
+        <v>0.1183</v>
       </c>
       <c r="G15" t="n">
-        <v>4460.64971213427</v>
+        <v>2777.924996958174</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1014,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="C16" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="D16" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="E16" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="F16" t="n">
-        <v>52.434</v>
+        <v>0.4817</v>
       </c>
       <c r="G16" t="n">
-        <v>4513.08371213427</v>
+        <v>2778.406696958174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1038,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1056,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="C17" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="D17" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="E17" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="F17" t="n">
-        <v>80.04259999999999</v>
+        <v>22.4267</v>
       </c>
       <c r="G17" t="n">
-        <v>4593.12631213427</v>
+        <v>2800.833396958174</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1098,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="C18" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="D18" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="E18" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="F18" t="n">
-        <v>62.8712</v>
+        <v>201.17</v>
       </c>
       <c r="G18" t="n">
-        <v>4530.25511213427</v>
+        <v>2599.663396958174</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1140,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="C19" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="D19" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="E19" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>60.876</v>
       </c>
       <c r="G19" t="n">
-        <v>4530.25511213427</v>
+        <v>2538.787396958174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1182,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="C20" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="D20" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="E20" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="F20" t="n">
-        <v>14.285</v>
+        <v>299.4411</v>
       </c>
       <c r="G20" t="n">
-        <v>4515.97011213427</v>
+        <v>2838.228496958174</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1224,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="C21" t="n">
-        <v>5340</v>
+        <v>5365</v>
       </c>
       <c r="D21" t="n">
-        <v>5340</v>
+        <v>5365</v>
       </c>
       <c r="E21" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F21" t="n">
-        <v>9.665800000000001</v>
+        <v>179.065</v>
       </c>
       <c r="G21" t="n">
-        <v>4515.97011213427</v>
+        <v>3017.293496958174</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1266,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5340</v>
+        <v>5365</v>
       </c>
       <c r="C22" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="D22" t="n">
-        <v>5340</v>
+        <v>5365</v>
       </c>
       <c r="E22" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F22" t="n">
-        <v>25.6999</v>
+        <v>169.2977</v>
       </c>
       <c r="G22" t="n">
-        <v>4515.97011213427</v>
+        <v>2847.995796958174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,10 +1290,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>1.005377358490566</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1194,22 +1308,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="C23" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="D23" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="E23" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F23" t="n">
-        <v>119.331</v>
+        <v>332.6992</v>
       </c>
       <c r="G23" t="n">
-        <v>4515.97011213427</v>
+        <v>2847.995796958174</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1344,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="C24" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="D24" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="E24" t="n">
-        <v>5315</v>
+        <v>5350</v>
       </c>
       <c r="F24" t="n">
-        <v>10.02</v>
+        <v>67</v>
       </c>
       <c r="G24" t="n">
-        <v>4505.95011213427</v>
+        <v>2780.995796958174</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1380,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5305</v>
+        <v>5350</v>
       </c>
       <c r="C25" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="D25" t="n">
-        <v>5305</v>
+        <v>5350</v>
       </c>
       <c r="E25" t="n">
-        <v>5305</v>
+        <v>5345</v>
       </c>
       <c r="F25" t="n">
-        <v>5.1814</v>
+        <v>61.1667</v>
       </c>
       <c r="G25" t="n">
-        <v>4500.76871213427</v>
+        <v>2719.829096958174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1416,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5305</v>
+        <v>5340</v>
       </c>
       <c r="C26" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="D26" t="n">
-        <v>5305</v>
+        <v>5340</v>
       </c>
       <c r="E26" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="F26" t="n">
-        <v>67.58150000000001</v>
+        <v>134.0345</v>
       </c>
       <c r="G26" t="n">
-        <v>4433.187212134269</v>
+        <v>2585.794596958173</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1452,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="C27" t="n">
-        <v>5285</v>
+        <v>5335</v>
       </c>
       <c r="D27" t="n">
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="E27" t="n">
-        <v>5285</v>
+        <v>5335</v>
       </c>
       <c r="F27" t="n">
-        <v>2788.2913</v>
+        <v>329.7849</v>
       </c>
       <c r="G27" t="n">
-        <v>1644.89591213427</v>
+        <v>2256.009696958173</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1488,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="C28" t="n">
-        <v>5295</v>
+        <v>5330</v>
       </c>
       <c r="D28" t="n">
-        <v>5295</v>
+        <v>5330</v>
       </c>
       <c r="E28" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="F28" t="n">
-        <v>10.1361</v>
+        <v>11.67</v>
       </c>
       <c r="G28" t="n">
-        <v>1655.03201213427</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1524,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="C29" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="D29" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="E29" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="F29" t="n">
-        <v>64.3284</v>
+        <v>59.33</v>
       </c>
       <c r="G29" t="n">
-        <v>1590.703612134269</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1560,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="C30" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="E30" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="F30" t="n">
-        <v>39.3</v>
+        <v>4.4376</v>
       </c>
       <c r="G30" t="n">
-        <v>1630.003612134269</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1596,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="C31" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="D31" t="n">
-        <v>5290</v>
+        <v>5330</v>
       </c>
       <c r="E31" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="F31" t="n">
-        <v>25.6653</v>
+        <v>13.95</v>
       </c>
       <c r="G31" t="n">
-        <v>1604.338312134269</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1632,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="C32" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="E32" t="n">
-        <v>5285</v>
+        <v>5330</v>
       </c>
       <c r="F32" t="n">
-        <v>22.7666</v>
+        <v>52.3726</v>
       </c>
       <c r="G32" t="n">
-        <v>1604.338312134269</v>
+        <v>2244.339696958173</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1668,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5280</v>
+        <v>5330</v>
       </c>
       <c r="C33" t="n">
-        <v>5280</v>
+        <v>5355</v>
       </c>
       <c r="D33" t="n">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="E33" t="n">
-        <v>5280</v>
+        <v>5330</v>
       </c>
       <c r="F33" t="n">
-        <v>39.3</v>
+        <v>1974.7607</v>
       </c>
       <c r="G33" t="n">
-        <v>1565.03831213427</v>
+        <v>4219.100396958173</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1704,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5280</v>
+        <v>5355</v>
       </c>
       <c r="C34" t="n">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="D34" t="n">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="E34" t="n">
-        <v>5280</v>
+        <v>5355</v>
       </c>
       <c r="F34" t="n">
-        <v>23.75</v>
+        <v>114.5938</v>
       </c>
       <c r="G34" t="n">
-        <v>1565.03831213427</v>
+        <v>4333.694196958173</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1740,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5285</v>
+        <v>5370</v>
       </c>
       <c r="C35" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="D35" t="n">
-        <v>5285</v>
+        <v>5370</v>
       </c>
       <c r="E35" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="F35" t="n">
-        <v>41.0705</v>
+        <v>3.0835</v>
       </c>
       <c r="G35" t="n">
-        <v>1565.03831213427</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1776,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="C36" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="D36" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="E36" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="F36" t="n">
-        <v>45.4091</v>
+        <v>56.7</v>
       </c>
       <c r="G36" t="n">
-        <v>1565.03831213427</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1812,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="C37" t="n">
-        <v>5275</v>
+        <v>5370</v>
       </c>
       <c r="D37" t="n">
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="E37" t="n">
-        <v>5275</v>
+        <v>5360</v>
       </c>
       <c r="F37" t="n">
-        <v>8.0852</v>
+        <v>178.0929</v>
       </c>
       <c r="G37" t="n">
-        <v>1556.95311213427</v>
+        <v>4336.777696958173</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1848,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="C38" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="D38" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="E38" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="F38" t="n">
-        <v>11.3881</v>
+        <v>5.1232</v>
       </c>
       <c r="G38" t="n">
-        <v>1556.95311213427</v>
+        <v>4331.654496958173</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1884,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5285</v>
+        <v>5350</v>
       </c>
       <c r="C39" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="D39" t="n">
-        <v>5285</v>
+        <v>5350</v>
       </c>
       <c r="E39" t="n">
-        <v>5275</v>
+        <v>5350</v>
       </c>
       <c r="F39" t="n">
-        <v>105.4126</v>
+        <v>184.108</v>
       </c>
       <c r="G39" t="n">
-        <v>1556.95311213427</v>
+        <v>4331.654496958173</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1920,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="C40" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="D40" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="E40" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="F40" t="n">
-        <v>18.0572</v>
+        <v>189.8142</v>
       </c>
       <c r="G40" t="n">
-        <v>1556.95311213427</v>
+        <v>4141.840296958173</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1956,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="C41" t="n">
-        <v>5280</v>
+        <v>5345</v>
       </c>
       <c r="D41" t="n">
-        <v>5290</v>
+        <v>5345</v>
       </c>
       <c r="E41" t="n">
-        <v>5275</v>
+        <v>5345</v>
       </c>
       <c r="F41" t="n">
-        <v>11.4718</v>
+        <v>5.679</v>
       </c>
       <c r="G41" t="n">
-        <v>1568.42491213427</v>
+        <v>4141.840296958173</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1992,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5280</v>
+        <v>5345</v>
       </c>
       <c r="C42" t="n">
-        <v>5280</v>
+        <v>5340</v>
       </c>
       <c r="D42" t="n">
-        <v>5280</v>
+        <v>5345</v>
       </c>
       <c r="E42" t="n">
-        <v>5280</v>
+        <v>5340</v>
       </c>
       <c r="F42" t="n">
-        <v>500.745</v>
+        <v>26.0068</v>
       </c>
       <c r="G42" t="n">
-        <v>1568.42491213427</v>
+        <v>4115.833496958173</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,35 +2028,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5310</v>
+        <v>5325</v>
       </c>
       <c r="C43" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="D43" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="E43" t="n">
-        <v>5310</v>
+        <v>5325</v>
       </c>
       <c r="F43" t="n">
-        <v>1882.18907911571</v>
+        <v>0.6744</v>
       </c>
       <c r="G43" t="n">
-        <v>3450.613991249979</v>
+        <v>4115.159096958173</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5280</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5280</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1954,22 +2064,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="C44" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D44" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E44" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1813</v>
+        <v>501.0068</v>
       </c>
       <c r="G44" t="n">
-        <v>3270.432691249979</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1978,14 +2088,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5280</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1996,22 +2100,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C45" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E45" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F45" t="n">
-        <v>30.6903</v>
+        <v>1.0408</v>
       </c>
       <c r="G45" t="n">
-        <v>3270.432691249979</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2020,14 +2124,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5280</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +2136,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="C46" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D46" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="E46" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F46" t="n">
-        <v>192.4875</v>
+        <v>0.3702</v>
       </c>
       <c r="G46" t="n">
-        <v>3270.432691249979</v>
+        <v>4616.165896958173</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2074,22 +2172,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="C47" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="D47" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="E47" t="n">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="F47" t="n">
-        <v>47.0592</v>
+        <v>20.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3270.432691249979</v>
+        <v>4595.965896958173</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2110,22 +2208,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C48" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D48" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E48" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F48" t="n">
-        <v>7.3327</v>
+        <v>979.8759</v>
       </c>
       <c r="G48" t="n">
-        <v>3270.432691249979</v>
+        <v>5575.841796958173</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2146,22 +2244,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C49" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D49" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E49" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F49" t="n">
-        <v>49.4175</v>
+        <v>321.8712</v>
       </c>
       <c r="G49" t="n">
-        <v>3270.432691249979</v>
+        <v>5575.841796958173</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2182,22 +2280,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5300</v>
+        <v>5335</v>
       </c>
       <c r="C50" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="D50" t="n">
-        <v>5300</v>
+        <v>5335</v>
       </c>
       <c r="E50" t="n">
-        <v>5300</v>
+        <v>5325</v>
       </c>
       <c r="F50" t="n">
-        <v>377.2879</v>
+        <v>75.16072127460168</v>
       </c>
       <c r="G50" t="n">
-        <v>3270.432691249979</v>
+        <v>5500.681075683571</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2218,22 +2316,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C51" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D51" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E51" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F51" t="n">
-        <v>194.5457</v>
+        <v>0.8337711069418386</v>
       </c>
       <c r="G51" t="n">
-        <v>3270.432691249979</v>
+        <v>5501.514846790513</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2254,22 +2352,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="C52" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="D52" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="E52" t="n">
-        <v>5300</v>
+        <v>5330</v>
       </c>
       <c r="F52" t="n">
-        <v>4.9</v>
+        <v>0.3602</v>
       </c>
       <c r="G52" t="n">
-        <v>3270.432691249979</v>
+        <v>5501.514846790513</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2290,22 +2388,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C53" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="D53" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="E53" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F53" t="n">
-        <v>188.6342</v>
+        <v>177.6476</v>
       </c>
       <c r="G53" t="n">
-        <v>3270.432691249979</v>
+        <v>5323.867246790513</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2338,10 +2436,10 @@
         <v>5300</v>
       </c>
       <c r="F54" t="n">
-        <v>378.4325</v>
+        <v>226.83</v>
       </c>
       <c r="G54" t="n">
-        <v>3270.432691249979</v>
+        <v>5097.037246790513</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2362,22 +2460,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C55" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="D55" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E55" t="n">
         <v>5300</v>
       </c>
       <c r="F55" t="n">
-        <v>171.8355</v>
+        <v>22.0715</v>
       </c>
       <c r="G55" t="n">
-        <v>3270.432691249979</v>
+        <v>5119.108746790513</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2398,22 +2496,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="C56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="E56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="F56" t="n">
-        <v>185.342</v>
+        <v>18.39876208842897</v>
       </c>
       <c r="G56" t="n">
-        <v>3270.432691249979</v>
+        <v>5137.507508878942</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2434,22 +2532,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="C57" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D57" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="E57" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="F57" t="n">
-        <v>63.064</v>
+        <v>54.3377</v>
       </c>
       <c r="G57" t="n">
-        <v>3270.432691249979</v>
+        <v>5137.507508878942</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2470,22 +2568,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C58" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="D58" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="E58" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F58" t="n">
-        <v>259.3457</v>
+        <v>7.2874</v>
       </c>
       <c r="G58" t="n">
-        <v>3270.432691249979</v>
+        <v>5130.220108878942</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2506,22 +2604,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="C59" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="D59" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="E59" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="F59" t="n">
-        <v>9.4252</v>
+        <v>0.4176691729323308</v>
       </c>
       <c r="G59" t="n">
-        <v>3279.857891249979</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2542,22 +2640,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="C60" t="n">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="D60" t="n">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="E60" t="n">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="F60" t="n">
-        <v>225.007</v>
+        <v>99.67910000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>3054.850891249979</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2578,22 +2676,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5285</v>
+        <v>5320</v>
       </c>
       <c r="C61" t="n">
-        <v>5285</v>
+        <v>5320</v>
       </c>
       <c r="D61" t="n">
-        <v>5285</v>
+        <v>5320</v>
       </c>
       <c r="E61" t="n">
-        <v>5285</v>
+        <v>5320</v>
       </c>
       <c r="F61" t="n">
-        <v>9.5</v>
+        <v>15.296</v>
       </c>
       <c r="G61" t="n">
-        <v>3045.350891249979</v>
+        <v>5130.637778051874</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2614,22 +2712,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5285</v>
+        <v>5315</v>
       </c>
       <c r="C62" t="n">
-        <v>5285</v>
+        <v>5315</v>
       </c>
       <c r="D62" t="n">
-        <v>5285</v>
+        <v>5315</v>
       </c>
       <c r="E62" t="n">
-        <v>5280</v>
+        <v>5315</v>
       </c>
       <c r="F62" t="n">
-        <v>563.067</v>
+        <v>3.4511</v>
       </c>
       <c r="G62" t="n">
-        <v>3045.350891249979</v>
+        <v>5127.186678051874</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2650,22 +2748,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="C63" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="D63" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="E63" t="n">
-        <v>5290</v>
+        <v>5310</v>
       </c>
       <c r="F63" t="n">
-        <v>79.8663</v>
+        <v>60.01</v>
       </c>
       <c r="G63" t="n">
-        <v>3125.217191249979</v>
+        <v>5067.176678051874</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2686,22 +2784,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5290</v>
+        <v>5315</v>
       </c>
       <c r="C64" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D64" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E64" t="n">
-        <v>5290</v>
+        <v>5315</v>
       </c>
       <c r="F64" t="n">
-        <v>1282.0678</v>
+        <v>9.407299999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>4407.28499124998</v>
+        <v>5076.583978051874</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2722,22 +2820,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C65" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D65" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E65" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F65" t="n">
-        <v>8.0458</v>
+        <v>957.793</v>
       </c>
       <c r="G65" t="n">
-        <v>4399.23919124998</v>
+        <v>4118.790978051874</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2758,22 +2856,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="C66" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="D66" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="E66" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="F66" t="n">
-        <v>5.9817</v>
+        <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>4393.257491249979</v>
+        <v>4118.790978051874</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2794,22 +2892,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="C67" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="D67" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="E67" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="F67" t="n">
-        <v>21.5183</v>
+        <v>28.222</v>
       </c>
       <c r="G67" t="n">
-        <v>4393.257491249979</v>
+        <v>4147.012978051874</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2830,22 +2928,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="C68" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="D68" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="E68" t="n">
-        <v>5295</v>
+        <v>5315</v>
       </c>
       <c r="F68" t="n">
-        <v>47.2379</v>
+        <v>48.1945</v>
       </c>
       <c r="G68" t="n">
-        <v>4393.257491249979</v>
+        <v>4147.012978051874</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2866,22 +2964,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="C69" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="D69" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="E69" t="n">
-        <v>5295</v>
+        <v>5305</v>
       </c>
       <c r="F69" t="n">
-        <v>73.8373</v>
+        <v>69.9616</v>
       </c>
       <c r="G69" t="n">
-        <v>4393.257491249979</v>
+        <v>4077.051378051874</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,22 +3000,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="C70" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="D70" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="E70" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="F70" t="n">
-        <v>18.9166</v>
+        <v>0.5655</v>
       </c>
       <c r="G70" t="n">
-        <v>4374.34089124998</v>
+        <v>4077.051378051874</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2938,22 +3036,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="C71" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="D71" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="E71" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F71" t="n">
-        <v>19.7916</v>
+        <v>33.0518</v>
       </c>
       <c r="G71" t="n">
-        <v>4374.34089124998</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2974,22 +3072,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="C72" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="D72" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="E72" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F72" t="n">
-        <v>82.5581</v>
+        <v>5.0878</v>
       </c>
       <c r="G72" t="n">
-        <v>4374.34089124998</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3010,22 +3108,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C73" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="D73" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E73" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F73" t="n">
-        <v>96.17570000000001</v>
+        <v>35.5273</v>
       </c>
       <c r="G73" t="n">
-        <v>4470.51659124998</v>
+        <v>4043.999578051873</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3046,22 +3144,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C74" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D74" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E74" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F74" t="n">
-        <v>21.2747</v>
+        <v>10.7218</v>
       </c>
       <c r="G74" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3082,22 +3180,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="C75" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D75" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E75" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="F75" t="n">
-        <v>399.889</v>
+        <v>63.8609</v>
       </c>
       <c r="G75" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3118,22 +3216,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C76" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D76" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E76" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5594</v>
+        <v>47.1654</v>
       </c>
       <c r="G76" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3154,22 +3252,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F77" t="n">
-        <v>223.1082</v>
+        <v>4.3292</v>
       </c>
       <c r="G77" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3190,22 +3288,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C78" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D78" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E78" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F78" t="n">
-        <v>144.9703</v>
+        <v>92.01300000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3226,22 +3324,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C79" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D79" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E79" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F79" t="n">
-        <v>141.4708</v>
+        <v>0.7693</v>
       </c>
       <c r="G79" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3262,22 +3360,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C80" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D80" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E80" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F80" t="n">
-        <v>95.408</v>
+        <v>15.4963</v>
       </c>
       <c r="G80" t="n">
-        <v>4491.79129124998</v>
+        <v>4054.721378051873</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3298,22 +3396,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="C81" t="n">
-        <v>5285</v>
+        <v>5310</v>
       </c>
       <c r="D81" t="n">
-        <v>5285</v>
+        <v>5310</v>
       </c>
       <c r="E81" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="F81" t="n">
-        <v>25.4828</v>
+        <v>231.0613</v>
       </c>
       <c r="G81" t="n">
-        <v>4466.30849124998</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3334,22 +3432,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5285</v>
+        <v>5315</v>
       </c>
       <c r="C82" t="n">
-        <v>5280</v>
+        <v>5310</v>
       </c>
       <c r="D82" t="n">
-        <v>5285</v>
+        <v>5315</v>
       </c>
       <c r="E82" t="n">
-        <v>5280</v>
+        <v>5310</v>
       </c>
       <c r="F82" t="n">
-        <v>34.5172</v>
+        <v>49.3214</v>
       </c>
       <c r="G82" t="n">
-        <v>4431.79129124998</v>
+        <v>4285.782678051874</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3370,22 +3468,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5270</v>
+        <v>5320</v>
       </c>
       <c r="C83" t="n">
-        <v>5270</v>
+        <v>5320</v>
       </c>
       <c r="D83" t="n">
-        <v>5270</v>
+        <v>5320</v>
       </c>
       <c r="E83" t="n">
-        <v>5265</v>
+        <v>5320</v>
       </c>
       <c r="F83" t="n">
-        <v>209.7811</v>
+        <v>0.3279</v>
       </c>
       <c r="G83" t="n">
-        <v>4222.010191249979</v>
+        <v>4286.110578051874</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3406,38 +3504,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="C84" t="n">
-        <v>5265</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="n">
-        <v>5280</v>
+        <v>5330</v>
       </c>
       <c r="E84" t="n">
-        <v>5265</v>
+        <v>5320</v>
       </c>
       <c r="F84" t="n">
-        <v>487.9947</v>
+        <v>235.4612</v>
       </c>
       <c r="G84" t="n">
-        <v>3734.015491249979</v>
+        <v>4521.571778051873</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5270</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3448,38 +3540,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="C85" t="n">
-        <v>5265</v>
+        <v>5325</v>
       </c>
       <c r="D85" t="n">
-        <v>5265</v>
+        <v>5340</v>
       </c>
       <c r="E85" t="n">
-        <v>5260</v>
+        <v>5325</v>
       </c>
       <c r="F85" t="n">
-        <v>15.1722</v>
+        <v>61.034765917603</v>
       </c>
       <c r="G85" t="n">
-        <v>3734.015491249979</v>
+        <v>4460.53701213427</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3490,38 +3576,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="C86" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="D86" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="E86" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="F86" t="n">
-        <v>199.0874</v>
+        <v>0.1127</v>
       </c>
       <c r="G86" t="n">
-        <v>3534.928091249979</v>
+        <v>4460.64971213427</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3532,38 +3612,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5245</v>
+        <v>5355</v>
       </c>
       <c r="C87" t="n">
-        <v>5245</v>
+        <v>5355</v>
       </c>
       <c r="D87" t="n">
-        <v>5245</v>
+        <v>5355</v>
       </c>
       <c r="E87" t="n">
-        <v>5245</v>
+        <v>5355</v>
       </c>
       <c r="F87" t="n">
-        <v>56.529</v>
+        <v>52.434</v>
       </c>
       <c r="G87" t="n">
-        <v>3478.399091249979</v>
+        <v>4513.08371213427</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3574,38 +3648,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5250</v>
+        <v>5360</v>
       </c>
       <c r="C88" t="n">
-        <v>5245</v>
+        <v>5360</v>
       </c>
       <c r="D88" t="n">
-        <v>5250</v>
+        <v>5360</v>
       </c>
       <c r="E88" t="n">
-        <v>5245</v>
+        <v>5360</v>
       </c>
       <c r="F88" t="n">
-        <v>102.6487</v>
+        <v>80.04259999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>3478.399091249979</v>
+        <v>4593.12631213427</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3616,38 +3684,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="C89" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="D89" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="E89" t="n">
-        <v>5255</v>
+        <v>5355</v>
       </c>
       <c r="F89" t="n">
-        <v>26.0778</v>
+        <v>62.8712</v>
       </c>
       <c r="G89" t="n">
-        <v>3504.476891249979</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3658,38 +3720,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5260</v>
+        <v>5355</v>
       </c>
       <c r="C90" t="n">
-        <v>5260</v>
+        <v>5355</v>
       </c>
       <c r="D90" t="n">
-        <v>5260</v>
+        <v>5355</v>
       </c>
       <c r="E90" t="n">
-        <v>5260</v>
+        <v>5355</v>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G90" t="n">
-        <v>3604.476891249979</v>
+        <v>4530.25511213427</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5255</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3700,38 +3756,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="C91" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="D91" t="n">
-        <v>5265</v>
+        <v>5340</v>
       </c>
       <c r="E91" t="n">
-        <v>5245</v>
+        <v>5340</v>
       </c>
       <c r="F91" t="n">
-        <v>2339.742</v>
+        <v>14.285</v>
       </c>
       <c r="G91" t="n">
-        <v>1264.734891249979</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5260</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3742,38 +3792,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="C92" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="D92" t="n">
-        <v>5270</v>
+        <v>5340</v>
       </c>
       <c r="E92" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="F92" t="n">
-        <v>3686.428</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>4951.162891249979</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3784,36 +3828,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="C93" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="D93" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="E93" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="F93" t="n">
-        <v>49.5292</v>
+        <v>25.6999</v>
       </c>
       <c r="G93" t="n">
-        <v>4951.162891249979</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3824,38 +3864,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="C94" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="D94" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="E94" t="n">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="F94" t="n">
-        <v>110.1057</v>
+        <v>119.331</v>
       </c>
       <c r="G94" t="n">
-        <v>4951.162891249979</v>
+        <v>4515.97011213427</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3866,38 +3900,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5255</v>
+        <v>5315</v>
       </c>
       <c r="C95" t="n">
-        <v>5255</v>
+        <v>5315</v>
       </c>
       <c r="D95" t="n">
-        <v>5255</v>
+        <v>5315</v>
       </c>
       <c r="E95" t="n">
-        <v>5255</v>
+        <v>5315</v>
       </c>
       <c r="F95" t="n">
-        <v>304.9293</v>
+        <v>10.02</v>
       </c>
       <c r="G95" t="n">
-        <v>5256.092191249979</v>
+        <v>4505.95011213427</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3908,38 +3936,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="C96" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="D96" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="E96" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="F96" t="n">
-        <v>309.61</v>
+        <v>5.1814</v>
       </c>
       <c r="G96" t="n">
-        <v>5256.092191249979</v>
+        <v>4500.76871213427</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5255</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3950,36 +3972,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="C97" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="D97" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="E97" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F97" t="n">
-        <v>73.0086</v>
+        <v>67.58150000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>5256.092191249979</v>
+        <v>4433.187212134269</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3990,36 +4008,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C98" t="n">
-        <v>5245</v>
+        <v>5285</v>
       </c>
       <c r="D98" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E98" t="n">
-        <v>5245</v>
+        <v>5285</v>
       </c>
       <c r="F98" t="n">
-        <v>921.3878999999999</v>
+        <v>2788.2913</v>
       </c>
       <c r="G98" t="n">
-        <v>4334.704291249979</v>
+        <v>1644.89591213427</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4030,22 +4044,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="C99" t="n">
-        <v>5240</v>
+        <v>5295</v>
       </c>
       <c r="D99" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="E99" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="F99" t="n">
-        <v>110.1</v>
+        <v>10.1361</v>
       </c>
       <c r="G99" t="n">
-        <v>4224.604291249979</v>
+        <v>1655.03201213427</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4055,11 +4069,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +4080,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5230</v>
+        <v>5285</v>
       </c>
       <c r="C100" t="n">
-        <v>5225</v>
+        <v>5285</v>
       </c>
       <c r="D100" t="n">
-        <v>5230</v>
+        <v>5285</v>
       </c>
       <c r="E100" t="n">
-        <v>5225</v>
+        <v>5285</v>
       </c>
       <c r="F100" t="n">
-        <v>5.0744</v>
+        <v>64.3284</v>
       </c>
       <c r="G100" t="n">
-        <v>4219.529891249978</v>
+        <v>1590.703612134269</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4095,11 +4105,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +4116,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="C101" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="D101" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="E101" t="n">
-        <v>5245</v>
+        <v>5290</v>
       </c>
       <c r="F101" t="n">
-        <v>198.4556</v>
+        <v>39.3</v>
       </c>
       <c r="G101" t="n">
-        <v>4417.985491249979</v>
+        <v>1630.003612134269</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4135,11 +4141,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4150,22 +4152,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5230</v>
+        <v>5290</v>
       </c>
       <c r="C102" t="n">
-        <v>5230</v>
+        <v>5285</v>
       </c>
       <c r="D102" t="n">
-        <v>5230</v>
+        <v>5290</v>
       </c>
       <c r="E102" t="n">
-        <v>5230</v>
+        <v>5285</v>
       </c>
       <c r="F102" t="n">
-        <v>35.1716</v>
+        <v>25.6653</v>
       </c>
       <c r="G102" t="n">
-        <v>4382.813891249979</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4175,11 +4177,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4190,22 +4188,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="C103" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="D103" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="E103" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="F103" t="n">
-        <v>17.5</v>
+        <v>22.7666</v>
       </c>
       <c r="G103" t="n">
-        <v>4400.313891249979</v>
+        <v>1604.338312134269</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4215,11 +4213,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4230,38 +4224,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5245</v>
+        <v>5280</v>
       </c>
       <c r="C104" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="D104" t="n">
-        <v>5245</v>
+        <v>5280</v>
       </c>
       <c r="E104" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="F104" t="n">
-        <v>17.4</v>
+        <v>39.3</v>
       </c>
       <c r="G104" t="n">
-        <v>4400.313891249979</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5240</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4272,22 +4260,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="C105" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="D105" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="E105" t="n">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="F105" t="n">
-        <v>6.0845</v>
+        <v>23.75</v>
       </c>
       <c r="G105" t="n">
-        <v>4400.313891249979</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4297,11 +4285,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +4296,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="C106" t="n">
-        <v>5235</v>
+        <v>5280</v>
       </c>
       <c r="D106" t="n">
-        <v>5240</v>
+        <v>5285</v>
       </c>
       <c r="E106" t="n">
-        <v>5235</v>
+        <v>5280</v>
       </c>
       <c r="F106" t="n">
-        <v>184.867</v>
+        <v>41.0705</v>
       </c>
       <c r="G106" t="n">
-        <v>4215.446891249979</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4337,11 +4321,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4352,22 +4332,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="C107" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="D107" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="E107" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4228353948620361</v>
+        <v>45.4091</v>
       </c>
       <c r="G107" t="n">
-        <v>4215.869726644841</v>
+        <v>1565.03831213427</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4377,11 +4357,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4392,34 +4368,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5250</v>
+        <v>5280</v>
       </c>
       <c r="C108" t="n">
-        <v>5250</v>
+        <v>5275</v>
       </c>
       <c r="D108" t="n">
-        <v>5250</v>
+        <v>5280</v>
       </c>
       <c r="E108" t="n">
-        <v>5250</v>
+        <v>5275</v>
       </c>
       <c r="F108" t="n">
-        <v>2.4028</v>
+        <v>8.0852</v>
       </c>
       <c r="G108" t="n">
-        <v>4213.466926644841</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5280</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4432,30 +4410,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="C109" t="n">
-        <v>5260</v>
+        <v>5275</v>
       </c>
       <c r="D109" t="n">
-        <v>5260</v>
+        <v>5275</v>
       </c>
       <c r="E109" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="F109" t="n">
-        <v>610.904</v>
+        <v>11.3881</v>
       </c>
       <c r="G109" t="n">
-        <v>4824.37092664484</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5275</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4472,30 +4452,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="C110" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="D110" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="E110" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="F110" t="n">
-        <v>42.2912</v>
+        <v>105.4126</v>
       </c>
       <c r="G110" t="n">
-        <v>4866.66212664484</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5275</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4512,30 +4494,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5265</v>
+        <v>5275</v>
       </c>
       <c r="C111" t="n">
-        <v>5245</v>
+        <v>5275</v>
       </c>
       <c r="D111" t="n">
-        <v>5265</v>
+        <v>5275</v>
       </c>
       <c r="E111" t="n">
-        <v>5245</v>
+        <v>5275</v>
       </c>
       <c r="F111" t="n">
-        <v>990.7965</v>
+        <v>18.0572</v>
       </c>
       <c r="G111" t="n">
-        <v>3875.86562664484</v>
+        <v>1556.95311213427</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5275</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4552,30 +4536,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="C112" t="n">
-        <v>5260</v>
+        <v>5280</v>
       </c>
       <c r="D112" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="E112" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="F112" t="n">
-        <v>42.62</v>
+        <v>11.4718</v>
       </c>
       <c r="G112" t="n">
-        <v>3918.48562664484</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5275</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4592,30 +4578,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="C113" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="D113" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="E113" t="n">
-        <v>5255</v>
+        <v>5280</v>
       </c>
       <c r="F113" t="n">
-        <v>83.2298</v>
+        <v>500.745</v>
       </c>
       <c r="G113" t="n">
-        <v>3835.25582664484</v>
+        <v>1568.42491213427</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5280</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4632,30 +4620,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5245</v>
+        <v>5310</v>
       </c>
       <c r="C114" t="n">
-        <v>5245</v>
+        <v>5315</v>
       </c>
       <c r="D114" t="n">
-        <v>5245</v>
+        <v>5315</v>
       </c>
       <c r="E114" t="n">
-        <v>5245</v>
+        <v>5310</v>
       </c>
       <c r="F114" t="n">
-        <v>3.0981</v>
+        <v>1882.18907911571</v>
       </c>
       <c r="G114" t="n">
-        <v>3832.15772664484</v>
+        <v>3450.613991249979</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5280</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4672,22 +4662,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="C115" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="D115" t="n">
-        <v>5255</v>
+        <v>5305</v>
       </c>
       <c r="E115" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F115" t="n">
-        <v>5</v>
+        <v>180.1813</v>
       </c>
       <c r="G115" t="n">
-        <v>3837.15772664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4712,22 +4702,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="C116" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="D116" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="E116" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F116" t="n">
-        <v>64.3164</v>
+        <v>30.6903</v>
       </c>
       <c r="G116" t="n">
-        <v>3837.15772664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4752,22 +4742,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="C117" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D117" t="n">
-        <v>5275</v>
+        <v>5305</v>
       </c>
       <c r="E117" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F117" t="n">
-        <v>177.8654</v>
+        <v>192.4875</v>
       </c>
       <c r="G117" t="n">
-        <v>4015.02312664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4792,22 +4782,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="C118" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D118" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E118" t="n">
-        <v>5275</v>
+        <v>5300</v>
       </c>
       <c r="F118" t="n">
-        <v>400</v>
+        <v>47.0592</v>
       </c>
       <c r="G118" t="n">
-        <v>4415.02312664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4832,22 +4822,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="C119" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="D119" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="E119" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="F119" t="n">
-        <v>8.4968</v>
+        <v>7.3327</v>
       </c>
       <c r="G119" t="n">
-        <v>4406.52632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4872,22 +4862,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="C120" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="D120" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="E120" t="n">
-        <v>5270</v>
+        <v>5300</v>
       </c>
       <c r="F120" t="n">
-        <v>1.5032</v>
+        <v>49.4175</v>
       </c>
       <c r="G120" t="n">
-        <v>4406.52632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4912,22 +4902,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C121" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D121" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E121" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F121" t="n">
-        <v>3.72</v>
+        <v>377.2879</v>
       </c>
       <c r="G121" t="n">
-        <v>4402.80632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4952,22 +4942,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E122" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F122" t="n">
-        <v>59.293</v>
+        <v>194.5457</v>
       </c>
       <c r="G122" t="n">
-        <v>4402.80632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4992,22 +4982,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C123" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D123" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E123" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F123" t="n">
-        <v>104.8539</v>
+        <v>4.9</v>
       </c>
       <c r="G123" t="n">
-        <v>4402.80632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5032,22 +5022,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C124" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D124" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E124" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F124" t="n">
-        <v>28.01</v>
+        <v>188.6342</v>
       </c>
       <c r="G124" t="n">
-        <v>4402.80632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5072,22 +5062,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="C125" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="D125" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="E125" t="n">
-        <v>5260</v>
+        <v>5300</v>
       </c>
       <c r="F125" t="n">
-        <v>5.486</v>
+        <v>378.4325</v>
       </c>
       <c r="G125" t="n">
-        <v>4402.80632664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5112,22 +5102,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5260</v>
+        <v>5305</v>
       </c>
       <c r="C126" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="D126" t="n">
-        <v>5260</v>
+        <v>5305</v>
       </c>
       <c r="E126" t="n">
-        <v>5255</v>
+        <v>5300</v>
       </c>
       <c r="F126" t="n">
-        <v>4.8729</v>
+        <v>171.8355</v>
       </c>
       <c r="G126" t="n">
-        <v>4397.93342664484</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5152,22 +5142,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C127" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D127" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E127" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F127" t="n">
-        <v>18.7761</v>
+        <v>185.342</v>
       </c>
       <c r="G127" t="n">
-        <v>4379.157326644839</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5192,22 +5182,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C128" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D128" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E128" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F128" t="n">
-        <v>62.6175</v>
+        <v>63.064</v>
       </c>
       <c r="G128" t="n">
-        <v>4379.157326644839</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5232,22 +5222,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C129" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D129" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E129" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F129" t="n">
-        <v>3.14</v>
+        <v>259.3457</v>
       </c>
       <c r="G129" t="n">
-        <v>4379.157326644839</v>
+        <v>3270.432691249979</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5272,22 +5262,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="C130" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="D130" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="E130" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="F130" t="n">
-        <v>6.3617</v>
+        <v>9.4252</v>
       </c>
       <c r="G130" t="n">
-        <v>4379.157326644839</v>
+        <v>3279.857891249979</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5312,22 +5302,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="C131" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="D131" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="E131" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="F131" t="n">
-        <v>7.58</v>
+        <v>225.007</v>
       </c>
       <c r="G131" t="n">
-        <v>4379.157326644839</v>
+        <v>3054.850891249979</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5352,22 +5342,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="C132" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="D132" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="E132" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="F132" t="n">
-        <v>103</v>
+        <v>9.5</v>
       </c>
       <c r="G132" t="n">
-        <v>4379.157326644839</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5392,22 +5382,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="C133" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="D133" t="n">
-        <v>5250</v>
+        <v>5285</v>
       </c>
       <c r="E133" t="n">
-        <v>5250</v>
+        <v>5280</v>
       </c>
       <c r="F133" t="n">
-        <v>50.1274</v>
+        <v>563.067</v>
       </c>
       <c r="G133" t="n">
-        <v>4379.157326644839</v>
+        <v>3045.350891249979</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5432,22 +5422,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="C134" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="D134" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="E134" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="F134" t="n">
-        <v>13.6228</v>
+        <v>79.8663</v>
       </c>
       <c r="G134" t="n">
-        <v>4379.157326644839</v>
+        <v>3125.217191249979</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5472,22 +5462,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="C135" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="D135" t="n">
-        <v>5250</v>
+        <v>5305</v>
       </c>
       <c r="E135" t="n">
-        <v>5250</v>
+        <v>5290</v>
       </c>
       <c r="F135" t="n">
-        <v>159.6481</v>
+        <v>1282.0678</v>
       </c>
       <c r="G135" t="n">
-        <v>4379.157326644839</v>
+        <v>4407.28499124998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5512,22 +5502,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="C136" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="D136" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E136" t="n">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F136" t="n">
-        <v>89.55719999999999</v>
+        <v>8.0458</v>
       </c>
       <c r="G136" t="n">
-        <v>4379.157326644839</v>
+        <v>4399.23919124998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5552,22 +5542,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="C137" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="D137" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="E137" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="F137" t="n">
-        <v>20.0574</v>
+        <v>5.9817</v>
       </c>
       <c r="G137" t="n">
-        <v>4379.157326644839</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5592,32 +5582,30 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="C138" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="D138" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="E138" t="n">
-        <v>5250</v>
+        <v>5295</v>
       </c>
       <c r="F138" t="n">
-        <v>75.51179999999999</v>
+        <v>21.5183</v>
       </c>
       <c r="G138" t="n">
-        <v>4379.157326644839</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>5250</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5634,22 +5622,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="C139" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="D139" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="E139" t="n">
-        <v>5260</v>
+        <v>5295</v>
       </c>
       <c r="F139" t="n">
-        <v>38.0237</v>
+        <v>47.2379</v>
       </c>
       <c r="G139" t="n">
-        <v>4417.181026644839</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5674,32 +5662,30 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="C140" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="D140" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="E140" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="F140" t="n">
-        <v>42.0403</v>
+        <v>73.8373</v>
       </c>
       <c r="G140" t="n">
-        <v>4375.14072664484</v>
+        <v>4393.257491249979</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5716,22 +5702,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="C141" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="D141" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="E141" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="F141" t="n">
-        <v>124.9625</v>
+        <v>18.9166</v>
       </c>
       <c r="G141" t="n">
-        <v>4500.103226644839</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5756,22 +5742,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="C142" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="D142" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="E142" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="F142" t="n">
-        <v>81.7838</v>
+        <v>19.7916</v>
       </c>
       <c r="G142" t="n">
-        <v>4581.887026644839</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5796,22 +5782,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="C143" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="D143" t="n">
-        <v>5265</v>
+        <v>5290</v>
       </c>
       <c r="E143" t="n">
-        <v>5260</v>
+        <v>5290</v>
       </c>
       <c r="F143" t="n">
-        <v>464.8278</v>
+        <v>82.5581</v>
       </c>
       <c r="G143" t="n">
-        <v>4581.887026644839</v>
+        <v>4374.34089124998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5836,22 +5822,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5265</v>
+        <v>5295</v>
       </c>
       <c r="C144" t="n">
-        <v>5270</v>
+        <v>5295</v>
       </c>
       <c r="D144" t="n">
-        <v>5270</v>
+        <v>5295</v>
       </c>
       <c r="E144" t="n">
-        <v>5265</v>
+        <v>5295</v>
       </c>
       <c r="F144" t="n">
-        <v>131.0944</v>
+        <v>96.17570000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>4712.981426644839</v>
+        <v>4470.51659124998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5876,7 +5862,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5275</v>
+        <v>5295</v>
       </c>
       <c r="C145" t="n">
         <v>5300</v>
@@ -5885,13 +5871,13 @@
         <v>5300</v>
       </c>
       <c r="E145" t="n">
-        <v>5275</v>
+        <v>5295</v>
       </c>
       <c r="F145" t="n">
-        <v>195.8567</v>
+        <v>21.2747</v>
       </c>
       <c r="G145" t="n">
-        <v>4908.83812664484</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5916,22 +5902,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C146" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D146" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E146" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9442</v>
+        <v>399.889</v>
       </c>
       <c r="G146" t="n">
-        <v>4907.89392664484</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5959,19 +5945,19 @@
         <v>5300</v>
       </c>
       <c r="C147" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="D147" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="E147" t="n">
         <v>5300</v>
       </c>
       <c r="F147" t="n">
-        <v>98.0565</v>
+        <v>0.5594</v>
       </c>
       <c r="G147" t="n">
-        <v>5005.950426644839</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5996,22 +5982,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C148" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D148" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E148" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F148" t="n">
-        <v>138.2</v>
+        <v>223.1082</v>
       </c>
       <c r="G148" t="n">
-        <v>4867.75042664484</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6036,22 +6022,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C149" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D149" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E149" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F149" t="n">
-        <v>98.59999999999999</v>
+        <v>144.9703</v>
       </c>
       <c r="G149" t="n">
-        <v>4769.150426644839</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6076,22 +6062,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C150" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D150" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E150" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F150" t="n">
-        <v>159.7739</v>
+        <v>141.4708</v>
       </c>
       <c r="G150" t="n">
-        <v>4769.150426644839</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6116,22 +6102,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C151" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D151" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E151" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F151" t="n">
-        <v>100.637</v>
+        <v>95.408</v>
       </c>
       <c r="G151" t="n">
-        <v>4869.787426644839</v>
+        <v>4491.79129124998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6156,22 +6142,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="C152" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="D152" t="n">
-        <v>5310</v>
+        <v>5285</v>
       </c>
       <c r="E152" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F152" t="n">
-        <v>1320.2635</v>
+        <v>25.4828</v>
       </c>
       <c r="G152" t="n">
-        <v>6190.050926644839</v>
+        <v>4466.30849124998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6196,22 +6182,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5315</v>
+        <v>5285</v>
       </c>
       <c r="C153" t="n">
-        <v>5345</v>
+        <v>5280</v>
       </c>
       <c r="D153" t="n">
-        <v>5345</v>
+        <v>5285</v>
       </c>
       <c r="E153" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="F153" t="n">
-        <v>417.5425</v>
+        <v>34.5172</v>
       </c>
       <c r="G153" t="n">
-        <v>6607.593426644838</v>
+        <v>4431.79129124998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6236,22 +6222,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5345</v>
+        <v>5270</v>
       </c>
       <c r="C154" t="n">
-        <v>5350</v>
+        <v>5270</v>
       </c>
       <c r="D154" t="n">
-        <v>5350</v>
+        <v>5270</v>
       </c>
       <c r="E154" t="n">
-        <v>5345</v>
+        <v>5265</v>
       </c>
       <c r="F154" t="n">
-        <v>49.667</v>
+        <v>209.7811</v>
       </c>
       <c r="G154" t="n">
-        <v>6657.260426644839</v>
+        <v>4222.010191249979</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6276,22 +6262,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5350</v>
+        <v>5280</v>
       </c>
       <c r="C155" t="n">
-        <v>5340</v>
+        <v>5265</v>
       </c>
       <c r="D155" t="n">
-        <v>5350</v>
+        <v>5280</v>
       </c>
       <c r="E155" t="n">
-        <v>5340</v>
+        <v>5265</v>
       </c>
       <c r="F155" t="n">
-        <v>375.084</v>
+        <v>487.9947</v>
       </c>
       <c r="G155" t="n">
-        <v>6282.176426644839</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6316,22 +6302,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5340</v>
+        <v>5260</v>
       </c>
       <c r="C156" t="n">
-        <v>5340</v>
+        <v>5265</v>
       </c>
       <c r="D156" t="n">
-        <v>5340</v>
+        <v>5265</v>
       </c>
       <c r="E156" t="n">
-        <v>5340</v>
+        <v>5260</v>
       </c>
       <c r="F156" t="n">
-        <v>590.9604</v>
+        <v>15.1722</v>
       </c>
       <c r="G156" t="n">
-        <v>6282.176426644839</v>
+        <v>3734.015491249979</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6356,30 +6342,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5330</v>
+        <v>5260</v>
       </c>
       <c r="C157" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="D157" t="n">
-        <v>5345</v>
+        <v>5260</v>
       </c>
       <c r="E157" t="n">
-        <v>5330</v>
+        <v>5260</v>
       </c>
       <c r="F157" t="n">
-        <v>140.7102</v>
+        <v>199.0874</v>
       </c>
       <c r="G157" t="n">
-        <v>6422.886626644839</v>
+        <v>3534.928091249979</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5265</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6396,30 +6384,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5355</v>
+        <v>5245</v>
       </c>
       <c r="C158" t="n">
-        <v>5360</v>
+        <v>5245</v>
       </c>
       <c r="D158" t="n">
-        <v>5360</v>
+        <v>5245</v>
       </c>
       <c r="E158" t="n">
-        <v>5355</v>
+        <v>5245</v>
       </c>
       <c r="F158" t="n">
-        <v>297.5</v>
+        <v>56.529</v>
       </c>
       <c r="G158" t="n">
-        <v>6720.386626644839</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5260</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6436,30 +6426,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5370</v>
+        <v>5250</v>
       </c>
       <c r="C159" t="n">
-        <v>5370</v>
+        <v>5245</v>
       </c>
       <c r="D159" t="n">
-        <v>5370</v>
+        <v>5250</v>
       </c>
       <c r="E159" t="n">
-        <v>5370</v>
+        <v>5245</v>
       </c>
       <c r="F159" t="n">
-        <v>18.6402</v>
+        <v>102.6487</v>
       </c>
       <c r="G159" t="n">
-        <v>6739.026826644838</v>
+        <v>3478.399091249979</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5245</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6470,6 +6462,2898 @@
         <v>1</v>
       </c>
       <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F160" t="n">
+        <v>26.0778</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3504.476891249979</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3604.476891249979</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5255</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2339.742</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1264.734891249979</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3686.428</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4951.162891249979</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>49.5292</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4951.162891249979</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F165" t="n">
+        <v>110.1057</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4951.162891249979</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F166" t="n">
+        <v>304.9293</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5256.092191249979</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F167" t="n">
+        <v>309.61</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5256.092191249979</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F168" t="n">
+        <v>73.0086</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5256.092191249979</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F169" t="n">
+        <v>921.3878999999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4334.704291249979</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5255</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F170" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4224.604291249979</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5230</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5225</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5230</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.0744</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4219.529891249978</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F172" t="n">
+        <v>198.4556</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4417.985491249979</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5225</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5230</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5230</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5230</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5230</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35.1716</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4382.813891249979</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F174" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4400.313891249979</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>5230</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F175" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4400.313891249979</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6.0845</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4400.313891249979</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5235</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5235</v>
+      </c>
+      <c r="F177" t="n">
+        <v>184.867</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4215.446891249979</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.4228353948620361</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4215.869726644841</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>5235</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.4028</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4213.466926644841</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>5255</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F180" t="n">
+        <v>610.904</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4824.37092664484</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F181" t="n">
+        <v>42.2912</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4866.66212664484</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F182" t="n">
+        <v>990.7965</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3875.86562664484</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F183" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3918.48562664484</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F184" t="n">
+        <v>83.2298</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3835.25582664484</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.0981</v>
+      </c>
+      <c r="G185" t="n">
+        <v>3832.15772664484</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3837.15772664484</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F187" t="n">
+        <v>64.3164</v>
+      </c>
+      <c r="G187" t="n">
+        <v>3837.15772664484</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5275</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F188" t="n">
+        <v>177.8654</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4015.02312664484</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5280</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F189" t="n">
+        <v>400</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4415.02312664484</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8.4968</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4406.52632664484</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.5032</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4406.52632664484</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4402.80632664484</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F193" t="n">
+        <v>59.293</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4402.80632664484</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F194" t="n">
+        <v>104.8539</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4402.80632664484</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F195" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4402.80632664484</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5.486</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4402.80632664484</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4.8729</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4397.93342664484</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18.7761</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F199" t="n">
+        <v>62.6175</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6.3617</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F203" t="n">
+        <v>103</v>
+      </c>
+      <c r="G203" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F204" t="n">
+        <v>50.1274</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F205" t="n">
+        <v>13.6228</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F206" t="n">
+        <v>159.6481</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F207" t="n">
+        <v>89.55719999999999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F208" t="n">
+        <v>20.0574</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F209" t="n">
+        <v>75.51179999999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4379.157326644839</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F210" t="n">
+        <v>38.0237</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4417.181026644839</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F211" t="n">
+        <v>42.0403</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4375.14072664484</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F212" t="n">
+        <v>124.9625</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4500.103226644839</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F213" t="n">
+        <v>81.7838</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4581.887026644839</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F214" t="n">
+        <v>464.8278</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4581.887026644839</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F215" t="n">
+        <v>131.0944</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4712.981426644839</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5300</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F216" t="n">
+        <v>195.8567</v>
+      </c>
+      <c r="G216" t="n">
+        <v>4908.83812664484</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="G217" t="n">
+        <v>4907.89392664484</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F218" t="n">
+        <v>98.0565</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5005.950426644839</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F219" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4867.75042664484</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F220" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4769.150426644839</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F221" t="n">
+        <v>159.7739</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4769.150426644839</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5305</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100.637</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4869.787426644839</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1320.2635</v>
+      </c>
+      <c r="G223" t="n">
+        <v>6190.050926644839</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5315</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5315</v>
+      </c>
+      <c r="F224" t="n">
+        <v>417.5425</v>
+      </c>
+      <c r="G224" t="n">
+        <v>6607.593426644838</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5345</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5350</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5345</v>
+      </c>
+      <c r="F225" t="n">
+        <v>49.667</v>
+      </c>
+      <c r="G225" t="n">
+        <v>6657.260426644839</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5350</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F226" t="n">
+        <v>375.084</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6282.176426644839</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5340</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5340</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F227" t="n">
+        <v>590.9604</v>
+      </c>
+      <c r="G227" t="n">
+        <v>6282.176426644839</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5330</v>
+      </c>
+      <c r="F228" t="n">
+        <v>140.7102</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6422.886626644839</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5355</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5360</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5360</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F229" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="G229" t="n">
+        <v>6720.386626644839</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5370</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5370</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5370</v>
+      </c>
+      <c r="F230" t="n">
+        <v>18.6402</v>
+      </c>
+      <c r="G230" t="n">
+        <v>6739.026826644838</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2169.687396958175</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2159.318196958175</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5315</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5300</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>2588.401596958174</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>2719.462296958174</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +770,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +809,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +848,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +887,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,17 @@
         <v>2599.663396958174</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1196,17 @@
         <v>3017.293496958174</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1235,17 @@
         <v>2847.995796958174</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1274,17 @@
         <v>2847.995796958174</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1313,17 @@
         <v>2780.995796958174</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1352,17 @@
         <v>2719.829096958174</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1391,17 @@
         <v>2585.794596958173</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1589,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1667,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,13 +1859,19 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>1.001585136406397</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1672,7 +1898,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1931,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1964,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1997,7 @@
         <v>4115.833496958173</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +2030,7 @@
         <v>4115.159096958173</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2063,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2096,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2129,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2162,7 @@
         <v>4595.965896958173</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2195,7 @@
         <v>5575.841796958173</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2228,7 @@
         <v>5575.841796958173</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2261,7 @@
         <v>5500.681075683571</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2294,7 @@
         <v>5501.514846790513</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2327,7 @@
         <v>5501.514846790513</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2360,7 @@
         <v>5323.867246790513</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2393,7 @@
         <v>5097.037246790513</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2426,7 @@
         <v>5119.108746790513</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2459,7 @@
         <v>5137.507508878942</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2492,7 @@
         <v>5137.507508878942</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2525,7 @@
         <v>5130.220108878942</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2558,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2591,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2624,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2657,7 @@
         <v>5127.186678051874</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2690,7 @@
         <v>5067.176678051874</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2723,7 @@
         <v>5076.583978051874</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2756,7 @@
         <v>4118.790978051874</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2789,7 @@
         <v>4118.790978051874</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2822,7 @@
         <v>4147.012978051874</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2855,7 @@
         <v>4147.012978051874</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2888,7 @@
         <v>4077.051378051874</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2954,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2987,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3020,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3053,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3086,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3119,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3152,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3185,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3218,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3251,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3284,7 @@
         <v>4285.782678051874</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3317,7 @@
         <v>4285.782678051874</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3350,7 @@
         <v>4286.110578051874</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3383,7 @@
         <v>4521.571778051873</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3416,7 @@
         <v>4460.53701213427</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3449,7 @@
         <v>4460.64971213427</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3482,7 @@
         <v>4513.08371213427</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3515,7 @@
         <v>4593.12631213427</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3548,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3581,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3614,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3647,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3680,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3713,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3746,7 @@
         <v>4505.95011213427</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3779,7 @@
         <v>4500.76871213427</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3812,7 @@
         <v>4433.187212134269</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3845,7 @@
         <v>1644.89591213427</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3878,7 @@
         <v>1655.03201213427</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3911,7 @@
         <v>1590.703612134269</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3944,7 @@
         <v>1630.003612134269</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3977,7 @@
         <v>1604.338312134269</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4180,7 +4406,7 @@
         <v>3270.432691249979</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4439,7 @@
         <v>3270.432691249979</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4472,7 @@
         <v>3270.432691249979</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4505,7 @@
         <v>3270.432691249979</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4538,7 @@
         <v>3270.432691249979</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6127,14 +6353,10 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5230</v>
-      </c>
-      <c r="J174" t="n">
-        <v>5230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6164,19 +6386,11 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5240</v>
-      </c>
-      <c r="J175" t="n">
-        <v>5230</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6208,14 +6422,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5230</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +6518,10 @@
         <v>4213.466926644841</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5255</v>
-      </c>
-      <c r="J179" t="n">
-        <v>5255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
@@ -6350,14 +6554,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6389,14 +6587,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6428,14 +6620,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6467,14 +6653,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +6686,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6545,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +6752,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6740,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6779,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6857,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6935,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6974,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7013,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7052,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7091,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7169,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7208,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7247,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7325,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7403,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7442,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7556,19 +7574,11 @@
         <v>4375.14072664484</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5260</v>
-      </c>
-      <c r="J211" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7597,19 +7607,11 @@
         <v>4500.103226644839</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>5245</v>
-      </c>
-      <c r="J212" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7638,19 +7640,11 @@
         <v>4581.887026644839</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5260</v>
-      </c>
-      <c r="J213" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7679,19 +7673,11 @@
         <v>4581.887026644839</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>5265</v>
-      </c>
-      <c r="J214" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7723,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7840,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7879,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7996,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8074,14 +8006,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8113,14 +8039,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8152,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8191,14 +8105,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8230,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +8171,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8308,20 +8204,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
       <c r="M230" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2169.687396958175</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>2159.318196958175</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5315</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5300</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>2588.401596958174</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>2719.462296958174</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5315</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -770,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -809,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -848,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -887,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -926,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1859,19 +1639,13 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.001585136406397</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1898,7 +1672,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1931,7 +1705,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1964,7 +1738,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1997,7 +1771,7 @@
         <v>4115.833496958173</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2030,7 +1804,7 @@
         <v>4115.159096958173</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2063,7 +1837,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2096,7 +1870,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2129,7 +1903,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2162,7 +1936,7 @@
         <v>4595.965896958173</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2195,7 +1969,7 @@
         <v>5575.841796958173</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2228,7 +2002,7 @@
         <v>5575.841796958173</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2261,7 +2035,7 @@
         <v>5500.681075683571</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2294,7 +2068,7 @@
         <v>5501.514846790513</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2327,7 +2101,7 @@
         <v>5501.514846790513</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2360,7 +2134,7 @@
         <v>5323.867246790513</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2393,7 +2167,7 @@
         <v>5097.037246790513</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2426,7 +2200,7 @@
         <v>5119.108746790513</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2459,7 +2233,7 @@
         <v>5137.507508878942</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2492,7 +2266,7 @@
         <v>5137.507508878942</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2525,7 +2299,7 @@
         <v>5130.220108878942</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2558,7 +2332,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2591,7 +2365,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2624,7 +2398,7 @@
         <v>5130.637778051874</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2657,7 +2431,7 @@
         <v>5127.186678051874</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2690,7 +2464,7 @@
         <v>5067.176678051874</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2723,7 +2497,7 @@
         <v>5076.583978051874</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2756,7 +2530,7 @@
         <v>4118.790978051874</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2789,7 +2563,7 @@
         <v>4118.790978051874</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2822,7 +2596,7 @@
         <v>4147.012978051874</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2855,7 +2629,7 @@
         <v>4147.012978051874</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2888,7 +2662,7 @@
         <v>4077.051378051874</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2954,7 +2728,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2987,7 +2761,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3020,7 +2794,7 @@
         <v>4043.999578051873</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3053,7 +2827,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3086,7 +2860,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3119,7 +2893,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3152,7 +2926,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3185,7 +2959,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3218,7 +2992,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3251,7 +3025,7 @@
         <v>4054.721378051873</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3284,7 +3058,7 @@
         <v>4285.782678051874</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3317,7 +3091,7 @@
         <v>4285.782678051874</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3350,7 +3124,7 @@
         <v>4286.110578051874</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3383,7 +3157,7 @@
         <v>4521.571778051873</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3416,7 +3190,7 @@
         <v>4460.53701213427</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3449,7 +3223,7 @@
         <v>4460.64971213427</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3482,7 +3256,7 @@
         <v>4513.08371213427</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3647,7 +3421,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3680,7 +3454,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3746,7 +3520,7 @@
         <v>4505.95011213427</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3779,7 +3553,7 @@
         <v>4500.76871213427</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3812,7 +3586,7 @@
         <v>4433.187212134269</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3845,7 +3619,7 @@
         <v>1644.89591213427</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3878,7 +3652,7 @@
         <v>1655.03201213427</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3911,7 +3685,7 @@
         <v>1590.703612134269</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3944,7 +3718,7 @@
         <v>1630.003612134269</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3977,7 +3751,7 @@
         <v>1604.338312134269</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4241,11 +4015,17 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5275</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4274,11 +4054,17 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5275</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +4093,17 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5275</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4132,17 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5280</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4377,7 +4175,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4410,7 +4212,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4443,7 +4249,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4476,7 +4286,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4509,7 +4323,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4360,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4575,7 +4397,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +4434,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4471,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4508,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4707,7 +4545,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4740,7 +4582,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +4619,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4806,7 +4656,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4839,7 +4693,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +4730,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4905,7 +4767,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +4804,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +4841,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +4878,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +4915,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5070,7 +4952,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +4989,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5136,7 +5026,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5169,7 +5063,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5202,7 +5100,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5137,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5268,7 +5174,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5301,7 +5211,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5248,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5285,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5400,7 +5322,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5359,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5396,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5433,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +5470,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5507,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5598,7 +5544,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5581,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +5618,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5655,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +5692,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +5729,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +5762,17 @@
         <v>3534.928091249979</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5265</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +5805,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5858,11 +5838,17 @@
         <v>3478.399091249979</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5245</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5891,11 +5877,17 @@
         <v>3504.476891249979</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5245</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5924,11 +5916,17 @@
         <v>3604.476891249979</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5255</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +5955,17 @@
         <v>1264.734891249979</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5260</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5990,11 +5994,17 @@
         <v>4951.162891249979</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5245</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6037,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6074,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6089,11 +6107,17 @@
         <v>5256.092191249979</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5250</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6150,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6187,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +6220,17 @@
         <v>4334.704291249979</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5255</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6263,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6300,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6287,11 +6333,17 @@
         <v>4417.985491249979</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5225</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +6372,17 @@
         <v>4382.813891249979</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5245</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6353,11 +6411,17 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5230</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6386,11 +6450,17 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5240</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6493,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6526,17 @@
         <v>4215.446891249979</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>5240</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6485,11 +6565,17 @@
         <v>4215.869726644841</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5235</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +6608,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +6645,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +6682,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +6719,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6756,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +6793,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +6830,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +6867,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +6904,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +6941,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +6978,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7015,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7052,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7089,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7126,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7163,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7200,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7237,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7274,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7311,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7348,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7385,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7422,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7459,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7496,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7533,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7570,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7607,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7644,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +7681,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +7718,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7755,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +7792,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +7829,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +7866,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +7903,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +7940,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +7977,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8014,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7805,14 +8047,16 @@
         <v>5005.950426644839</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -7838,7 +8082,7 @@
         <v>4867.75042664484</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7871,7 +8115,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7904,7 +8148,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7937,7 +8181,7 @@
         <v>4869.787426644839</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7970,7 +8214,7 @@
         <v>6190.050926644839</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8003,7 +8247,7 @@
         <v>6607.593426644838</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8036,7 +8280,7 @@
         <v>6657.260426644839</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8069,7 +8313,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8102,7 +8346,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8135,7 +8379,7 @@
         <v>6422.886626644839</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8168,7 +8412,7 @@
         <v>6720.386626644839</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8212,6 +8456,6 @@
       <c r="M230" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest ETC.xlsx
+++ b/BackTest/2019-10-21 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>2169.687396958175</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2159.318196958175</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5315</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5300</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>2588.401596958174</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>2719.462296958174</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>2769.752596958174</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5325</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +811,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +850,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +889,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +928,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +967,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1006,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1045,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1084,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1123,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1201,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1240,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1279,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1318,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1357,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1513,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1591,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1630,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1669,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1708,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,13 +1744,19 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>1.005348071495767</v>
       </c>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1573,7 +1783,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1816,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1849,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1882,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1915,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1981,7 @@
         <v>4115.833496958173</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +2014,7 @@
         <v>4115.159096958173</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2047,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +2146,7 @@
         <v>4595.965896958173</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2245,7 @@
         <v>5500.681075683571</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3289,7 +3499,7 @@
         <v>4593.12631213427</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3532,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3565,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3598,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3631,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3664,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3697,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3730,7 @@
         <v>4505.95011213427</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4015,17 +4225,11 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4054,17 +4258,11 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4093,17 +4291,11 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4132,17 +4324,11 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4361,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4394,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4427,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4460,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4493,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +4526,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4559,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4592,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4625,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4658,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4691,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4724,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4757,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4790,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4823,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4856,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4889,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4922,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4955,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4988,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +5021,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +5054,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +5087,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +5120,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5153,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +5186,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5219,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +5252,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +5285,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5318,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5351,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +5384,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5417,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5450,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5483,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5516,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5549,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5582,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5615,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5648,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5681,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5714,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5747,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5762,17 +5776,11 @@
         <v>3534.928091249979</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5813,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5838,17 +5842,11 @@
         <v>3478.399091249979</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5877,17 +5875,11 @@
         <v>3504.476891249979</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5916,17 +5908,11 @@
         <v>3604.476891249979</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5955,17 +5941,11 @@
         <v>1264.734891249979</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5994,17 +5974,11 @@
         <v>4951.162891249979</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +6011,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +6044,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6107,17 +6073,11 @@
         <v>5256.092191249979</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6150,11 +6110,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6187,11 +6143,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6220,17 +6172,11 @@
         <v>4334.704291249979</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +6209,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6300,11 +6242,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6333,17 +6271,11 @@
         <v>4417.985491249979</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6372,17 +6304,11 @@
         <v>4382.813891249979</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6411,17 +6337,11 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6450,17 +6370,11 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6407,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6526,17 +6436,11 @@
         <v>4215.446891249979</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6565,17 +6469,11 @@
         <v>4215.869726644841</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>5235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +6506,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +6539,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +6572,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +6605,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6756,11 +6638,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +6671,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6830,11 +6704,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6867,11 +6737,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6904,11 +6770,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6941,11 +6803,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6978,11 +6836,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +6869,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +6902,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +6935,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +6968,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +7001,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +7034,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7237,11 +7067,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7100,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +7133,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7166,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7385,11 +7199,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7422,11 +7232,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7459,11 +7265,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +7298,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +7331,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +7364,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7607,11 +7397,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +7430,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +7463,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7718,11 +7496,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +7529,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7792,11 +7562,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7829,11 +7595,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7866,11 +7628,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +7661,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7940,11 +7694,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7977,11 +7727,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +7760,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8047,16 +7789,14 @@
         <v>5005.950426644839</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
       <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -8082,7 +7822,7 @@
         <v>4867.75042664484</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8115,7 +7855,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8148,7 +7888,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8181,7 +7921,7 @@
         <v>4869.787426644839</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8214,7 +7954,7 @@
         <v>6190.050926644839</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8247,7 +7987,7 @@
         <v>6607.593426644838</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8280,7 +8020,7 @@
         <v>6657.260426644839</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8313,7 +8053,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8346,7 +8086,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8379,7 +8119,7 @@
         <v>6422.886626644839</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8412,7 +8152,7 @@
         <v>6720.386626644839</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
